--- a/Ananse1/Ananse1_Learned.xlsx
+++ b/Ananse1/Ananse1_Learned.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akan\New Ananse Tales\Ananse1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF4D358-585D-43DC-86D0-6B8644D08468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2598B35E-B9EB-4F0B-A545-63169F8A3E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="3690" windowWidth="22095" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29250" yWindow="5775" windowWidth="23505" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Learned" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="856">
   <si>
     <t>AKAN</t>
   </si>
@@ -46,10 +46,7 @@
     <t>EtoA POS</t>
   </si>
   <si>
-    <t>Akan-to-English Dictionary</t>
-  </si>
-  <si>
-    <t>English-to-Akan Dictionary</t>
+    <t>Column 9</t>
   </si>
   <si>
     <t>Te’ nse se, nse se o</t>
@@ -2308,574 +2305,289 @@
     <t>95 &lt;Me|PRON&gt; &lt;ananses?m|NOUN&gt; &lt;a|PART&gt; &lt;metoo|VERB&gt; &lt;yi,|PRON&gt; &lt;s?|SCONJ&gt; &lt;eye|VERB&gt; &lt;de|VERB&gt; &lt;a,|SCONJ&gt; &lt;s?|SCONJ&gt; &lt;ennye|VERB&gt; &lt;de|VERB&gt; &lt;a,|SCONJ&gt; &lt;momfa|VERB&gt; &lt;bi|DET&gt; &lt;nko,|ADV&gt; &lt;na|CONJ&gt; &lt;momfa|VERB&gt; &lt;bi|DET&gt; &lt;mmera.|VERB&gt;</t>
   </si>
   <si>
-    <t>{'Te’': 'Yɛ', 'nse': 'nse', 'se,': 'ankasa,', 'se': 'ankasa', 'o': 'o'}</t>
-  </si>
-  <si>
-    <t>{'SEDIE': 'Eyɛ', 'EYOYE': 'dɛn', 'A': 'a', 'KWAKU': 'Kwaku', 'ANANSE': 'Ananse', 'OBENYA': 'nya', 'ASO': 'Aso', 'AWADEE': 'aware'}</t>
-  </si>
-  <si>
-    <t>{'OBARIMA': 'Ɛwɔ', 'bi': 'barima', 'na': 'bi', 'owoo': 'a', 'ho,': 'yewɔ', 'ye’free': 'no,', 'no': 'yɛfrɛ', 'Akwasi': 'no', 'Ninkunfuo,': 'Akwasi', 'ne': 'na', 'yere': 'ne', 'Aso,': 'yɛ', 'ompe': 'na', 'se': 'wannpɛ', 'obi': 'sɛ', 'behuno': 'obi', 'anase': 'Aso,', 'bekasa': 'obi', 'ho.': 'ne'}</t>
-  </si>
-  <si>
-    <t>{'Nti': 'Enti', 'oko': 'ɔkɔɔ', 'kyekyeree': 'bɔɔ', 'akura': 'akura', 'ne': 'maa', 'Aso': 'Aso', 'tenaam’.': 'tena'}</t>
-  </si>
-  <si>
-    <t>{'Akura': 'Kurow', 'no': 'no', 'ase': 'ase,', 'obiara': 'obi', 'nko': 'nko', 'ho.': 'hɔ'}</t>
-  </si>
-  <si>
-    <t>{'Ono': 'Ɔno', 'Akwasi': 'Akwasi', 'Ninkunfuo': 'Ninkunfuo', 'no': 'yɛ', 'ye': 'onipa', 'okerawa.': 'a'}</t>
-  </si>
-  <si>
-    <t>{'Sa': 'Esiane', 'nti': 'saa', 'onim': 'nti', 'se,': 'onim', 'se': 'sɛ', 'one': 'sɛ', 'no': 'ɔne', 'tena': 'no', 'kurom’': 'te', 'a,': 'kurom’,', 'obi': 'obi', 'befa': 'bɛfa', 'no.': 'no'}</t>
-  </si>
-  <si>
-    <t>{'Nyankonpon': 'Nyankopɔn', 'ka': 'kae', 'kyeree': 'kyerɛ', 'mmerantee': 'mmerante', 'se,': 'no', '“Akwasi': 'se,', 'Ninkunfuo': '“Akwasi', 'aware': 'Ninkunfuo', 'Aso': 'aware', 'da‐da‐da;': 'Aso', 'one': 'fɛfɛɛfɛ;', 'no': 'na', 'nnwo': 'wanhyia', '‘ba,': 'ba,', 'nti': 'enti', 'dee': 'obiara', 'obetimi': 'a', 'ako': 'obetumi', 'fa': 'akɔfa', 'ne': 'ama', 'anyinsen,': 'onfa', 'omfa': 'no.”'}</t>
-  </si>
-  <si>
-    <t>{'Mmerantee': 'Mmerante', 'no': 'no', 'nnyina': 'nyinaa', 'boo': 'boaboa', 'mmoden': 'mmoden', 'se': 'sɛ', 'ye’nsa': 'yɛn', 'beka': 'nsa', 'no,': 'nka', 'nanso': 'no,', 'obiara': 'nanso', 'antimi.': 'obi'}</t>
-  </si>
-  <si>
-    <t>{'Kwaku': 'Kwaku', 'Ananse': 'Ananse', 'wo': 'te', 'ho’a,': 'hɔ,', 'osee,': 'ɔkae', '“Me‐timi': 'se,', 'm’ako': '“Metumi', 'Akwasi': 'akɔ', 'Ninkunfuo': 'Akwasi', 'kurom’.”': 'Ninkunfuo'}</t>
-  </si>
-  <si>
-    <t>{'‘Nyame': 'Nyame', 'see,': 'bisaa', '“Ampa’ra,': 'se,', 'wo': '“Ampa?', 'be‐timi?”': 'Wobetumi'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'see,': 'kae', '“Dee': 'se,', 'me': '“Biribi', 'fwefwe,': 'a', 'wo': 'meresrɛ,', 'de': 'sɛ', 'bema': 'wode', 'dee': 'me', 'a.”': 'a.”'}</t>
-  </si>
-  <si>
-    <t>{'‘Nyame': 'Nyame', 'see,': 'bisaa', '“Deeben?”': 'se,'}</t>
-  </si>
-  <si>
-    <t>{'Osee,': 'Ɔsee,', '“Atuduro': '“Atuduro', 'ne': 'ne', 'aboo.”': 'abɔ'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Na', '‘Nyame': 'Nyame', 'de': 'de', 'maa': 'maa', 'no.': 'no'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Na', 'Ananse': 'Ananse', 'faa': 'faa', 'atuduro': 'atuduro', 'ne': 'ne', 'aboo': 'abɔ', 'no': 'no', 'koo': 'kɔɔ', 'nkura’se': 'nkuraa', 'se,': 'ketewa', '“Nyankonpon': 'te', 'se': 'se,', 'me': '“Nyame', 'mfa': 'se', 'yi': 'abɔ', 'mmere': 'yi', 'mo,': 'mmrɛ', 'mma': 'mo,', 'mo': 'na', 'nkum': 'mo', 'nam,': 'nkum', 'na': 'nam,', 'eda': 'na', 'a': 'da', 'meba': 'a', 'ha,': 'mɛba', 'mabegye': 'ha', 'mako.”': 'no,'}</t>
-  </si>
-  <si>
-    <t>{'Ode': 'Ɔmaa', 'atuduro': 'nkuraa', 'ne': 'pii', 'aboo': 'atuduro', 'no': 'ne', 'maa': 'abɔ,', 'nkura': 'kosi', 'bebre': 'sɛ'}</t>
-  </si>
-  <si>
-    <t>{'Nkrofuo': 'Nnipa', 'no': 'no', 'nnyina': 'nyinaa', 'nyaa': 'nyaa', 'nam': 'nam'}</t>
-  </si>
-  <si>
-    <t>{'Dakoro': 'Da', 'bi': 'koro', 'Ananse': 'bi,', 'ko': 'Ananse', 'boo': 'kɔfaa', 'bede,': 'bede', 'Ne': '(apalapala', 'tenten': 'kyɛn),', 'beye': 'ne', 'se': 'tenten', 'eha': 'bɛyɛ', 'yi': 'te', 'ne': 'sɛ', 'do.': 'fi'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'de': 'de', 'koo': 'no', 'nkura': 'kɔɔ', 'a': 'nkuraa', 'wama': 'a', 'yen': 'ɔmaa', 'atuduro': 'wɔn', 'ne': 'atuduro', 'aboo': 'ne', 'ho': 'abɔ', 'ko': 'no,', 'gyee': 'kɔ', 'nam': 'boaboa', 'y’akum': 'a', 'no': 'wokum', 'nnyina.': 'nyinaa'}</t>
-  </si>
-  <si>
-    <t>{'Agya': 'Agya', 'Ananse': 'Ananse', 'faa': 'faa', 'nam': 'nam', 'no': 'no', 'ne': 'ne', 'bede': 'bede', 'soaye,': 'so,', 'na': 'na', 'osii': 'ɔfaa', 'Akwasi': 'kwan', 'Ninkunfuo': 'kɔduruu', 'akura': 'Akwasi', '‘kwan': 'Ninkunfuo', 'so.': 'akuraa'}</t>
-  </si>
-  <si>
-    <t>{'Oduruu': 'Ɔduruu', 'Akwasi': 'asuo', 'ne': 'a', 'no': 'Akwasi', 'ye’': 'ne', 'asuo': 'ne', 'a': 'yere', 'ye’nom': 'nom', 'mu,': 'mu,', 'na': 'na', 'wayi': 'ɔwiei', 'nam': 'nam', 'bi': 'guu', 'agum’.': 'mu'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'boo': 'boaboa', 'mmoden': 'mmoden', 'de': 'de', 'bede': 'bede', 'no': 'no', 'wuraa': 'guu', 'Akwasi': 'Akwasi', 'Ninkunfuo': 'Ninkunfuo', 'ntwonom’.': 'ntwonom’'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Na', 'Aso': 'Aso', 'hunoo': 'huu', 'no.': 'no'}</t>
-  </si>
-  <si>
-    <t>{'Osee,': 'Ɔkae', '“Akwasi': 'se,', 'e,': '“Akwasi', 'bra': 'e,', 'befwa': 'bra', 'biribi': 'hwɛ', 'a': 'biribi', 'e’ba': 'a', '‘fie': 'ɛba', 'ha,': 'fie', 'na': 'yi,', 'aden?”': 'na'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'see,': 'kae', '“Nyankonpon': 'se,', 'na': '“Nyame', 'o’soma': 'na', 'me,': 'wasoma', 'mabere,': 'na', 'me’beda': 'na', 'ha.”': 'mɛda'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'Ninkunfuo': 'Ninkunfuo', 'see,': 'se,', '“M’ate,': '“Mate,', 'me': 'me', 'wura': 'wura', 'akoa.”': 'akoa.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'ka': 'ka', 'kyeree': 'kyerɛɛ', 'Ananse': 'Ananse', 'se,': 'se,', '“Agya': '“Agya', '‘barima,': 'barima,', 'wo': 'wo', 'nam': 'nam', 'no': 'no', 'bi': 'bi', 'na': 'agu', 'afiri': 'ntwonom’', 'ato': 'no', 'ntwonom’': 'mu.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'see,': 'see,', '“O,': '“O,', 'wo': 'sɛ', '‘kraman': 'wɔ', 'bi': 'kraman', 'a,': 'bi', 'ma': 'a,', 'no': 'ma', 'nko': 'no', 'fa': 'nko', 'nwe.”': 'fa'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Na', 'Aso': 'Aso', 'ko': 'kɔfaa', 'faye': 'de', 'de': 'maa', 'maa': 'kunu'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Efei', 'Ananse': 'Ananse', 'see,': 'see,', '“Eno,': '“Eno,', 'fa': 'fa', 'aduane': 'aduane', 'si': 'si', 'me': 'me', 'so.”': 'so.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'de': 'de', 'bi': 'bi', 'sii': 'sii', 'so,': 'so,', 'na': 'na', 'Ananse': 'Ananse', 'see,': 'bisaa', '“Eno,': 'se,', 'fufuo': 'fufuo', 'wo’noa,': 'wonoa', 'anase': 'anaa', 'eto?”': 'eto?”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'see,': 'see,', '“Fufuo.”': '“Fufuo.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'see,': 'see,', '“Enee': '“Ene', 'esua;': 'esua;', 'kofa': 'kɔfa', 'kukuo': 'kukuo', 'kesie.”': 'kɛse.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'ko': 'kɔfaa', 'faa': 'kɛse,', 'kesie,': 'na', 'na': 'Ananse', 'Ananse': 'ka', 'see,': 'se,', '“Bra': '“Bra', 'begye': 'begye', 'nam.”': 'nam.”', 'Enee': 'Wɔwɔ', 'mmoa': 'mmoa', 'akesie': 'akɛse', '‘sere': 'deɛ', 'aduanan.': 'asere'}</t>
-  </si>
-  <si>
-    <t>{'Osee,': 'Ɔsee,', '“Fa': '“Fa', '‘yiara': 'eyi', 'ko': 'nko', 'gum’,': 'to', 'na': 'mu,', 'se': 'na', 'wo': 'sɛ', 'kukuo': 'kukuo', 'kesie': 'kɛse', 'a,': 'a,', 'ankra': 'anka', 'mema': 'mede', 'awe': 'bebubu', 'nam': 'w’aso.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'wiee': 'wiee', 'aduane': 'aduane', 'no,': 'no,', 'guu': 'guu', 'so,': 'so,', 'de': 'de', 'ko': 'sii', 'sii': 'pon', 'pon’': 'so,', 'sa': 'nsuo,', 'nsuo': 'na', 'ho.': 'sii'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Na', 'Aso': 'Aso', 'de': 'faa', 'ne': 'ne', 'dee': 'dea', 'koo': 'kɔtɔɔ', '‘gya': 'ogya', 'ho,': 'ho,', 'na': 'na', 'mmarima': 'mmarima', 'no': 'no', 'ko': 'kɔtenaa', 'tenaa': 'pon', 'pon’': 'no', 'ho.': 'ho'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Na', 'ye’kaa': 'yɛkaa', 'ye’nsa': 'yɛn', 'akyi.': 'nsa'}</t>
-  </si>
-  <si>
-    <t>{'Ye’di’a,': 'Yɛredi,', 'ye’di’a,': 'yɛredi,', 'Kwaku': 'Kwaku', 'Ananse': 'Ananse', 'see,': 'kae', '“Fufuo': 'se,', 'yi,': '“Fufuo', 'nkyene': 'yi,', 'nnim.”': 'nkyene'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'ka': 'ka', 'kyeree': 'kyerɛɛ', 'Aso': 'Aso', 'se,': 'se,', '“Fa': '“Fa', 'bi': 'bi', 'bra.”': 'bra.”'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Nanso', 'Ananse': 'Ananse', 'see,': 'see,', '“Dabi,': '“Dabi,', 'oba': 'ɔbaa', 'e’didi,': 'no', 'wo': 'redidi', 'se': 'a,', 'sore': 'wo', 'ko': 'ka', 'fa': 'se', 'nkyene': 'ɔnsore', 'bra,': 'nkɔfa', 'na': 'nkyene,', 'ara': 'wo'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'soreye,': 'sɔree,', 'na': 'na', 'Ananse': 'Ananse', '£wee': 'hwehwɛɛ', 'ne': 'ne', 'botom’': 'to', 'wasa': 'na', 'afaduro': 'ɔfaa', 'de': 'aduro', 'agu': 'guu', 'fufuo': 'fufuo', 'nom’.': 'no'}</t>
-  </si>
-  <si>
-    <t>{'Efei': 'Efei', 'na': 'ɔfrɛɛ', 'ofree': 'Akwasi', 'Akwasi': 'se,', 'se,': '“Bra', '“Bra': 'na', 'nkyene': 'a', 'no': 'mede', 'me': 'bae.”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'baye': 'bae,', 'no,': 'Ananse', 'Ananse': 'see,', 'see,': '“O,', '“O,': 'meredi', 'me’nni': 'bio', 'bio,': 'daabi,', 'mame.”': 'mame.”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'e’die,': 'a', 'onnim': 'wannim', 'ho': 'hwee', 'fwe;': 'no', 'odi’a': 'toaa', 'na': 'didi', 'o’die.': 'no'}</t>
-  </si>
-  <si>
-    <t>{'Ye’didi': 'Yɛwiee', 'wieye,': 'didi', 'na': 'no,', 'Akwasi': 'Akwasi', 'see,': 'kae', '“‘Damfo,': 'se,', 'ye’ne': 'yɛne', 'wo': 'wo', 'te': 'te', 'ha,': 'ha', 'nso': 'nanso', 'ye’nnim': 'yɛnnim', 'din.”': 'din.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'see,': 'see,', '“Me': '“Me', 'din': 'din', 'de,': 'de', '‘Sore‐ko‐di‐Aso.”': '‘Sore‐ko‐di‐Aso.’”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'see,': 'see,', '“Mate,': '“Mate,', 'Aso,': 'Aso,', 'w’ate': 'wote', '‘Barima': 'saa', 'yi': 'barima', 'din?”': 'yi'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'see,': 'see,', '“E,': '“Ei,', 'm’ate.”': 'matie.”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'soreye': 'sɔree', 'ko': 'kɔ', 'siesiee': 'siesiee', '‘dampon': 'adampɔn', 'bako': 'baako', 'kama.': 'kama'}</t>
-  </si>
-  <si>
-    <t>{'Osee,': 'Ɔsee,', '“Sore‐ko‐di‐Aso,': '“Sore‐ko‐di‐Aso,', 'wo': 'wo', '‘dampon': 'dampon', 'ni,': 'ni,', 'ko': 'kɔ', 'da': 'da', 'ho.”': 'ho.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'see,': 'see,', '“Nyankonpon': '“Meyɛ', 'kra': 'Nyankopɔn', 'dwareni': 'kra', 'ne': 'dwara,', 'me,': 'me', 'meda': 'da', 'patom’;': 'patom’.', 'efiri': 'Efi', 'se': 'sɛ', 'eno': 'me', 'agya': 'ne', 'woo': 'me', 'me': 'woo', 'nnaa': 'me,', '‘dampon’': 'menyɛ', 'da.”': 'da'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'see,': 'see,', '“Ebe': '“Na', 'na': 'ɛhe', 'wo': 'na', 'beda?”': 'w’ada?”'}</t>
-  </si>
-  <si>
-    <t>{'Osee,': 'Ɔsee,', '“Ankra': '“Sɛ', 'me': 'mede', 'da': 'meho', 'pato': 'bɛda', 'yim’,': 'patom’', 'nanso': 'yi', 'eye': 'mu', 'sa': 'a,', 'a,': 'anka', 'na': 'ɛkyerɛ', 'wo': 'se', 'ne': 'wo', '‘Nyame': 'Nyankopɔn', 'aye': 'bo', 'pe,': 'din.', 'ekyere': 'da', 'se': 'Nyankopɔn', 'patom’,': 'deɛ.', 'nna': 'enti', 'obiara': 'dampon', 'patom’': 'a', 'nnka': 'woda', 'ho,': 'no', 'nti': 'na', '‘dampon': 'mede', 'a': 'm’adan.”'}</t>
-  </si>
-  <si>
-    <t>{'Obarima': 'Ɔbarima', 'no': 'no', 'yii': 'yii', 'kete': 'mpa', 'betoo': 'bi', 'ho.': 'hɔ.'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'ne': 'ne', 'ye’': 'yere', 'ko': 'kɔdaa,', 'daye,': 'na', 'na': 'Ananse', 'Ananse': 'nso', 'so': 'daa', 'daa': 'hɔ.'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'daa': 'daa', 'ho': 'hɔ,', 'na': 'na', 'wato': 'ɔkyea', 'anim’': 'anomaa.', 'krokro.': 'Ananse', 'da': 'hɔ', 'ofaa': 'ne', 'ne': 'sepirewa', 'sepirewa': 'kae:'}</t>
-  </si>
-  <si>
-    <t>{'“Akuamoa': '“Akuamoa', 'Ananse,': 'Ananse,', 'nne': 'ɛnnɛ', 'ye’beye': 'yebɛyɛ', 'biribi': 'biribi', 'nne.': 'ɛnnɛ.', 'Nyame': 'Nyame', '‘ni,': 'de,', 'Nsia': 'Nsia', '‘ba': 'ba', 'Nne': 'ɛnnɛ', '‘kradware’ni': 'kradwarefo', 'mehunu': 'mehunu', 'biribi.”': 'biribi.”'}</t>
-  </si>
-  <si>
-    <t>{'Efei': 'Efei', 'ogyaee': 'ogyaee', 'sepirewa,': 'sepirewa', 'na': 'no,', 'ode': 'na', 'too': 'ɔde', 'ho': 'too', 'odaye.': 'na'}</t>
-  </si>
-  <si>
-    <t>{'Oda': 'Ɔda', 'ho’a,': 'kakra,', 'otee': 'ɔtee', 'se': 'Akwasi', 'Akwasi': 'Ninkunfuo', 'Ninkunfuo': 'refrɛ', 'e’fre': 'no,', 'no,': '“Agya', '“Agya': 'Barima.”', '‘Barima.”': 'Dinn!'}</t>
-  </si>
-  <si>
-    <t>{'“Agya': '“Agya', '‘Barima.”': 'Barima.”', 'Dinn!': 'Dinn!'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'Ninkunfuo': 'Ninkunfuo', 'o’wu;': 'resɛe;', 'aduro': 'aduro', 'no': 'no', 'aka': 'akyekyere', 'no,': 'no,', 'nso': 'nanso', 'ofree': 'ɔfrɛ', '“Agya': '“Agya', '‘Barima.”': 'Barima.”', 'Dinn!': 'Dinn!'}</t>
-  </si>
-  <si>
-    <t>{'Efei': 'Afei', 'dee': 'ɔkae', 'osee,': 'se,', '“Sore‐ko‐di‐Aso.”': '“Sore‐ko‐di‐Aso.”'}</t>
-  </si>
-  <si>
-    <t>{'Osee,': 'Ɔsee,', '“M!': '“M!', 'M!': 'M!', 'M!”': 'M!”'}</t>
-  </si>
-  <si>
-    <t>{'Osee,': 'Ɔsee,', '“Hyini': '“Bue', 'me.”': 'me.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'hyiniye,': 'buee', 'na': 'no,', 'Akwasi': 'na', 'koo': 'Akwasi', 'babi.': 'kɔɔ'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Afei', 'Ananse': 'Ananse', 'sore': 'sɔree', 'koo': 'kɔɔ', '‘dan': 'adan', 'nom’': 'no', 'ho.': 'ho.'}</t>
-  </si>
-  <si>
-    <t>{'Osee,': 'Ɔsee,', '“Aso,': '“Aso,', 'w’ate': 'w’ate', 'dee': 'nea', 'wo': 'wo', 'kunu': 'kunu', 'kaye?”': 'aka?”'}</t>
-  </si>
-  <si>
-    <t>{'Osee,': 'Ɔkae', '“Osee': 'se,', 'sen?”': '“Osee'}</t>
-  </si>
-  <si>
-    <t>{'Osee,': 'Ɔsee,', '“Osee': '“Osee', 'me': 'mennsore', 'nsore': 'mmedi', 'mmedi': 'wo.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'see,': 'see,', '“Wo': '“Wo', 'mmoa.”': 'mmoa.”'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Na', 'waye': 'ɔyɛ', 'ama': 'maa', 'no,': 'no,', 'na': 'na', 'wasan': 'ɔsan', 'abeda.': 'kɔdaa.'}</t>
-  </si>
-  <si>
-    <t>{'Anadwo': 'Anadwo', 'no,': 'no,', 'Akwasi': 'Akwasi', 'soree': 'soree', 'mpen': 'mpɛn', 'nkron;': 'nkrɔn;', 'Ananse': 'Ananse', 'soso': 'nso', 'koo': 'kɔɔ', 'Aso': 'Aso', 'nkyen': 'nkyɛn', 'nkron.': 'nkrɔn.'}</t>
-  </si>
-  <si>
-    <t>{'Adeekyeye': 'Ade', 'anopa,': 'kyee', 'Ananse': 'anɔpa,', 'siim’': 'Ananse', 'koye.': 'sɔree'}</t>
-  </si>
-  <si>
-    <t>{'Ebeye': 'Nna', 'asrammienu': 'ebia', 'na': 'asram', 'Aso': 'mmienu,', 'afu’': 'na', 'aye': 'Aso', 'kakraka.': 'yafunu'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'bisaa': 'bisaa', 'no': 'no', 'se,': 'se,', '“Aden': '“Adɛn', 'na': 'na', 'w’afu’': 'wo', 'aye': 'yafunu', 'se': 'abɔ', 'yie,': 'saa,', 'dabere': 'ebia', 'wo': 'woyare,', 'yare,': 'na', 'me': 'a', 'a': 'mete', 'ne': 'ho', 'te': 'mennyin', 'ho,': 'ba.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'see,': 'see,', '“Wo': '“Wo', 'were': 'werɛ', 'afi': 'afi', 'obarima': 'onipa', 'no': 'no', 'a': 'a', 'obaa': 'ɔbaa', 'ha': 'ha', 'wo': 'wokae', 'kaa': 'se,', 'se,': '‘Sore‐ko‐di‐Aso’?', '‘Sore‐ko‐di‐Aso’': 'Ɔno', 'no,': 'na', 'na': 'ofaa', 'eye': 'me', 'obefaa': 'ɔne', 'me': 'me'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'Ninkunfuo': 'Ninkunfuo', 'see,': 'see,', '“Sore': '“Sore', 'ma': 'ma', 'me': 'menfa', 'mfa': 'wo', 'wo': 'nkɔ', 'nko': 'ne'}</t>
-  </si>
-  <si>
-    <t>{'Ye’koo': 'Yɛkɔɔ', 'Nyankonpon': 'Nyankopɔn', 'kurom’.': 'kurom’.'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Wɔ', 'okwanm’': 'kwan', 'Aso': 'so', 'ko': 'Aso', 'woye.': 'woo'}</t>
-  </si>
-  <si>
-    <t>{'Ye’duruu': 'Yɛduruu', 'Nyame': 'Nyame', 'kurom’': 'kurom’', 'ko': 'kaa', 'boo': 'amanne', 'amanee': '“Wo', 'se,': 'akoa', '“W’akoa': 'bi', 'bi': 'a', 'a': 'wasoma', 'wo': 'no', 'somaa': 'a', 'no': 'ɔdaa', 'obedaa': 'fie,', 'me': 'ofaa', '‘fie,': 'Aso', 'na': 'na', 'wafa': 'ɔnyɛɛ', 'Aso': 'no.”'}</t>
-  </si>
-  <si>
-    <t>{'Nyankonpon': 'Nyankopɔn', 'see,': 'see,', '“Me': '“Me', 'nkoa': 'nkoa', 'no': 'nyinaa', 'nnyina': 'rebɔ', 'e’bua': 'dan', '‘dan,': 'atifi,', 'na': 'kɔkyerɛ', 'ko': 'onipa', 'kyere': 'koro', '‘nipa': 'no.”'}</t>
-  </si>
-  <si>
-    <t>{'Ye’koreye,': 'Yɛkɔe,', 'na': 'na', 'Ananse': 'Ananse', 'te': 'te', 'etire.': 'etire'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'see,': 'see,', '“O’nie.”': '“O’nie.”'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Na', 'Ananse': 'Ananse', 'adwane': 'de', 'abetena': 'gyae', 'mfin‐mfini.': 'kɔtenaa'}</t>
-  </si>
-  <si>
-    <t>{'Na': 'Na', 'Aso': 'Aso', 'akyere': 'san', 'se,': 'kae', '“O’nie.”': 'se,'}</t>
-  </si>
-  <si>
-    <t>{'Efei': 'Afei', 'dee': 'Ananse', 'Ananse': 'firi', 'firi': 'soro', 'soro': 'hɔ', 'ho': 'bɔɔ', 'befwee': 'fam.'}</t>
-  </si>
-  <si>
-    <t>{'Eda': 'Da', 'no': 'no', 'so,': 'so,', 'eye': 'eye', 'Fiada.': 'Fiada.'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'see,': 'see,', '“Me': '“Me', 'dware': 'dware', '‘kra': 'kra', 'na': 'na', 'wo': 'wo', 'de': 'de', 'nsa': 'nsa', 'akyere': 'kyerɛɛ', 'me': 'me', 'so,': 'so,', 'mafwe': 'mebɔɔ', 'ase': 'fam', 'ama': 'hunu.”'}</t>
-  </si>
-  <si>
-    <t>{'Seisei': 'Seesei', 'na': 'na', 'nhenkwa': 'nhenkwa', 'ayere': 'hyɛɛ', 'Akwasi': 'Akwasi', 'Ninkunfuo,': 'Ninkunfuo', 'watwa': 'na', '‘dwan.': 'ɔtwaa'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'Ninkunfuo': 'Ninkunfuo', 'twaa': 'twaa', '‘dwan': 'odwan', 'no': 'no', 'wieye,': 'wiee,', 'oka': 'ɔka', 'kyeree': 'kyerɛɛ', 'Nyame': 'Nyame', 'se,': 'se,', '“Oba': '“Obaa', 'yi': 'yi', 'nie,': 'ni,', 'Ananse': 'ma', 'mfa': 'Ananse', 'no.”': 'nfa'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'faa': 'faa', 'Aso,': 'Aso,', 'na': 'na', 'akoda': 'abofra', 'no': 'no', 'dee': 'deɛ', 'ye’kum': 'wokum', 'twitwaa': 'twitwaa', 'ne': 'n’nam', 'nam': 'gyaa', 'to': 'hɔ.'}</t>
-  </si>
-  <si>
-    <t>{'Ene': 'Ɛno', 'se': 'ne', 'ninkuno': 'ɛbɛyɛ', 'ebeba': 'a', 'manm’.': 'animguase'}</t>
-  </si>
-  <si>
-    <t>{'M’anansesem': 'Me', 'a': 'anansesɛm', 'metooye': 'a', 'yi,': 'metoo', 'se': 'yi,', 'eye': 'sɛ', 'de': 'eye', 'o,': 'de', 'ennye': 'sɛ', 'momfa': 'a,', 'bi': 'momfa', 'nko,': 'bi', 'na': 'nko,', 'mmera.': 'bi'}</t>
-  </si>
-  <si>
-    <t>{'We': 'Speak', 'do': 'neg‐say,', 'not': 'neg‐say', 'really': 'oh'}</t>
-  </si>
-  <si>
-    <t>{'HOW': 'HOW', 'KWAKU': 'happen', 'ANANSE': 'that', '(THE': 'Kwaku', 'SPIDER)': 'Ananse', 'GOT': 'obtains', 'ASO': 'Aso', 'IN': 'marriage'}</t>
-  </si>
-  <si>
-    <t>{'There': 'A', 'once': 'certain', 'lived': 'man', 'a': 'there', 'certain': 'was', 'man': 'born,', 'called': 'we‐call', 'Akwasi‐the‐jealous‐one,': 'him', 'and': 'Akwasi', 'his': 'Jealous‐one,', 'wife': 'and', 'was': 'his', 'Aso,': 'wife', 'he': 'Aso,', 'did': 'and', 'not': 'he‐not‐want', 'want': 'that', 'anyone': 'someone', 'to': 'see', 'see': 'Aso,', 'Aso': 'or', 'or': 'someone', 'speak': 'speak', 'her.': 'side.'}</t>
-  </si>
-  <si>
-    <t>{'So': 'So', 'he': 'he', 'went': 'went', 'and': 'tied', 'built': 'settlement', 'a': 'for', 'small': 'Aso', 'settlement': 'sit'}</t>
-  </si>
-  <si>
-    <t>{'No': 'Settlement', 'one': 'the', 'ever': 'under', 'went': 'nobody', 'into': 'goes', 'the': 'there.'}</t>
-  </si>
-  <si>
-    <t>{'Now': 'He', 'he,': 'Akwasi', 'Akwasi‐the‐jealous‐one,': 'Jealous‐one', 'could': 'is', 'not': 'infertile.'}</t>
-  </si>
-  <si>
-    <t>{'Because': 'Because', 'of': 'of', 'that,': 'that', 'if': 'he', 'he': 'knows', 'stayed': 'if', 'in': 'he', 'town': 'and', 'with': 'her', 'her,': 'live', 'someone': 'town', 'would': 'inside,', 'take': 'someone', 'her': 'would‐take', 'away.': 'her.'}</t>
-  </si>
-  <si>
-    <t>{'The': 'Sky‐god', 'Sky‐god': 'said', 'told': 'told', 'the': 'young‐men', 'young': 'that,', 'men,': '“Akwasi', '“Akwasi‐the‐jealous‐one': 'Jealous‐one', 'has': 'marry', 'long': 'Aso', 'been': 'very‐long‐ago;', 'married': 'she', 'to': 'not‐bear', 'Aso,': 'child,', 'but': 'so', 'she': 'whoever', 'not': 'go', 'borne': 'take', 'him': 'Aso', 'a': 'make', 'child.': 'her', 'So': 'pregnant,', 'whoever': 'let', 'can': 'him', 'make': 'take', 'her': 'her.”'}</t>
-  </si>
-  <si>
-    <t>{'All': 'The', 'the': 'young‐men', 'young': 'all', 'men': 'tried', 'tried': 'effort', 'their': 'that', 'best': 'our‐hands', 'to': 'catch', 'lay': 'her,', 'hands': 'but', 'on': 'nobody', 'her,': 'could.'}</t>
-  </si>
-  <si>
-    <t>{'Kwaku': 'Kwaku', 'Ananse': 'Ananse', 'was': 'was', 'there': 'there,', 'observing': 'he', 'these': 'said,', 'events,': '“I‐able', 'and': 'I‐go', 'he': 'Akwasi', 'said,': 'Jealous‐one', '“I': 'settlement.”'}</t>
-  </si>
-  <si>
-    <t>{'The': 'Sky‐god', 'Sky‐god': 'said,', 'said,': '“Truly,', '“Can': 'you', 'you': 'can?”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'said,': 'said,', '“If': '“Thing', 'you': 'I', 'will': 'search,', 'give': 'you', 'me': 'must', 'what': 'give', 'I': 'me', 'require…”': 'that'}</t>
-  </si>
-  <si>
-    <t>{'The': 'Sky‐god', 'Sky‐god': 'said,', 'asked,': '“What?”'}</t>
-  </si>
-  <si>
-    <t>{'He': 'He', 'said,': 'said,', '“Medicine': '“Gun‐powder', 'for': 'and', 'gun': 'bullets.”'}</t>
-  </si>
-  <si>
-    <t>{'And': 'And', 'the': 'Sky‐god', 'Sky‐god': 'gave', 'gave': 'to', 'them': 'him.'}</t>
-  </si>
-  <si>
-    <t>{'Then': 'And', 'Ananse': 'Ananse', 'took': 'took', 'the': 'gun‐powder', 'powder': 'and', 'and': 'bullets', 'bullets': 'them', 'to': 'went', 'various': 'small‐villages', 'small': 'saying,', 'villages,': '“Sky‐god', 'saying,': 'says', '“The': 'I', 'Sky‐god': 'bring', 'has': 'gun‐powder', 'ordered': 'and', 'me': 'bullets', 'bring': 'to', 'you': 'you,', 'these': 'that', 'so': 'you', 'may': 'meat,', 'kill': 'and', 'meat;': 'day', 'when': 'that', 'I': 'I', 'return,': 'come', 'shall': 'I‐will‐take', 'collect': 'and', 'it.”': 'go.”'}</t>
-  </si>
-  <si>
-    <t>{'He': 'He', 'distributed': 'gave', 'the': 'gun‐powder', 'powder': 'and', 'and': 'bullets', 'bullets': 'to', 'among': 'many', 'many': 'small‐villages', 'villages': 'till', 'until': 'it', 'it': 'finished.'}</t>
-  </si>
-  <si>
-    <t>{'All': 'People', 'those': 'all', 'people': 'got', 'were': 'some', 'able': 'meat.'}</t>
-  </si>
-  <si>
-    <t>{'One': 'One', 'day,': 'day', 'Ananse': 'Ananse', 'took': 'went', 'a': 'took', 'palm‐leaf': 'palm‐leaf', 'basket,': 'basket,', 'as': 'Its', 'long': 'length', 'from': 'from', 'here': 'here', 'to': 'to', 'over': 'there.'}</t>
-  </si>
-  <si>
-    <t>{'He': 'Ananse', 'went': 'took', 'back': 'it', 'through': 'went', 'the': 'the', 'villages': 'villages', 'that': 'he', 'had': 'gave', 'used': 'them', 'powder': 'and', 'and': 'bullets,', 'bullets,': 'went', 'gathering': 'collected', 'all': 'meat', 'meat': 'had', 'they': 'killed'}</t>
-  </si>
-  <si>
-    <t>{'Father': 'Father', 'Ananse': 'Ananse', 'took': 'took', 'this': 'that', 'meat': 'meat', 'in': 'with', 'the': 'the', 'basket': 'basket,', 'and': 'set', 'headed': 'out,', 'along': 'and', 'path': 'arrived', 'to': 'Akwasi', 'Akwasi‐the‐jealous‐one’s': 'Jealous‐one', 'settlement.': 'settlement'}</t>
-  </si>
-  <si>
-    <t>{'When': 'He', 'he': 'arrived', 'arrived': 'Akwasi', 'at': 'and', 'the': 'that', 'stream': 'woman', 'from': 'place', 'which': 'water', 'Akwasi': 'they', 'and': 'drink', 'Aso': 'inside,', 'drank,': 'and', 'took': 'took', 'some': 'some', 'meat': 'meat', 'out': 'dropped.'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'strove': 'tried', 'hard,': 'put', 'placing': 'the', 'some': 'basket', 'meat': 'inside', 'into': 'Akwasi', 'the': 'Jealous‐one', 'water': 'water‐jar.'}</t>
-  </si>
-  <si>
-    <t>{'And': 'And', 'Aso': 'Aso', 'saw': 'saw', 'him.': 'him.'}</t>
-  </si>
-  <si>
-    <t>{'She': 'She', 'said,': 'said,', '“Akwasi': '“Akwasi', 'e!': 'eh,', 'come': 'come', 'and': 'see', 'see': 'something', 'something': 'that', 'that': 'is', 'is': 'coming', 'entering': 'house', 'our': 'here,', 'house—what': 'what', 'can': 'is', 'it': 'it?”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'said,': 'said,', '“It’s': '“Sky‐god', 'the': 'who', 'Sky‐god': 'sends', 'who': 'me,', 'sent': 'and', 'me;': 'I’m', 'I': 'tired,', 'am': 'and', 'weary': 'I', 'and': 'come', 'will': 'sleep', 'sleep': 'here.”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi‐the‐jealous‐one': 'Akwasi', 'said,': 'Jealous‐one', '“I': 'said,', 'have': '“I‐have‐heard,', 'heard,': 'my', 'my': 'Lord’s', 'lord’s': 'servant.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'said': 'said', 'to': 'told', 'Ananse,': 'Ananse', '“Father': 'that,', 'man,': '“Father', 'some': 'man,', 'of': 'your', 'your': 'meat', 'meat': 'some', 'has': 'that', 'fallen': 'parted', 'into': 'dropped', 'the': 'water‐jar.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'said,': 'said,', '“Oh,': '“Oh,', 'if': 'if', 'you': 'you', 'have': 'have', 'a': 'dog,', 'dog,': 'let', 'let': 'it', 'it': 'go', 'go': 'take', 'take': 'chew.”'}</t>
-  </si>
-  <si>
-    <t>{'So': 'And', 'Aso': 'Aso', 'went': 'went', 'and': 'took', 'retrieved': 'it,', 'it,': 'gave', 'then': 'it', 'gave': 'to', 'it': 'husband.'}</t>
-  </si>
-  <si>
-    <t>{'Then': 'Then', 'Ananse': 'Ananse', 'said,': 'said,', '“Mother,': '“Mother,', 'put': 'put', 'some': 'food', 'food': 'on', 'on': 'for', '(the': 'me.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'put': 'put', 'some': 'some,', 'on,': 'and', 'and': 'Ananse', 'Ananse': 'said,', 'asked,': '“Mother,', '“Mother,': 'is', 'is': 'it', 'it': 'fufuo', 'fufuo': 'that', 'you’re': 'you', 'cooking,': 'cook,', 'or': 'or', 'eto?”': 'eto?”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'replied,': 'said,', '“Fufuo.”': '“Fufuo.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'said,': 'said,', '“Then': '“Then', 'it’s': 'it’s', 'too': 'small;', 'small;': 'go', 'fetch': 'bring', 'a': 'pot', 'bigger': 'big.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'went': 'went', 'and': 'took', 'fetched': 'big,', 'a': 'and', 'large': 'Ananse', 'pot;': 'said,', 'Ananse': '“Come', 'said,': 'take', '“Come': 'meat.”', 'get': 'huge', 'meat.”': 'animals', 'There': 'hind‐quarters', 'were': 'forty.'}</t>
-  </si>
-  <si>
-    <t>{'He': 'He', 'said,': 'said,', '“Put': '“Take', 'these': 'these', 'in': 'only', 'it;': 'put', 'if': 'inside,', 'you': 'and', 'had': 'if', 'an': 'you', 'even': 'had', 'larger': 'pot', 'pot,': 'big,', 'I’d': 'then', 'give': 'I', 'enough': 'you', 'meat': 'chew', 'to': 'meat', 'make': 'make', 'your': 'your', 'teeth': 'teeth', 'fall': 'fall.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'finished': 'finished', 'cooking': 'the', 'the': 'food,', 'food,': 'poured', 'turned': 'it', 'it': 'out,', 'out,': 'put', 'and': 'on', 'placed': 'table,', 'on': 'water', 'table,': 'there.'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'And', 'took': 'Aso', 'her': 'took', 'portion': 'her', 'and': 'portion', 'went': 'went', 'near': 'near', 'the': 'fire,', 'fire;': 'and', 'men': 'they', 'sat': 'table', 'at': 'side.'}</t>
-  </si>
-  <si>
-    <t>{'They': 'And', 'touched': 'we', 'the': 'touched', 'backs': 'our‐hands', 'of': 'backs.'}</t>
-  </si>
-  <si>
-    <t>{'As': 'We', 'they': 'eat,', 'were': 'we', 'eating,': 'eat,', 'Kwaku': 'Kwaku', 'Ananse': 'Ananse', 'said,': 'said,', '“This': '“This', 'fufuo': 'fufuo,', 'has': 'salt', 'no': 'not', 'salt': 'in.”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'said': 'said', 'to': 'to', 'Aso,': 'Aso,', '“Bring': '“Bring', 'some': 'some.”'}</t>
-  </si>
-  <si>
-    <t>{'But': 'But', 'Ananse': 'Ananse', 'said,': 'said,', '“No,': '“No,', 'if': 'woman', 'the': 'is', 'woman': 'eating,', 'is': 'you', 'eating,': 'say', 'you': 'get‐up', 'can’t': 'go', 'tell': 'bring', 'her': 'salt,', 'to': 'you', 'get': 'self', 'up.': 'get‐up', 'You': 'go', 'yourself': 'bring', 'go': 'come.”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'stood': 'rose,', 'up,': 'and', 'and': 'Ananse', 'Ananse': 'searched', 'looked': 'his', 'into': 'bag', 'his': 'then', 'bag,': 'took', 'took': 'purgative', 'out': 'medicine', 'a': 'put', 'pinch': 'in', 'of': 'fufuo.'}</t>
-  </si>
-  <si>
-    <t>{'Then': 'Then', 'he': 'he', 'called': 'called', 'Akwasi,': 'Akwasi', 'saying,': 'that,', '“Come,': '“Come', 'for': 'for', 'I’ve': 'the', 'brought': 'salt', 'some': 'I', 'salt': 'brought.”'}</t>
-  </si>
-  <si>
-    <t>{'When': 'Akwasi', 'Akwasi': 'came,', 'returned,': 'Ananse', 'Ananse': 'said,', 'said,': '“Oh,', '“Oh,': 'I', 'I': 'not', 'shall': 'eat', 'eat': 'more,', 'no': 'I’m', 'more;': 'full.”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi,': 'Akwasi', 'suspecting': 'who', 'nothing,': 'not', 'continued': 'suspect', 'eating.': 'anything,'}</t>
-  </si>
-  <si>
-    <t>{'When': 'We', 'they': 'finished', 'finished': 'eating,', 'eating,': 'and', 'Akwasi': 'Akwasi', 'said,': 'said,', '“Friend,': '“Friend,', 'we’re': 'we', 'here': 'and', 'with': 'you', 'you,': 'sit', 'yet': 'here,', 'we': 'yet', 'do': 'we', 'not': 'not', 'know': 'know', 'your': 'your', 'name.”': 'name.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'replied,': 'said,', '“My': '“My', 'name': 'name', 'is': 'is', '‘Rise‐up‐and‐make‐love‐to‐Aso.’”': 'Rise‐up‐and‐make‐love‐to‐Aso.”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'said,': 'said,', '“I': '“I‐have‐heard,', 'hear': 'Aso,', 'you.': 'you‐have‐heard', 'Aso,': 'this', 'have': 'man', 'you': 'name?”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'said,': 'said,', '“Yes,': '“Yes,', 'I': 'I‐have‐heard.”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'rose': 'rose', 'up': 'went', 'to': 'prepared', 'prepare': 'bedroom', 'one': 'one', 'of': 'nicely.'}</t>
-  </si>
-  <si>
-    <t>{'He': 'He', 'said,': 'said,', '“Rise‐up‐and‐make‐love‐to‐Aso,': '“Rise‐up‐and‐make‐love‐to‐Aso,', 'here': 'your', 'is': 'bedroom', 'your': 'here,', 'room—go': 'go', 'and': 'sleep', 'sleep': 'there.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'said,': 'said,', '“I': '“Sky‐god’s', 'am': 'soul', 'the': 'washer', 'Soul‐washer': 'is', 'to': 'me,', 'Sky‐god;': 'sleep', 'since': 'veranda,', 'mother': 'since', 'bore': 'mother', 'me': 'father', 'and': 'gave', 'father': 'birth', 'begat': 'me,', 'me,': 'I', 'I': 'never', 'have': 'slept', 'never': 'closed', 'slept': 'bedroom.”'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'asked,': 'said,', '“Then': '“Where', 'where': 'then', 'will': 'you', 'you': 'sleep?”'}</t>
-  </si>
-  <si>
-    <t>{'He': 'He', 'replied,': 'said,', '“Were': '“If', 'I': 'I', 'to': 'lie', 'sleep': 'this', 'in': 'open', 'this': 'veranda,', 'open': 'then', 'veranda,': 'it', 'that': 'means', 'would': 'you', 'equate': 'and', 'you': 'your', 'the': 'are', 'Sky‐god,': 'same,', 'for': 'it', 'it': 'shows', 'mean': 'lie', 'was': 'open', 'sleeping': 'veranda.', 'Sky‐god’s': 'lie', 'room.': 'open', 'Since': 'veranda', 'never': 'Sky‐god,', 'do': 'so', 'so': 'closed', 'except': 'bedroom', 'a': 'you', 'presence,': 'front', 'shall': 'where', 'lie': 'I', 'down': 'sleep.”'}</t>
-  </si>
-  <si>
-    <t>{'The': 'The', 'man': 'man', 'laid': 'took', 'out': 'mat', 'a': 'placed', 'sleeping': 'it', 'mat': 'there.'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'and': 'and', 'his': 'his', 'wife': 'wife', 'went': 'went', 'to': 'slept,', 'rest,': 'and', 'Ananse': 'also', 'also': 'lay', 'lay': 'there.'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'lay': 'lay', 'down,': 'there', 'took': 'and', 'up': 'parted', 'his': 'mouth', 'musical': 'wide.', 'bow': 'Ananse', '(sepirewa),': 'lay', 'and': 'there', 'sang:': 'took'}</t>
-  </si>
-  <si>
-    <t>{'“Akuamoa': '“Akuamoa', 'Ananse,': 'Ananse,', 'today': 'today', 'we': 'we‐will‐do', 'shall': 'something', 'achieve': 'today.', 'something': 'Nyame', 'today.': 'own,', 'child': 'child', 'of': 'Ananse,', 'Nsia,': 'today', 'mother': 'we‐will‐do', 'Nyame,': 'today.', 'the': 'Nyame', 'Sky‐god.': 'soul‐washer', 'soul‐washer': 'today', 'to': 'I‐see', 'Nyame—today': 'something.”'}</t>
-  </si>
-  <si>
-    <t>{'Then': 'Then', 'he': 'he', 'stopped': 'stopped', 'playing': 'sepirewa,', 'his': 'and', 'sepirewa,': 'placed', 'laid': 'it', 'it': 'there', 'aside,': 'and', 'and': 'he', 'lay': 'slept.'}</t>
-  </si>
-  <si>
-    <t>{'He': 'He', 'slept': 'sleeps', 'for': 'small,', 'a': 'he', 'while': 'hears', 'when': 'Akwasi', 'he': 'Jealous‐one', 'heard': 'calling', 'Akwasi‐the‐jealous‐one': 'him,', 'calling,': '“Father', '“Father': 'man.”', 'man.”': 'Silence!'}</t>
-  </si>
-  <si>
-    <t>{'He': '“Father', 'called': 'man.”', 'again,': 'Silence!'}</t>
-  </si>
-  <si>
-    <t>{'The': 'Akwasi', 'medicine': 'Jealous‐one', 'had': 'is', 'taken': 'dying;', 'effect': 'medicine', 'on': 'has', 'him,': 'him,', 'yet': 'yet', 'he': 'he', 'kept': 'calls', 'calling': '“Father', '“Father': 'man.”', 'man!”': 'Silence!'}</t>
-  </si>
-  <si>
-    <t>{'At': 'Then', 'last': 'he', 'he': 'said,', 'said,': '“Rise‐up‐and‐make‐love‐to‐Aso.”'}</t>
-  </si>
-  <si>
-    <t>{'The': 'He', 'Spider': 'said,', 'said,': '“M!', '“M!': 'M!', 'M!': 'M!”'}</t>
-  </si>
-  <si>
-    <t>{'He': 'He', 'said,': 'said,', '“Open': '“Open', '(the': 'me.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'opened': 'opened,', 'it,': 'and', 'and': 'Akwasi', 'Akwasi': 'went', 'went': 'somewhere.'}</t>
-  </si>
-  <si>
-    <t>{'Then': 'Then', 'Ananse': 'Ananse', 'rose': 'rose', 'and': 'went', 'went': 'bedroom', 'into': 'there.'}</t>
-  </si>
-  <si>
-    <t>{'He': 'He', 'said,': 'said,', '“Aso,': '“Aso,', 'did': 'you', 'you': 'heard', 'hear': 'what', 'what': 'your', 'your': 'husband', 'husband': 'said?”'}</t>
-  </si>
-  <si>
-    <t>{'She': 'She', 'replied,': 'said,', '“What': '“He', 'did': 'said', 'he': 'what?”'}</t>
-  </si>
-  <si>
-    <t>{'“He': 'He', 'said': 'said,', 'I': '“He', 'must': 'said', 'rise': 'me', 'up': 'rise', 'and': 'I', 'make': 'take', 'love': 'you.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'said,': 'said,', '“You': '“You', 'don’t': 'are', 'lie.”': 'not', '(i.e.': 'lying.”'}</t>
-  </si>
-  <si>
-    <t>{'He': 'Then', 'did': 'he', 'it': 'did', 'for': 'for', 'her,': 'her,', 'then': 'then', 'lay': 'returned', 'down': 'lay', 'again.': 'down.'}</t>
-  </si>
-  <si>
-    <t>{'That': 'Night', 'night,': 'that,', 'Akwasi': 'Akwasi', 'rose': 'rose', 'up': 'nine', 'nine': 'times;', 'times;': 'Ananse', 'Ananse': 'also', 'also': 'went', 'went': 'Aso', 'to': 'side', 'Aso': 'nine'}</t>
-  </si>
-  <si>
-    <t>{'Early': 'Early', 'the': 'morning,', 'next': 'Ananse', 'morning,': 'set', 'Ananse': 'out', 'got': 'left.'}</t>
-  </si>
-  <si>
-    <t>{'After': 'After', 'about': 'maybe', 'two': 'two', 'moons,': 'months,', 'Aso’s': 'Aso', 'belly': 'belly', 'had': 'has', 'grown': 'grown', 'quite': 'bigger.'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi': 'Akwasi', 'asked': 'asked', 'her,': 'her', '“Why': 'that,', 'has': '“Why', 'your': 'that', 'belly': 'your', 'grown': 'belly', 'so': 'grown', 'big—are': 'so', 'you': 'big,', 'sick?': 'maybe', 'For': 'you', 'I,': 'sickness,', 'who': 'and', 'live': 'me', 'with': 'who', 'you,': 'with', 'have': 'you,', 'not': 'I', 'had': 'not', 'a': 'have', 'child.”': 'child.”'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'said,': 'said,', '“You’ve': '“You', 'forgotten': 'forgot', 'that': 'the', 'man': 'man', 'who': 'who', 'came': 'came', 'here,': 'here', 'whom': 'who', 'you': 'you', 'named': 'called', '‘Rise‐up‐and‐make‐love‐to‐Aso’?': '‘Rise‐up‐and‐make‐love‐to‐Aso’?', 'He': 'He', 'took': 'is', 'me': 'the', 'and': 'one', 'lay': 'who', 'with': 'took', 'me.”': 'me'}</t>
-  </si>
-  <si>
-    <t>{'Akwasi‐the‐jealous‐one': 'Akwasi', 'said,': 'Jealous‐one', '“Then': 'said,', 'get': '“Rise', 'up;': 'let', 'let': 'me', 'me': 'take', 'take': 'you', 'you': 'go', 'to': 'to', 'him.”': 'him.”'}</t>
-  </si>
-  <si>
-    <t>{'They': 'We', 'set': 'went', 'out': 'Sky‐god', 'for': 'town.'}</t>
-  </si>
-  <si>
-    <t>{'On': 'On', 'the': 'the', 'way,': 'road', 'Aso': 'Aso', 'gave': 'gave', 'birth.': 'birth.'}</t>
-  </si>
-  <si>
-    <t>{'They': 'We', 'reached': 'reached', 'the': 'Nyame’s', 'Sky‐god’s': 'town', 'place': 'told', 'and': 'Nyame', 'told': 'matters', 'Sky‐god,': '“Your', '“A': 'servant', 'subject': 'one', 'of': 'who', 'yours': 'you', 'who': 'sent', 'came': 'who', 'stayed': 'my', 'in': 'house,', 'my': 'he', 'house': 'took', 'took': 'Aso', 'Aso,': 'and', 'she': 'her.”'}</t>
-  </si>
-  <si>
-    <t>{'The': 'Sky‐god', 'Sky‐god': 'said,', 'said,': '“My', '“All': 'servants', 'my': 'all', 'servants': 'roofing', 'are': 'huts,', 'roofing': 'go', 'huts.': 'show', 'Go': 'man', 'point': 'single.”'}</t>
-  </si>
-  <si>
-    <t>{'They': 'We', 'went,': 'went,', 'and': 'and', 'Ananse': 'Ananse', 'was': 'sits', 'sitting': 'on', 'on': 'ridge‐pole.'}</t>
-  </si>
-  <si>
-    <t>{'Aso': 'Aso', 'said,': 'said,', '“There': '“There', 'he': 'he', 'is.”': 'is.”'}</t>
-  </si>
-  <si>
-    <t>{'Then': 'Then', 'Ananse': 'Ananse', 'ran': 'jumped', 'and': 'sat', 'sat': 'middle.'}</t>
-  </si>
-  <si>
-    <t>{'Again': 'And', 'Aso': 'Aso', 'said,': 'again', '“There': 'said,', 'he': '“There', 'is.”': 'he'}</t>
-  </si>
-  <si>
-    <t>{'Then': 'Then', 'Ananse': 'Ananse', 'fell': 'from', 'down': 'top', 'from': 'place', 'up': 'fell', 'there.': 'ground.'}</t>
-  </si>
-  <si>
-    <t>{'That': 'Day', 'day': 'that', 'was': 'on,', 'Friday.': 'it'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'said,': 'said,', '“I,': '“Me', 'who': 'wash', 'wash': 'soul', 'the': 'and', 'Sky‐god’s': 'you', 'soul—you': 'put', 'have': 'your', 'pointed': 'hand', 'your': 'on', 'hand': 'me', 'at': 'that', 'me': 'I', 'such': 'fell', 'that': 'red', 'I’ve': 'earth', 'fallen': 'on', 'down': 'me.”'}</t>
-  </si>
-  <si>
-    <t>{'Immediately,': 'Then', 'the': 'immediately', 'attendants': 'attendants', 'seized': 'seized', 'Akwasi‐the‐jealous‐one': 'Akwasi', 'and': 'Jealous‐one,', 'made': 'and', 'him': 'he', 'sacrifice': 'slaughtered', 'a': 'sheep.'}</t>
-  </si>
-  <si>
-    <t>{'When': 'Akwasi', 'Akwasi': 'Jealous‐one', 'finished': 'slaughtered', 'slaughtering': 'sheep', 'the': 'finished,', 'sheep,': 'he', 'he': 'said', 'said': 'to', 'to': 'Sky‐god,', 'Sky‐god,': 'this', '“Here': 'is,', 'is': 'let', 'woman,': 'take', 'let': 'her.”'}</t>
-  </si>
-  <si>
-    <t>{'Ananse': 'Ananse', 'took': 'took', 'Aso,': 'Aso,', 'and': 'and', 'as': 'the', 'for': 'infant', 'the': 'they', 'infant,': 'killed', 'they': 'it', 'killed': 'cut', 'it,': 'its', 'cut': 'flesh', 'it': 'scattered', 'up,': 'them'}</t>
-  </si>
-  <si>
-    <t>{'That': 'That', 'is': 'is', 'how': 'how', 'jealousy': 'jealousy', 'came': 'will', 'among': 'come', 'the': 'tribe.'}</t>
-  </si>
-  <si>
-    <t>{'This': 'My', 'my': 'Ananse', 'story,': 'tale', 'which': 'that', 'I': 'I', 'have': 'told', 'told,': 'this,', 'if': 'if', 'it': 'it', 'be': 'good', 'sweet': 'oh,', 'or': 'if', 'not': 'oh,', 'sweet,': 'take', 'take': 'some', 'some': 'go,', 'of': 'and', 'as': 'some', 'truth,': 'bring.'}</t>
+    <t>&lt;b&gt;Te’&lt;/b&gt;: INTJ:Interjection&lt;br&gt;&lt;br&gt;Interjection representing an exclamation or call.&lt;br&gt;&lt;b&gt;nse&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;nse&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;o&lt;/b&gt;: INTJ:Interjection&lt;br&gt;&lt;br&gt;Interjection often used for emphasis or as a closing particle.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;SEDIE&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;EYOYE&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;A&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;KWAKU&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ANANSE&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;OBENYA&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ASO&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;AWADEE&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;OBARIMA&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;owoo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’free&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ompe&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;obi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;behuno&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;anase&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bekasa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nti&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;oko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyekyeree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akura&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;tenaam’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akura&lt;/b&gt;: NOUN:Concrete&lt;br&gt;&lt;br&gt;Concrete noun meaning 'village' or 'settlement.'&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ase&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obiara&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nko&lt;/b&gt;: ADV:Adverbial&lt;br&gt;&lt;br&gt;Adverb meaning 'only' or 'solely.'&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ono&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ye&lt;/b&gt;: VERB:Present-tense&lt;br&gt;&lt;br&gt;Verb meaning 'is' in the present tense.&lt;br&gt;&lt;b&gt;okerawa.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Sa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nti&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;onim&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;one&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;tena&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kurom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;befa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyeree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmerantee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Akwasi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;aware&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da‐da‐da;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;one&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nnwo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘ba,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nti&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obetimi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ako&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;anyinsen,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;omfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Mmerantee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nnyina&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;boo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmoden&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;ye’nsa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;beka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nanso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obiara&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;antimi.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Kwaku&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho’a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Me‐timi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;m’ako&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;kurom’.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;‘Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Ampa’ra,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;be‐timi?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fwefwe,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bema&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;‘Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Deeben?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Atuduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aboo.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;maa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;faa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;atuduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aboo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkura’se&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;atuduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aboo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mo,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkum&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;eda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;meba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ha,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mabegye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mako.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ode&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;atuduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aboo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;maa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkura&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bebre&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;maa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;saye.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nkrofuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nnyina&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nyaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;bi.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Dakoro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;boo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bede,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;tenten&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;beye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;eha&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;do.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkura&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wama&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yen&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;atuduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aboo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;gyee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;y’akum&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nnyina.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;faa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bede&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;soaye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;osii&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;akura&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘kwan&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Oduruu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ye’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;asuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’nom&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mu,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wayi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;agum’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;boo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmoden&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bede&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;wuraa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;ntwonom’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;hunoo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Akwasi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;e,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;befwa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;biribi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;e’ba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘fie&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ha,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aden?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;o’soma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mabere,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me’beda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ha.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“M’ate,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wura&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akoa.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyeree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘barima,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;afiri&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ato&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ntwonom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“O,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘kraman&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nko&lt;/b&gt;: ADV:Adverbial&lt;br&gt;&lt;br&gt;Adverb meaning 'only' or 'solely.'&lt;br&gt;&lt;b&gt;fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nwe.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;faye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;maa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;okunu.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Eno,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aduane&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;si&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;sii&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Eno,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fufuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo’noa,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;anase&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;eto?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Fufuo.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Enee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;esua;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kofa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kukuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kesie.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;faa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kesie,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Bra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;begye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Enee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmoa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akesie&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘sere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aduanan.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘yiara&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;gum’,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kukuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kesie&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ankra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mema&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;awe&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ama&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;atutu.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wiee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aduane&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;guu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sii&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;pon’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nsuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sii&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘gya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmarima&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;tenaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;pon’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’kaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’nsa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akyi.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ye’di’a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’di’a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Kwaku&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Fufuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkyene&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nnim.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;ka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyeree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;bra.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Dabi,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;oba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;e’didi,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;sore&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkyene&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bra,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ara&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sore&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bra.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;soreye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;£wee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;botom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wasa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;afaduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;agu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fufuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nom’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Efei&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ofree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Bra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkyene&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;baye.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;baye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“O,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me’nni&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bio,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mame.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;e’die,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;onnim&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fwe;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;odi’a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;o’die.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ye’didi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wieye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“‘Damfo,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;te&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ha,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’nnim&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;din.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;din&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Sore‐ko‐di‐Aso.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Mate,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;w’ate&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Barima&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;din?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“E,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;m’ate.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;soreye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;siesiee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dampon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bako&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kama.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Sore‐ko‐di‐Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dampon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ni,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dwareni&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;meda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;patom’;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;efiri&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;eno&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;woo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nnaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dampon’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Ebe&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;beda?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Ankra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;pato&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yim’,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nanso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;eye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;pe,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ekyere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;patom’,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nna&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obiara&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;patom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nnka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nti&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dampon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dam’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;anim’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;meda.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Obarima&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;yii&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kete&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;betoo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;daye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;daa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;daa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wato&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;anim’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;krokro.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ofaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sepirewa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se:&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Akuamoa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’beye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;biribi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nne.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘ni,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nsia&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘ba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’beye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;biribi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nne.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘kradware’ni&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mehunu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;biribi.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Efei&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ogyaee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sepirewa,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ode&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;too&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;odaye.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Oda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho’a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;otee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;e’fre&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Barima.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Dinn!&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;“Agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Barima.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Dinn!&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;o’wu;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;aka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ofree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Barima.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Dinn!&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Efei&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Sore‐ko‐di‐Aso.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“M!&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;M!&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;M!”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Hyini&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;hyiniye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;babi.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sore&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dan&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;w’ate&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kunu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kaye?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Osee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sen?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Osee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nsore&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmedi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmoa.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;waye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ama&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wasan&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;abeda.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Anadwo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;soree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mpen&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkron;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;soso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkyen&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mpen&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkron.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Adeekyeye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;anopa,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;siim’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koye.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ebeye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;asrammienu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;afu’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kakraka.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;bisaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Aden&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;w’afu’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;yie,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dabere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yare,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;te&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nnwo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘ba.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;were&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;afi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obarima&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ha&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;‘Sore‐ko‐di‐Aso’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;eye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obefaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;one&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nyem.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Sore&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nko&lt;/b&gt;: ADV:Adverbial&lt;br&gt;&lt;br&gt;Adverb meaning 'only' or 'solely.'&lt;br&gt;&lt;b&gt;ma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ye’koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kurom’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;okwanm’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;woye.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ye’duruu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kurom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;boo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;amanee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“W’akoa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;somaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obedaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘fie,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wafa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;anyem.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkoa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nnyina&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;e’bua&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dan,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘nipa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koro.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ye’koreye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;te&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;etire.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“O’nie.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;adwane&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;abetena&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mfin‐mfini.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akyere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“O’nie.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Efei&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;firi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;soro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;befwee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fam’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Eda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;so,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;eye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Fiada.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dware&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘kra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nsa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akyere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mafwe&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ase&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ama&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ntwuma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ayeye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Seisei&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nhenkwa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ayere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;watwa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dwan.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;twaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dwan&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;wieye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;oka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyeree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Oba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nie,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;faa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akoda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’kum&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;twitwaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;to&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;peye.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ene&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;ninkuno&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ebeba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;manm’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;M’anansesem&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;metooye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;eye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;o,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;ennye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;o,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;momfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;nko,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;momfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;mmera.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
   </si>
 </sst>
 </file>
@@ -3243,13 +2955,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3277,3048 +2991,2760 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H2" t="s">
+        <v>669</v>
+      </c>
+      <c r="I2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>293</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>385</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>480</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>575</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>670</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>762</v>
       </c>
-      <c r="J2" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>201</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>294</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>386</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>481</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>576</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>671</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>763</v>
       </c>
-      <c r="J3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>202</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>295</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>387</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>482</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>577</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>672</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>764</v>
       </c>
-      <c r="J4" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>203</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>296</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>388</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>483</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>578</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>673</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>765</v>
       </c>
-      <c r="J5" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>109</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>204</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>297</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>389</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>484</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>579</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>674</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>766</v>
       </c>
-      <c r="J6" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>110</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>205</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>298</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>390</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>485</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>580</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>675</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>767</v>
       </c>
-      <c r="J7" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>206</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>299</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>391</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>486</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>581</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>676</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>768</v>
       </c>
-      <c r="J8" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>112</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>207</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>300</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>392</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>487</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>582</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>677</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>769</v>
       </c>
-      <c r="J9" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>113</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>208</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>301</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>393</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>488</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>583</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>678</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>770</v>
       </c>
-      <c r="J10" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>114</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>209</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>302</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>394</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>489</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>584</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>679</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>771</v>
       </c>
-      <c r="J11" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>115</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>210</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>303</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>395</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>490</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>585</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>680</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>772</v>
       </c>
-      <c r="J12" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>116</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>211</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>304</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>396</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>491</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>586</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>681</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>773</v>
       </c>
-      <c r="J13" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>212</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>305</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>397</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>492</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>587</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>682</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>774</v>
       </c>
-      <c r="J14" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>118</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>213</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>306</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>398</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>493</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>588</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>683</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>775</v>
       </c>
-      <c r="J15" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>119</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>214</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>307</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>399</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>494</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>589</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>684</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>776</v>
       </c>
-      <c r="J16" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>120</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>215</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>308</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>400</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>495</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>590</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>685</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>777</v>
       </c>
-      <c r="J17" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>121</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>216</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>309</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>401</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>496</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>591</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>686</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>778</v>
       </c>
-      <c r="J18" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>122</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>217</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>310</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>402</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>497</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>592</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>687</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>779</v>
       </c>
-      <c r="J19" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>123</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>218</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>311</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>403</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>498</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>593</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>688</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I21" t="s">
         <v>780</v>
       </c>
-      <c r="J20" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>124</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>219</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>312</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>404</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>499</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>594</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>689</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I22" t="s">
         <v>781</v>
       </c>
-      <c r="J21" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>125</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>220</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>313</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>405</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>500</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>595</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>690</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>782</v>
       </c>
-      <c r="J22" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>221</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>314</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>406</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>501</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>596</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>691</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" t="s">
         <v>783</v>
       </c>
-      <c r="J23" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>127</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F25" t="s">
+        <v>502</v>
+      </c>
+      <c r="G25" t="s">
+        <v>597</v>
+      </c>
+      <c r="H25" t="s">
+        <v>692</v>
+      </c>
+      <c r="I25" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
         <v>222</v>
       </c>
-      <c r="D24" t="s">
-        <v>315</v>
-      </c>
-      <c r="E24" t="s">
-        <v>407</v>
-      </c>
-      <c r="F24" t="s">
-        <v>502</v>
-      </c>
-      <c r="G24" t="s">
-        <v>597</v>
-      </c>
-      <c r="H24" t="s">
-        <v>692</v>
-      </c>
-      <c r="I24" t="s">
-        <v>784</v>
-      </c>
-      <c r="J24" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>316</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>408</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>503</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>598</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>693</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>785</v>
       </c>
-      <c r="J25" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>129</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>223</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>317</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>409</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>504</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>599</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>694</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>786</v>
       </c>
-      <c r="J26" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>130</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>224</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>318</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>410</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>505</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>600</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="s">
         <v>695</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" t="s">
         <v>787</v>
       </c>
-      <c r="J27" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>131</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>225</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>319</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>411</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>506</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>601</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>696</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>788</v>
       </c>
-      <c r="J28" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>132</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>226</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>320</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>412</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>507</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>602</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>697</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>789</v>
       </c>
-      <c r="J29" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>133</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>227</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>321</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>413</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>508</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>603</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>698</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>790</v>
       </c>
-      <c r="J30" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>134</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>228</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>322</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>414</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>509</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>604</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>699</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>791</v>
       </c>
-      <c r="J31" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>135</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>229</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>323</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>415</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>510</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>605</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>700</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>792</v>
       </c>
-      <c r="J32" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>136</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>230</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>416</v>
+      </c>
+      <c r="F34" t="s">
+        <v>511</v>
+      </c>
+      <c r="G34" t="s">
+        <v>606</v>
+      </c>
+      <c r="H34" t="s">
+        <v>416</v>
+      </c>
+      <c r="I34" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" t="s">
         <v>324</v>
       </c>
-      <c r="E33" t="s">
-        <v>416</v>
-      </c>
-      <c r="F33" t="s">
-        <v>511</v>
-      </c>
-      <c r="G33" t="s">
-        <v>606</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="E35" t="s">
+        <v>417</v>
+      </c>
+      <c r="F35" t="s">
+        <v>512</v>
+      </c>
+      <c r="G35" t="s">
+        <v>607</v>
+      </c>
+      <c r="H35" t="s">
         <v>701</v>
       </c>
-      <c r="I33" t="s">
-        <v>793</v>
-      </c>
-      <c r="J33" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" t="s">
-        <v>417</v>
-      </c>
-      <c r="F34" t="s">
-        <v>512</v>
-      </c>
-      <c r="G34" t="s">
-        <v>607</v>
-      </c>
-      <c r="H34" t="s">
-        <v>417</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>794</v>
       </c>
-      <c r="J34" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>138</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>232</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>325</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>418</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>513</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>608</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>702</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>795</v>
       </c>
-      <c r="J35" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>139</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>233</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>326</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>419</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>514</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>609</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>703</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>796</v>
       </c>
-      <c r="J36" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>140</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>234</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>327</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>420</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>515</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>610</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>704</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>797</v>
       </c>
-      <c r="J37" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>141</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>235</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>328</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>421</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>516</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>611</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>705</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>798</v>
       </c>
-      <c r="J38" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>142</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>236</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>329</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>422</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>517</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>612</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>706</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>799</v>
       </c>
-      <c r="J39" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>143</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>237</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>330</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>423</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>518</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>613</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>707</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>800</v>
       </c>
-      <c r="J40" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>144</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>238</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>331</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>424</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>519</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>614</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>708</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>801</v>
       </c>
-      <c r="J41" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>145</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>239</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>332</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>425</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>520</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>615</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>709</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>802</v>
       </c>
-      <c r="J42" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>146</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>240</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>333</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>426</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>521</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>616</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>710</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" t="s">
         <v>803</v>
       </c>
-      <c r="J43" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>147</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>241</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>334</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>427</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>522</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>617</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>711</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>804</v>
       </c>
-      <c r="J44" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>148</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>242</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>335</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>428</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>523</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>618</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>712</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I46" t="s">
         <v>805</v>
       </c>
-      <c r="J45" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>149</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>243</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>336</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>429</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>524</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>619</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>713</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I47" t="s">
         <v>806</v>
       </c>
-      <c r="J46" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>55</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>150</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>244</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>337</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>430</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>525</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>620</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H48" t="s">
         <v>714</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I48" t="s">
         <v>807</v>
       </c>
-      <c r="J47" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>151</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>245</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>338</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>431</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>526</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>621</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H49" t="s">
         <v>715</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I49" t="s">
         <v>808</v>
       </c>
-      <c r="J48" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>152</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>246</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>339</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>432</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>527</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G50" t="s">
         <v>622</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H50" t="s">
         <v>716</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I50" t="s">
         <v>809</v>
       </c>
-      <c r="J49" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>153</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>247</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>340</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>433</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>528</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>623</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H51" t="s">
         <v>717</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I51" t="s">
         <v>810</v>
       </c>
-      <c r="J50" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>59</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>154</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>248</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>341</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>434</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>529</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>624</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H52" t="s">
         <v>718</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I52" t="s">
         <v>811</v>
       </c>
-      <c r="J51" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>155</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>249</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>342</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>435</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>530</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G53" t="s">
         <v>625</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H53" t="s">
         <v>719</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I53" t="s">
         <v>812</v>
       </c>
-      <c r="J52" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>156</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>250</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>343</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>436</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>531</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>626</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
         <v>720</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I54" t="s">
         <v>813</v>
       </c>
-      <c r="J53" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>62</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>157</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>251</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>344</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>437</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>532</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>627</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>721</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I55" t="s">
         <v>814</v>
       </c>
-      <c r="J54" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>158</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>252</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>345</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>438</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>533</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>628</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>722</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I56" t="s">
         <v>815</v>
       </c>
-      <c r="J55" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>64</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>159</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>253</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>346</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>439</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>534</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>629</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H57" t="s">
         <v>723</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I57" t="s">
         <v>816</v>
       </c>
-      <c r="J56" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>160</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>254</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>347</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>440</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>535</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>630</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H58" t="s">
         <v>724</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I58" t="s">
         <v>817</v>
       </c>
-      <c r="J57" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>66</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>161</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>255</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>348</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>441</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>536</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" t="s">
         <v>631</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H59" t="s">
         <v>725</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I59" t="s">
         <v>818</v>
       </c>
-      <c r="J58" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>67</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>162</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>256</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>349</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>442</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>537</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G60" t="s">
         <v>632</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H60" t="s">
         <v>726</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I60" t="s">
         <v>819</v>
       </c>
-      <c r="J59" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>68</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>163</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>257</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>350</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>443</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>538</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>633</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>727</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I61" t="s">
         <v>820</v>
       </c>
-      <c r="J60" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>164</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>258</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>351</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>444</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>539</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>634</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H62" t="s">
         <v>728</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I62" t="s">
         <v>821</v>
       </c>
-      <c r="J61" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>70</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>165</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>259</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>352</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>445</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>540</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>635</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H63" t="s">
         <v>729</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I63" t="s">
         <v>822</v>
       </c>
-      <c r="J62" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>71</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>166</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>260</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>353</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>446</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>541</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>636</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H64" t="s">
         <v>730</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I64" t="s">
         <v>823</v>
       </c>
-      <c r="J63" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>72</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>167</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>261</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>354</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>447</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>542</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>637</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H65" t="s">
         <v>731</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I65" t="s">
         <v>824</v>
       </c>
-      <c r="J64" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>73</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>168</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>262</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>355</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>448</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>543</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>638</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H66" t="s">
         <v>732</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I66" t="s">
         <v>825</v>
       </c>
-      <c r="J65" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>74</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>169</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>263</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>356</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>449</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>544</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>639</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H67" t="s">
         <v>733</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I67" t="s">
         <v>826</v>
       </c>
-      <c r="J66" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>75</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>170</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>264</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>357</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>450</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>545</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>640</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H68" t="s">
         <v>734</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I68" t="s">
         <v>827</v>
       </c>
-      <c r="J67" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>76</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>171</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>265</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>358</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>451</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>546</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>641</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H69" t="s">
         <v>735</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I69" t="s">
         <v>828</v>
       </c>
-      <c r="J68" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>77</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>172</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>266</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>359</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>452</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>547</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>642</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H70" t="s">
         <v>736</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I70" t="s">
         <v>829</v>
       </c>
-      <c r="J69" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>78</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>173</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>267</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>360</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>453</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>548</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>643</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H71" t="s">
         <v>737</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I71" t="s">
         <v>830</v>
       </c>
-      <c r="J70" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>79</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>174</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>268</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>361</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>454</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>549</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G72" t="s">
         <v>644</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H72" t="s">
         <v>738</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I72" t="s">
         <v>831</v>
       </c>
-      <c r="J71" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>80</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>175</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>269</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" t="s">
+        <v>455</v>
+      </c>
+      <c r="F73" t="s">
+        <v>550</v>
+      </c>
+      <c r="G73" t="s">
+        <v>645</v>
+      </c>
+      <c r="H73" t="s">
+        <v>455</v>
+      </c>
+      <c r="I73" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" t="s">
         <v>362</v>
       </c>
-      <c r="E72" t="s">
-        <v>455</v>
-      </c>
-      <c r="F72" t="s">
-        <v>550</v>
-      </c>
-      <c r="G72" t="s">
-        <v>645</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="E74" t="s">
+        <v>456</v>
+      </c>
+      <c r="F74" t="s">
+        <v>551</v>
+      </c>
+      <c r="G74" t="s">
+        <v>646</v>
+      </c>
+      <c r="H74" t="s">
         <v>739</v>
       </c>
-      <c r="I72" t="s">
-        <v>832</v>
-      </c>
-      <c r="J72" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" t="s">
-        <v>176</v>
-      </c>
-      <c r="C73" t="s">
-        <v>270</v>
-      </c>
-      <c r="D73" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" t="s">
-        <v>456</v>
-      </c>
-      <c r="F73" t="s">
-        <v>551</v>
-      </c>
-      <c r="G73" t="s">
-        <v>646</v>
-      </c>
-      <c r="H73" t="s">
-        <v>456</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="I74" t="s">
         <v>833</v>
       </c>
-      <c r="J73" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>82</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>177</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>271</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>363</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>457</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>552</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>647</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H75" t="s">
         <v>740</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I75" t="s">
         <v>834</v>
       </c>
-      <c r="J74" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>83</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>178</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>272</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>364</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>458</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>553</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>648</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H76" t="s">
         <v>741</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I76" t="s">
         <v>835</v>
       </c>
-      <c r="J75" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>84</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>179</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>273</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>365</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>459</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>554</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G77" t="s">
         <v>649</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H77" t="s">
         <v>742</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I77" t="s">
         <v>836</v>
       </c>
-      <c r="J76" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>85</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>180</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>274</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>366</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>460</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>555</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>650</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>743</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I78" t="s">
         <v>837</v>
       </c>
-      <c r="J77" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>86</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>181</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>275</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>367</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>461</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>556</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G79" t="s">
         <v>651</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H79" t="s">
         <v>744</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I79" t="s">
         <v>838</v>
       </c>
-      <c r="J78" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>87</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>182</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>276</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>368</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>462</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>557</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>652</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H80" t="s">
         <v>745</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I80" t="s">
         <v>839</v>
       </c>
-      <c r="J79" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>88</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>183</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>277</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>369</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>463</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>558</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G81" t="s">
         <v>653</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H81" t="s">
         <v>746</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I81" t="s">
         <v>840</v>
       </c>
-      <c r="J80" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>89</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>184</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>278</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>370</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>464</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>559</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>654</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>747</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I82" t="s">
         <v>841</v>
       </c>
-      <c r="J81" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>90</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>185</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>279</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>371</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>465</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>560</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>655</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H83" t="s">
         <v>748</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I83" t="s">
         <v>842</v>
       </c>
-      <c r="J82" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>91</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>186</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>280</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>372</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>466</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>561</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G84" t="s">
         <v>656</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H84" t="s">
         <v>749</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I84" t="s">
         <v>843</v>
       </c>
-      <c r="J83" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>92</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>187</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>281</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>373</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>467</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>562</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>657</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H85" t="s">
         <v>750</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I85" t="s">
         <v>844</v>
       </c>
-      <c r="J84" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>93</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>188</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" t="s">
+        <v>468</v>
+      </c>
+      <c r="F86" t="s">
+        <v>563</v>
+      </c>
+      <c r="G86" t="s">
+        <v>658</v>
+      </c>
+      <c r="H86" t="s">
+        <v>468</v>
+      </c>
+      <c r="I86" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
         <v>282</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D87" t="s">
         <v>374</v>
       </c>
-      <c r="E85" t="s">
-        <v>468</v>
-      </c>
-      <c r="F85" t="s">
-        <v>563</v>
-      </c>
-      <c r="G85" t="s">
-        <v>658</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="E87" t="s">
+        <v>469</v>
+      </c>
+      <c r="F87" t="s">
+        <v>564</v>
+      </c>
+      <c r="G87" t="s">
+        <v>659</v>
+      </c>
+      <c r="H87" t="s">
         <v>751</v>
       </c>
-      <c r="I85" t="s">
-        <v>845</v>
-      </c>
-      <c r="J85" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86" t="s">
-        <v>189</v>
-      </c>
-      <c r="C86" t="s">
-        <v>189</v>
-      </c>
-      <c r="D86" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" t="s">
-        <v>469</v>
-      </c>
-      <c r="F86" t="s">
-        <v>564</v>
-      </c>
-      <c r="G86" t="s">
-        <v>659</v>
-      </c>
-      <c r="H86" t="s">
-        <v>469</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="I87" t="s">
         <v>846</v>
       </c>
-      <c r="J86" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>95</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>190</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>283</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>375</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>470</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F88" t="s">
         <v>565</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G88" t="s">
         <v>660</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H88" t="s">
         <v>752</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I88" t="s">
         <v>847</v>
       </c>
-      <c r="J87" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>96</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>191</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>284</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>376</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>471</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>566</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G89" t="s">
         <v>661</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H89" t="s">
         <v>753</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I89" t="s">
         <v>848</v>
       </c>
-      <c r="J88" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>97</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>192</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>285</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>377</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>472</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>567</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G90" t="s">
         <v>662</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H90" t="s">
         <v>754</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I90" t="s">
         <v>849</v>
       </c>
-      <c r="J89" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>98</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>193</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>286</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>378</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>473</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
         <v>568</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G91" t="s">
         <v>663</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H91" t="s">
         <v>755</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I91" t="s">
         <v>850</v>
       </c>
-      <c r="J90" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>99</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>194</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>287</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>379</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>474</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F92" t="s">
         <v>569</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G92" t="s">
         <v>664</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H92" t="s">
         <v>756</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I92" t="s">
         <v>851</v>
       </c>
-      <c r="J91" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>100</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>195</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>288</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>380</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>475</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>570</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G93" t="s">
         <v>665</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H93" t="s">
         <v>757</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I93" t="s">
         <v>852</v>
       </c>
-      <c r="J92" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>101</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>196</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>289</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>381</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>476</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F94" t="s">
         <v>571</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G94" t="s">
         <v>666</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H94" t="s">
         <v>758</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I94" t="s">
         <v>853</v>
       </c>
-      <c r="J93" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>102</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>197</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>290</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>382</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>477</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>572</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G95" t="s">
         <v>667</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H95" t="s">
         <v>759</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I95" t="s">
         <v>854</v>
       </c>
-      <c r="J94" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>103</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>198</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>291</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>383</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>478</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>573</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>668</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H96" t="s">
         <v>760</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I96" t="s">
         <v>855</v>
-      </c>
-      <c r="J95" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" t="s">
-        <v>199</v>
-      </c>
-      <c r="C96" t="s">
-        <v>292</v>
-      </c>
-      <c r="D96" t="s">
-        <v>384</v>
-      </c>
-      <c r="E96" t="s">
-        <v>479</v>
-      </c>
-      <c r="F96" t="s">
-        <v>574</v>
-      </c>
-      <c r="G96" t="s">
-        <v>669</v>
-      </c>
-      <c r="H96" t="s">
-        <v>761</v>
-      </c>
-      <c r="I96" t="s">
-        <v>856</v>
-      </c>
-      <c r="J96" t="s">
-        <v>951</v>
       </c>
     </row>
   </sheetData>

--- a/Ananse1/Ananse1_Learned.xlsx
+++ b/Ananse1/Ananse1_Learned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akan\New Ananse Tales\Ananse1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2598B35E-B9EB-4F0B-A545-63169F8A3E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E49135-AEC3-4CAB-B8EA-860189A2884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29250" yWindow="5775" windowWidth="23505" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30705" yWindow="7380" windowWidth="23505" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2305,289 +2305,2244 @@
     <t>95 &lt;Me|PRON&gt; &lt;ananses?m|NOUN&gt; &lt;a|PART&gt; &lt;metoo|VERB&gt; &lt;yi,|PRON&gt; &lt;s?|SCONJ&gt; &lt;eye|VERB&gt; &lt;de|VERB&gt; &lt;a,|SCONJ&gt; &lt;s?|SCONJ&gt; &lt;ennye|VERB&gt; &lt;de|VERB&gt; &lt;a,|SCONJ&gt; &lt;momfa|VERB&gt; &lt;bi|DET&gt; &lt;nko,|ADV&gt; &lt;na|CONJ&gt; &lt;momfa|VERB&gt; &lt;bi|DET&gt; &lt;mmera.|VERB&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;Te’&lt;/b&gt;: INTJ:Interjection&lt;br&gt;&lt;br&gt;Interjection representing an exclamation or call.&lt;br&gt;&lt;b&gt;nse&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;nse&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;o&lt;/b&gt;: INTJ:Interjection&lt;br&gt;&lt;br&gt;Interjection often used for emphasis or as a closing particle.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;SEDIE&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;EYOYE&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;A&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;KWAKU&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ANANSE&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;OBENYA&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ASO&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;AWADEE&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;OBARIMA&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;owoo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’free&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ompe&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;obi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;behuno&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;anase&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bekasa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Nti&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;oko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyekyeree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akura&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;tenaam’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akura&lt;/b&gt;: NOUN:Concrete&lt;br&gt;&lt;br&gt;Concrete noun meaning 'village' or 'settlement.'&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ase&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obiara&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nko&lt;/b&gt;: ADV:Adverbial&lt;br&gt;&lt;br&gt;Adverb meaning 'only' or 'solely.'&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ono&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ye&lt;/b&gt;: VERB:Present-tense&lt;br&gt;&lt;br&gt;Verb meaning 'is' in the present tense.&lt;br&gt;&lt;b&gt;okerawa.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Sa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nti&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;onim&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;one&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;tena&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kurom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;befa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyeree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmerantee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Akwasi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;aware&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da‐da‐da;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;one&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nnwo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘ba,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nti&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obetimi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ako&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;anyinsen,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;omfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Mmerantee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nnyina&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;boo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmoden&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;ye’nsa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;beka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nanso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obiara&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;antimi.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Kwaku&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho’a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Me‐timi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;m’ako&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;kurom’.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;‘Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Ampa’ra,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;be‐timi?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fwefwe,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bema&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;‘Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Deeben?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Atuduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aboo.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;maa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;faa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;atuduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aboo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkura’se&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;atuduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aboo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mo,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkum&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;eda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;meba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ha,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mabegye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mako.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ode&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;atuduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aboo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;maa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkura&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bebre&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;maa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;saye.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Nkrofuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nnyina&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nyaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;bi.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Dakoro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;boo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bede,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;tenten&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;beye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;eha&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;do.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkura&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wama&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yen&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;atuduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aboo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;gyee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;y’akum&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nnyina.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;faa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bede&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;soaye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;osii&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;akura&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘kwan&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Oduruu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ye’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;asuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’nom&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mu,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wayi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;agum’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;boo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmoden&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bede&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;wuraa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;ntwonom’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;hunoo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Akwasi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;e,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;befwa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;biribi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;e’ba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘fie&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ha,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aden?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;o’soma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mabere,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me’beda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ha.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“M’ate,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wura&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akoa.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyeree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘barima,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;afiri&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ato&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ntwonom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“O,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘kraman&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nko&lt;/b&gt;: ADV:Adverbial&lt;br&gt;&lt;br&gt;Adverb meaning 'only' or 'solely.'&lt;br&gt;&lt;b&gt;fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nwe.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;faye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;maa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;okunu.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Eno,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aduane&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;si&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;sii&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Eno,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fufuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo’noa,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;anase&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;eto?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Fufuo.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Enee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;esua;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kofa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kukuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kesie.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;faa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kesie,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Bra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;begye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Enee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmoa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akesie&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘sere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aduanan.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘yiara&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;gum’,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kukuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kesie&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ankra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mema&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;awe&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ama&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;atutu.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wiee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aduane&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;guu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sii&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;pon’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nsuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sii&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘gya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmarima&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;tenaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;pon’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’kaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’nsa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akyi.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ye’di’a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’di’a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Kwaku&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Fufuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkyene&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nnim.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;ka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyeree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;bra.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Dabi,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;oba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;e’didi,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;sore&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkyene&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bra,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ara&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sore&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bra.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;soreye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;£wee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;botom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wasa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;afaduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;agu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fufuo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nom’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Efei&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ofree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Bra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkyene&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;baye.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;baye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“O,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me’nni&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bio,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mame.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;e’die,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;onnim&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fwe;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;odi’a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;o’die.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ye’didi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wieye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“‘Damfo,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;te&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ha,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’nnim&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;din.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;din&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Sore‐ko‐di‐Aso.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Mate,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;w’ate&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Barima&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;din?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“E,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;m’ate.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;soreye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;siesiee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dampon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bako&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kama.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Sore‐ko‐di‐Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dampon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ni,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dwareni&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;meda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;patom’;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;efiri&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;eno&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;woo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nnaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dampon’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Ebe&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;beda?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Ankra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;pato&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yim’,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nanso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;eye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;pe,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ekyere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;patom’,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nna&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obiara&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;patom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nnka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nti&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dampon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dam’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;anim’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;meda.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Obarima&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;yii&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kete&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;betoo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;daye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;daa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;daa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wato&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;anim’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;krokro.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;da&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ofaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sepirewa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se:&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;“Akuamoa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’beye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;biribi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nne.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘ni,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nsia&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘ba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’beye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;biribi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nne.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘kradware’ni&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mehunu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;biribi.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Efei&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ogyaee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sepirewa,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ode&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;too&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;odaye.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Oda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho’a,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;otee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;e’fre&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Barima.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Dinn!&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;“Agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Barima.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Dinn!&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;o’wu;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aduro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;aka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ofree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Agya&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘Barima.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Dinn!&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Efei&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Sore‐ko‐di‐Aso.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“M!&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;M!&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;M!”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Hyini&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;hyiniye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;babi.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sore&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dan&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;w’ate&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kunu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kaye?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Osee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;sen?”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Osee,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Osee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nsore&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmedi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mmoa.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;waye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ama&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wasan&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;abeda.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Anadwo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;soree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mpen&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkron;&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;soso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkyen&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mpen&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkron.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Adeekyeye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;anopa,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;siim’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koye.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ebeye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;asrammienu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;afu’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kakraka.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;bisaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Aden&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;w’afu’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;aye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;yie,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dabere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yare,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;te&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nnwo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘ba.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;were&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;afi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obarima&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ha&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;‘Sore‐ko‐di‐Aso’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;eye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obefaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;one&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nyem.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Sore&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nko&lt;/b&gt;: ADV:Adverbial&lt;br&gt;&lt;br&gt;Adverb meaning 'only' or 'solely.'&lt;br&gt;&lt;b&gt;ma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ye’koo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kurom’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;okwanm’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;woye.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ye’duruu&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kurom’&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;boo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;amanee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“W’akoa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;somaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;obedaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘fie,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wafa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;anyem.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Nyankonpon&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nkoa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;nnyina&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;e’bua&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dan,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ko&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘nipa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;koro.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ye’koreye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;te&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;etire.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“O’nie.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;adwane&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;abetena&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mfin‐mfini.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akyere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“O’nie.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Efei&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;firi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;soro&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;befwee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;fam’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Eda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;so,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;eye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Fiada.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;see,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;“Me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;dware&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘kra&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;wo&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nsa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akyere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;so,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mafwe&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ase&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ama&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ntwuma&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ayeye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;me&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ho.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Seisei&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nhenkwa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ayere&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;watwa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dwan.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Akwasi&lt;/b&gt;: PROPN:Proper-name-masculine&lt;br&gt;&lt;br&gt;Proper noun referring to a male name.&lt;br&gt;&lt;b&gt;Ninkunfuo&lt;/b&gt;: NOUN:Person-adjective-root&lt;br&gt;&lt;br&gt;Noun representing 'jealous one' or 'person associated with jealousy.'&lt;br&gt;&lt;b&gt;twaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;‘dwan&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;wieye,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;oka&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;kyeree&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Nyame&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se,&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement,' with punctuation.&lt;br&gt;&lt;b&gt;“Oba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nie,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;mfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no.”&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ananse&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;faa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;Aso,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;akoda&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;dee&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ye’kum&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;no&lt;/b&gt;: DET:Definite-article&lt;br&gt;&lt;br&gt;Determiner indicating 'the.'&lt;br&gt;&lt;b&gt;twitwaa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ne&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;nam&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;to&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;peye.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Ene&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;ninkuno&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;ebeba&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;manm’.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;M’anansesem&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;a&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;metooye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;yi,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;eye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;o,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;se&lt;/b&gt;: NOUN:Abstract&lt;br&gt;&lt;br&gt;Abstract noun meaning 'speech' or 'statement.'&lt;br&gt;&lt;b&gt;ennye&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;de&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;o,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;momfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;nko,&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;na&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;momfa&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.&lt;br&gt;&lt;b&gt;bi&lt;/b&gt;: DET:Indefinite-article&lt;br&gt;&lt;br&gt;Determiner meaning 'a' or 'some.'&lt;br&gt;&lt;b&gt;mmera.&lt;/b&gt;: UNKNOWN&lt;br&gt;&lt;br&gt;No annotation available for this word.</t>
+    <t>Te’: INTJ:Interjection
+Interjection representing an exclamation or call.
+nse: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+nse: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+se: UNKNOWN
+No annotation available for this word.
+o: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>SEDIE: TRANSLATED
+Translated as 'HOW' from AtoE.
+EYOYE: TRANSLATED
+Translated as 'happen' from AtoE.
+A: TRANSLATED
+Translated as 'that' from AtoE.
+KWAKU: TRANSLATED
+Translated as 'Kwaku' from AtoE.
+ANANSE: TRANSLATED
+Translated as 'Ananse' from AtoE.
+OBENYA: TRANSLATED
+Translated as 'obtains' from AtoE.
+ASO: TRANSLATED
+Translated as 'Aso' from AtoE.
+AWADEE: TRANSLATED
+Translated as 'marriage' from AtoE.</t>
+  </si>
+  <si>
+    <t>OBARIMA: TRANSLATED
+Translated as 'A' from AtoE.
+bi: DET:Indefinite-article
+Determiner meaning 'a' or 'some.'
+na: TRANSLATED
+Translated as 'man' from AtoE.
+owoo: TRANSLATED
+Translated as 'there' from AtoE.
+ho,: TRANSLATED
+Translated as 'was' from AtoE.
+ye’free: TRANSLATED
+Translated as 'born,' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo,: TRANSLATED
+Translated as 'Akwasi' from AtoE.
+na: TRANSLATED
+Translated as 'Jealous‐one,' from AtoE.
+ne: TRANSLATED
+Translated as 'and' from AtoE.
+yere: TRANSLATED
+Translated as 'his' from AtoE.
+ne: TRANSLATED
+Translated as 'wife' from AtoE.
+Aso,: TRANSLATED
+Translated as 'is' from AtoE.
+na: TRANSLATED
+Translated as 'Aso,' from AtoE.
+ompe: TRANSLATED
+Translated as 'and' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+obi: TRANSLATED
+Translated as 'that' from AtoE.
+behuno: TRANSLATED
+Translated as 'someone' from AtoE.
+Aso,: TRANSLATED
+Translated as 'see' from AtoE.
+anase: TRANSLATED
+Translated as 'Aso,' from AtoE.
+obi: TRANSLATED
+Translated as 'or' from AtoE.
+bekasa: TRANSLATED
+Translated as 'someone' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+ho.: TRANSLATED
+Translated as 'her' from AtoE.</t>
+  </si>
+  <si>
+    <t>Nti: TRANSLATED
+Translated as 'So' from AtoE.
+oko: TRANSLATED
+Translated as 'he' from AtoE.
+kyekyeree: TRANSLATED
+Translated as 'went' from AtoE.
+akura: TRANSLATED
+Translated as 'tied' from AtoE.
+ne: TRANSLATED
+Translated as 'settlement' from AtoE.
+Aso: TRANSLATED
+Translated as 'for' from AtoE.
+tenaam’.: TRANSLATED
+Translated as 'Aso' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akura: NOUN:Concrete
+Concrete noun meaning 'village' or 'settlement.'
+no: DET:Definite-article
+Determiner indicating 'the.'
+ase: TRANSLATED
+Translated as 'under' from AtoE.
+obiara: TRANSLATED
+Translated as 'nobody' from AtoE.
+nko: ADV:Adverbial
+Adverb meaning 'only' or 'solely.'
+ho.: TRANSLATED
+Translated as 'there.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ono: TRANSLATED
+Translated as 'He' from AtoE.
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo: NOUN:Person-adjective-root
+Noun representing 'jealous one' or 'person associated with jealousy.'
+no: DET:Definite-article
+Determiner indicating 'the.'
+ye: VERB:Present-tense
+Verb meaning 'is' in the present tense.
+okerawa.: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Sa: TRANSLATED
+Translated as 'Because' from AtoE.
+nti: TRANSLATED
+Translated as 'of' from AtoE.
+onim: TRANSLATED
+Translated as 'that' from AtoE.
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+one: TRANSLATED
+Translated as 'if' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+tena: TRANSLATED
+Translated as 'and' from AtoE.
+kurom’: TRANSLATED
+Translated as 'her' from AtoE.
+a,: TRANSLATED
+Translated as 'live' from AtoE.
+obi: TRANSLATED
+Translated as 'town' from AtoE.
+befa: TRANSLATED
+Translated as 'inside,' from AtoE.
+no.: TRANSLATED
+Translated as 'someone' from AtoE.</t>
+  </si>
+  <si>
+    <t>Nyankonpon: TRANSLATED
+Translated as 'Sky‐god' from AtoE.
+ka: TRANSLATED
+Translated as 'said' from AtoE.
+kyeree: TRANSLATED
+Translated as 'told' from AtoE.
+mmerantee: TRANSLATED
+Translated as 'young‐men' from AtoE.
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+“Akwasi: TRANSLATED
+Translated as '“Akwasi' from AtoE.
+Ninkunfuo: NOUN:Person-adjective-root
+Noun representing 'jealous one' or 'person associated with jealousy.'
+aware: TRANSLATED
+Translated as 'marry' from AtoE.
+Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+da‐da‐da;: TRANSLATED
+Translated as 'very‐long‐ago;' from AtoE.
+one: TRANSLATED
+Translated as 'she' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+nnwo: TRANSLATED
+Translated as 'child,' from AtoE.
+‘ba,: TRANSLATED
+Translated as 'so' from AtoE.
+nti: TRANSLATED
+Translated as 'whoever' from AtoE.
+dee: TRANSLATED
+Translated as 'can' from AtoE.
+obetimi: TRANSLATED
+Translated as 'go' from AtoE.
+ako: TRANSLATED
+Translated as 'take' from AtoE.
+fa: TRANSLATED
+Translated as 'Aso' from AtoE.
+Aso: TRANSLATED
+Translated as 'make' from AtoE.
+ne: TRANSLATED
+Translated as 'her' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+anyinsen,: TRANSLATED
+Translated as 'let' from AtoE.
+omfa: TRANSLATED
+Translated as 'him' from AtoE.
+no.”: TRANSLATED
+Translated as 'take' from AtoE.</t>
+  </si>
+  <si>
+    <t>Mmerantee: TRANSLATED
+Translated as 'The' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+nnyina: TRANSLATED
+Translated as 'all' from AtoE.
+boo: TRANSLATED
+Translated as 'tried' from AtoE.
+mmoden: TRANSLATED
+Translated as 'effort' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+ye’nsa: TRANSLATED
+Translated as 'our‐hands' from AtoE.
+beka: TRANSLATED
+Translated as 'catch' from AtoE.
+no,: TRANSLATED
+Translated as 'her,' from AtoE.
+nanso: TRANSLATED
+Translated as 'but' from AtoE.
+obiara: TRANSLATED
+Translated as 'nobody' from AtoE.
+antimi.: TRANSLATED
+Translated as 'could.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Kwaku: TRANSLATED
+Translated as 'Kwaku' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+wo: TRANSLATED
+Translated as 'was' from AtoE.
+ho’a,: TRANSLATED
+Translated as 'there,' from AtoE.
+osee,: TRANSLATED
+Translated as 'he' from AtoE.
+“Me‐timi: TRANSLATED
+Translated as 'said,' from AtoE.
+m’ako: TRANSLATED
+Translated as '“I‐able' from AtoE.
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo: NOUN:Person-adjective-root
+Noun representing 'jealous one' or 'person associated with jealousy.'
+kurom’.”: TRANSLATED
+Translated as 'Jealous‐one' from AtoE.</t>
+  </si>
+  <si>
+    <t>‘Nyame: TRANSLATED
+Translated as 'Sky‐god' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Ampa’ra,: TRANSLATED
+Translated as '“Truly,' from AtoE.
+wo: TRANSLATED
+Translated as 'you' from AtoE.
+be‐timi?”: TRANSLATED
+Translated as 'can?”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Dee: TRANSLATED
+Translated as '“Thing' from AtoE.
+me: TRANSLATED
+Translated as 'I' from AtoE.
+fwefwe,: TRANSLATED
+Translated as 'search,' from AtoE.
+wo: TRANSLATED
+Translated as 'you' from AtoE.
+de: TRANSLATED
+Translated as 'must' from AtoE.
+bema: TRANSLATED
+Translated as 'give' from AtoE.
+me: TRANSLATED
+Translated as 'me' from AtoE.
+dee: TRANSLATED
+Translated as 'that' from AtoE.
+a.”: TRANSLATED
+Translated as 'thing.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>‘Nyame: TRANSLATED
+Translated as 'Sky‐god' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Deeben?”: TRANSLATED
+Translated as '“What?”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Osee,: TRANSLATED
+Translated as 'He' from AtoE.
+“Atuduro: TRANSLATED
+Translated as 'said,' from AtoE.
+ne: TRANSLATED
+Translated as '“Gun‐powder' from AtoE.
+aboo.”: TRANSLATED
+Translated as 'and' from AtoE.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'And' from AtoE.
+‘Nyame: TRANSLATED
+Translated as 'Sky‐god' from AtoE.
+de: TRANSLATED
+Translated as 'gave' from AtoE.
+maa: TRANSLATED
+Translated as 'to' from AtoE.
+no.: TRANSLATED
+Translated as 'him.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'And' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+faa: TRANSLATED
+Translated as 'took' from AtoE.
+atuduro: TRANSLATED
+Translated as 'gun‐powder' from AtoE.
+ne: TRANSLATED
+Translated as 'and' from AtoE.
+aboo: TRANSLATED
+Translated as 'bullets' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+koo: TRANSLATED
+Translated as 'went' from AtoE.
+nkura’se: TRANSLATED
+Translated as 'small‐villages' from AtoE.
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+“Nyankonpon: TRANSLATED
+Translated as '“Sky‐god' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+me: TRANSLATED
+Translated as 'I' from AtoE.
+mfa: TRANSLATED
+Translated as 'bring' from AtoE.
+atuduro: TRANSLATED
+Translated as 'gun‐powder' from AtoE.
+ne: TRANSLATED
+Translated as 'and' from AtoE.
+aboo: TRANSLATED
+Translated as 'bullets' from AtoE.
+yi: TRANSLATED
+Translated as 'these' from AtoE.
+mmere: TRANSLATED
+Translated as 'to' from AtoE.
+mo,: TRANSLATED
+Translated as 'you,' from AtoE.
+mma: TRANSLATED
+Translated as 'that' from AtoE.
+mo: TRANSLATED
+Translated as 'you' from AtoE.
+nkum: TRANSLATED
+Translated as 'kill' from AtoE.
+nam,: TRANSLATED
+Translated as 'meat,' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+eda: TRANSLATED
+Translated as 'day' from AtoE.
+a: TRANSLATED
+Translated as 'that' from AtoE.
+meba: TRANSLATED
+Translated as 'I' from AtoE.
+ha,: TRANSLATED
+Translated as 'come' from AtoE.
+mabegye: TRANSLATED
+Translated as 'here,' from AtoE.
+mako.”: TRANSLATED
+Translated as 'I‐will‐take' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ode: TRANSLATED
+Translated as 'He' from AtoE.
+atuduro: TRANSLATED
+Translated as 'gave' from AtoE.
+ne: TRANSLATED
+Translated as 'gun‐powder' from AtoE.
+aboo: TRANSLATED
+Translated as 'and' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+maa: TRANSLATED
+Translated as 'to' from AtoE.
+nkura: TRANSLATED
+Translated as 'many' from AtoE.
+bebre: TRANSLATED
+Translated as 'small‐villages' from AtoE.
+maa: TRANSLATED
+Translated as 'till' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+saye.: TRANSLATED
+Translated as 'finished.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Nkrofuo: TRANSLATED
+Translated as 'People' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+nnyina: TRANSLATED
+Translated as 'got' from AtoE.
+nyaa: TRANSLATED
+Translated as 'some' from AtoE.
+nam: TRANSLATED
+Translated as 'meat.' from AtoE.
+no: UNKNOWN
+No annotation available for this word.
+bi.: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Dakoro: TRANSLATED
+Translated as 'One' from AtoE.
+bi: DET:Indefinite-article
+Determiner meaning 'a' or 'some.'
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+ko: TRANSLATED
+Translated as 'went' from AtoE.
+boo: TRANSLATED
+Translated as 'took' from AtoE.
+bede,: TRANSLATED
+Translated as 'palm‐leaf' from AtoE.
+Ne: TRANSLATED
+Translated as 'basket,' from AtoE.
+tenten: TRANSLATED
+Translated as 'Its' from AtoE.
+beye: TRANSLATED
+Translated as 'length' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+eha: TRANSLATED
+Translated as 'from' from AtoE.
+yi: TRANSLATED
+Translated as 'here' from AtoE.
+ne: TRANSLATED
+Translated as 'to' from AtoE.
+do.: TRANSLATED
+Translated as 'there.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+de: TRANSLATED
+Translated as 'took' from AtoE.
+koo: TRANSLATED
+Translated as 'it' from AtoE.
+nkura: TRANSLATED
+Translated as 'went' from AtoE.
+a: TRANSLATED
+Translated as 'the' from AtoE.
+wama: TRANSLATED
+Translated as 'villages' from AtoE.
+yen: TRANSLATED
+Translated as 'he' from AtoE.
+atuduro: TRANSLATED
+Translated as 'gave' from AtoE.
+ne: TRANSLATED
+Translated as 'them' from AtoE.
+aboo: TRANSLATED
+Translated as 'gun‐powder' from AtoE.
+ho: TRANSLATED
+Translated as 'and' from AtoE.
+ko: TRANSLATED
+Translated as 'bullets,' from AtoE.
+gyee: TRANSLATED
+Translated as 'went' from AtoE.
+nam: TRANSLATED
+Translated as 'collected' from AtoE.
+a: TRANSLATED
+Translated as 'meat' from AtoE.
+y’akum: TRANSLATED
+Translated as 'they' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+nnyina.: TRANSLATED
+Translated as 'killed' from AtoE.</t>
+  </si>
+  <si>
+    <t>Agya: TRANSLATED
+Translated as 'Father' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+faa: TRANSLATED
+Translated as 'took' from AtoE.
+nam: TRANSLATED
+Translated as 'that' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+ne: TRANSLATED
+Translated as 'with' from AtoE.
+bede: TRANSLATED
+Translated as 'the' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+soaye,: TRANSLATED
+Translated as 'set' from AtoE.
+na: TRANSLATED
+Translated as 'out,' from AtoE.
+osii: TRANSLATED
+Translated as 'and' from AtoE.
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo: NOUN:Person-adjective-root
+Noun representing 'jealous one' or 'person associated with jealousy.'
+akura: TRANSLATED
+Translated as 'Akwasi' from AtoE.
+‘kwan: TRANSLATED
+Translated as 'Jealous‐one' from AtoE.
+so.: TRANSLATED
+Translated as 'settlement' from AtoE.</t>
+  </si>
+  <si>
+    <t>Oduruu: TRANSLATED
+Translated as 'He' from AtoE.
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+ne: TRANSLATED
+Translated as 'Akwasi' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+ye’: TRANSLATED
+Translated as 'that' from AtoE.
+asuo: TRANSLATED
+Translated as 'woman' from AtoE.
+a: TRANSLATED
+Translated as 'place' from AtoE.
+ye’nom: TRANSLATED
+Translated as 'water' from AtoE.
+mu,: TRANSLATED
+Translated as 'they' from AtoE.
+na: TRANSLATED
+Translated as 'drink' from AtoE.
+wayi: TRANSLATED
+Translated as 'inside,' from AtoE.
+nam: TRANSLATED
+Translated as 'and' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+bi: DET:Indefinite-article
+Determiner meaning 'a' or 'some.'
+agum’.: TRANSLATED
+Translated as 'some' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+boo: TRANSLATED
+Translated as 'tried' from AtoE.
+mmoden: TRANSLATED
+Translated as 'put' from AtoE.
+de: TRANSLATED
+Translated as 'the' from AtoE.
+bede: TRANSLATED
+Translated as 'basket' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+wuraa: TRANSLATED
+Translated as 'Akwasi' from AtoE.
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo: NOUN:Person-adjective-root
+Noun representing 'jealous one' or 'person associated with jealousy.'
+ntwonom’.: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'And' from AtoE.
+Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+hunoo: TRANSLATED
+Translated as 'saw' from AtoE.
+no.: TRANSLATED
+Translated as 'him.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Osee,: TRANSLATED
+Translated as 'She' from AtoE.
+“Akwasi: TRANSLATED
+Translated as 'said,' from AtoE.
+e,: TRANSLATED
+Translated as '“Akwasi' from AtoE.
+bra: TRANSLATED
+Translated as 'eh,' from AtoE.
+befwa: TRANSLATED
+Translated as 'come' from AtoE.
+biribi: TRANSLATED
+Translated as 'see' from AtoE.
+a: TRANSLATED
+Translated as 'something' from AtoE.
+e’ba: TRANSLATED
+Translated as 'that' from AtoE.
+‘fie: TRANSLATED
+Translated as 'is' from AtoE.
+ha,: TRANSLATED
+Translated as 'coming' from AtoE.
+na: TRANSLATED
+Translated as 'house' from AtoE.
+aden?”: TRANSLATED
+Translated as 'here,' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Nyankonpon: TRANSLATED
+Translated as '“Sky‐god' from AtoE.
+na: TRANSLATED
+Translated as 'who' from AtoE.
+o’soma: TRANSLATED
+Translated as 'sends' from AtoE.
+me,: TRANSLATED
+Translated as 'me,' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+mabere,: TRANSLATED
+Translated as 'I’m' from AtoE.
+na: TRANSLATED
+Translated as 'tired,' from AtoE.
+me’beda: TRANSLATED
+Translated as 'and' from AtoE.
+ha.”: TRANSLATED
+Translated as 'I' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo: NOUN:Person-adjective-root
+Noun representing 'jealous one' or 'person associated with jealousy.'
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“M’ate,: TRANSLATED
+Translated as '“I‐have‐heard,' from AtoE.
+me: TRANSLATED
+Translated as 'my' from AtoE.
+wura: TRANSLATED
+Translated as 'Lord’s' from AtoE.
+akoa.”: TRANSLATED
+Translated as 'servant.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+ka: TRANSLATED
+Translated as 'said' from AtoE.
+kyeree: TRANSLATED
+Translated as 'told' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+“Agya: TRANSLATED
+Translated as '“Father' from AtoE.
+‘barima,: TRANSLATED
+Translated as 'man,' from AtoE.
+wo: TRANSLATED
+Translated as 'your' from AtoE.
+nam: TRANSLATED
+Translated as 'meat' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+bi: DET:Indefinite-article
+Determiner meaning 'a' or 'some.'
+na: TRANSLATED
+Translated as 'parted' from AtoE.
+afiri: TRANSLATED
+Translated as 'dropped' from AtoE.
+ato: TRANSLATED
+Translated as 'water‐jar.”' from AtoE.
+ntwonom’: UNKNOWN
+No annotation available for this word.
+no.”: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“O,: TRANSLATED
+Translated as '“Oh,' from AtoE.
+wo: TRANSLATED
+Translated as 'if' from AtoE.
+wo: TRANSLATED
+Translated as 'you' from AtoE.
+‘kraman: TRANSLATED
+Translated as 'have' from AtoE.
+bi: DET:Indefinite-article
+Determiner meaning 'a' or 'some.'
+a,: TRANSLATED
+Translated as 'let' from AtoE.
+ma: TRANSLATED
+Translated as 'it' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+nko: ADV:Adverbial
+Adverb meaning 'only' or 'solely.'
+fa: TRANSLATED
+Translated as 'chew.”' from AtoE.
+nwe.”: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'And' from AtoE.
+Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+ko: TRANSLATED
+Translated as 'went' from AtoE.
+faye: TRANSLATED
+Translated as 'took' from AtoE.
+de: TRANSLATED
+Translated as 'it,' from AtoE.
+ko: TRANSLATED
+Translated as 'gave' from AtoE.
+maa: TRANSLATED
+Translated as 'it' from AtoE.
+okunu.: TRANSLATED
+Translated as 'to' from AtoE.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'Then' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Eno,: TRANSLATED
+Translated as '“Mother,' from AtoE.
+fa: TRANSLATED
+Translated as 'put' from AtoE.
+aduane: TRANSLATED
+Translated as 'food' from AtoE.
+si: TRANSLATED
+Translated as 'on' from AtoE.
+me: TRANSLATED
+Translated as 'for' from AtoE.
+so.”: TRANSLATED
+Translated as 'me.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+de: TRANSLATED
+Translated as 'put' from AtoE.
+bi: DET:Indefinite-article
+Determiner meaning 'a' or 'some.'
+sii: TRANSLATED
+Translated as 'and' from AtoE.
+so,: TRANSLATED
+Translated as 'Ananse' from AtoE.
+na: TRANSLATED
+Translated as 'said,' from AtoE.
+Ananse: TRANSLATED
+Translated as '“Mother,' from AtoE.
+see,: TRANSLATED
+Translated as 'is' from AtoE.
+“Eno,: TRANSLATED
+Translated as 'it' from AtoE.
+na: TRANSLATED
+Translated as 'fufuo' from AtoE.
+fufuo: TRANSLATED
+Translated as 'that' from AtoE.
+na: TRANSLATED
+Translated as 'you' from AtoE.
+wo’noa,: TRANSLATED
+Translated as 'cook,' from AtoE.
+anase: TRANSLATED
+Translated as 'or' from AtoE.
+eto?”: TRANSLATED
+Translated as 'eto?”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Fufuo.”: TRANSLATED
+Translated as '“Fufuo.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Enee: TRANSLATED
+Translated as '“Then' from AtoE.
+esua;: TRANSLATED
+Translated as 'it’s' from AtoE.
+kofa: TRANSLATED
+Translated as 'small;' from AtoE.
+kukuo: TRANSLATED
+Translated as 'go' from AtoE.
+kesie.”: TRANSLATED
+Translated as 'bring' from AtoE.</t>
+  </si>
+  <si>
+    <t>Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+ko: TRANSLATED
+Translated as 'went' from AtoE.
+faa: TRANSLATED
+Translated as 'took' from AtoE.
+kesie,: TRANSLATED
+Translated as 'big,' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Bra: TRANSLATED
+Translated as '“Come' from AtoE.
+begye: TRANSLATED
+Translated as 'take' from AtoE.
+nam.”: TRANSLATED
+Translated as 'meat.”' from AtoE.
+Enee: TRANSLATED
+Translated as 'There' from AtoE.
+mmoa: TRANSLATED
+Translated as 'huge' from AtoE.
+akesie: TRANSLATED
+Translated as 'animals' from AtoE.
+‘sere: TRANSLATED
+Translated as 'hind‐quarters' from AtoE.
+aduanan.: TRANSLATED
+Translated as 'forty.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Osee,: TRANSLATED
+Translated as 'He' from AtoE.
+“Fa: TRANSLATED
+Translated as 'said,' from AtoE.
+‘yiara: TRANSLATED
+Translated as '“Take' from AtoE.
+ko: TRANSLATED
+Translated as 'these' from AtoE.
+gum’,: TRANSLATED
+Translated as 'only' from AtoE.
+na: TRANSLATED
+Translated as 'put' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+wo: TRANSLATED
+Translated as 'and' from AtoE.
+wo: TRANSLATED
+Translated as 'if' from AtoE.
+kukuo: TRANSLATED
+Translated as 'you' from AtoE.
+kesie: TRANSLATED
+Translated as 'had' from AtoE.
+a,: TRANSLATED
+Translated as 'pot' from AtoE.
+ankra: TRANSLATED
+Translated as 'big,' from AtoE.
+mema: TRANSLATED
+Translated as 'then' from AtoE.
+wo: TRANSLATED
+Translated as 'I' from AtoE.
+awe: TRANSLATED
+Translated as 'give' from AtoE.
+nam: TRANSLATED
+Translated as 'you' from AtoE.
+ama: TRANSLATED
+Translated as 'chew' from AtoE.
+wo: TRANSLATED
+Translated as 'meat' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+atutu.”: TRANSLATED
+Translated as 'your' from AtoE.</t>
+  </si>
+  <si>
+    <t>Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+wiee: TRANSLATED
+Translated as 'finished' from AtoE.
+aduane: TRANSLATED
+Translated as 'the' from AtoE.
+no,: TRANSLATED
+Translated as 'food,' from AtoE.
+guu: TRANSLATED
+Translated as 'poured' from AtoE.
+so,: TRANSLATED
+Translated as 'it' from AtoE.
+de: TRANSLATED
+Translated as 'out,' from AtoE.
+ko: TRANSLATED
+Translated as 'put' from AtoE.
+sii: TRANSLATED
+Translated as 'on' from AtoE.
+pon’: TRANSLATED
+Translated as 'table,' from AtoE.
+so,: TRANSLATED
+Translated as 'poured' from AtoE.
+sa: TRANSLATED
+Translated as 'water' from AtoE.
+nsuo: TRANSLATED
+Translated as 'placed' from AtoE.
+sii: TRANSLATED
+Translated as 'there.' from AtoE.
+ho.: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'And' from AtoE.
+Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+de: TRANSLATED
+Translated as 'took' from AtoE.
+ne: TRANSLATED
+Translated as 'her' from AtoE.
+dee: TRANSLATED
+Translated as 'portion' from AtoE.
+koo: TRANSLATED
+Translated as 'went' from AtoE.
+‘gya: TRANSLATED
+Translated as 'near' from AtoE.
+ho,: TRANSLATED
+Translated as 'fire,' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+mmarima: TRANSLATED
+Translated as 'men' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+ko: TRANSLATED
+Translated as 'went' from AtoE.
+tenaa: TRANSLATED
+Translated as 'sat' from AtoE.
+pon’: TRANSLATED
+Translated as 'table' from AtoE.
+ho.: TRANSLATED
+Translated as 'side.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'And' from AtoE.
+ye’kaa: TRANSLATED
+Translated as 'we' from AtoE.
+ye’nsa: TRANSLATED
+Translated as 'touched' from AtoE.
+akyi.: TRANSLATED
+Translated as 'our‐hands' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ye’di’a,: TRANSLATED
+Translated as 'We' from AtoE.
+ye’di’a,: TRANSLATED
+Translated as 'eat,' from AtoE.
+Kwaku: TRANSLATED
+Translated as 'we' from AtoE.
+Ananse: TRANSLATED
+Translated as 'eat,' from AtoE.
+see,: TRANSLATED
+Translated as 'Kwaku' from AtoE.
+“Fufuo: TRANSLATED
+Translated as 'Ananse' from AtoE.
+yi,: TRANSLATED
+Translated as 'said,' from AtoE.
+nkyene: TRANSLATED
+Translated as '“This' from AtoE.
+nnim.”: TRANSLATED
+Translated as 'fufuo,' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+ka: TRANSLATED
+Translated as 'said' from AtoE.
+kyeree: TRANSLATED
+Translated as 'to' from AtoE.
+Aso: TRANSLATED
+Translated as 'Aso,' from AtoE.
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+“Fa: TRANSLATED
+Translated as 'some.”' from AtoE.
+bi: UNKNOWN
+No annotation available for this word.
+bra.”: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'But' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Dabi,: TRANSLATED
+Translated as '“No,' from AtoE.
+oba: TRANSLATED
+Translated as 'woman' from AtoE.
+e’didi,: TRANSLATED
+Translated as 'is' from AtoE.
+wo: TRANSLATED
+Translated as 'eating,' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+sore: TRANSLATED
+Translated as 'say' from AtoE.
+ko: TRANSLATED
+Translated as 'get‐up' from AtoE.
+fa: TRANSLATED
+Translated as 'go' from AtoE.
+nkyene: TRANSLATED
+Translated as 'bring' from AtoE.
+bra,: TRANSLATED
+Translated as 'salt,' from AtoE.
+na: TRANSLATED
+Translated as 'you' from AtoE.
+wo: TRANSLATED
+Translated as 'self' from AtoE.
+ara: TRANSLATED
+Translated as 'get‐up' from AtoE.
+sore: TRANSLATED
+Translated as 'go' from AtoE.
+ko: TRANSLATED
+Translated as 'bring' from AtoE.
+fa: TRANSLATED
+Translated as 'come.”' from AtoE.
+bra.”: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+soreye,: TRANSLATED
+Translated as 'rose,' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+£wee: TRANSLATED
+Translated as 'searched' from AtoE.
+ne: TRANSLATED
+Translated as 'his' from AtoE.
+botom’: TRANSLATED
+Translated as 'bag' from AtoE.
+na: TRANSLATED
+Translated as 'then' from AtoE.
+wasa: TRANSLATED
+Translated as 'took' from AtoE.
+afaduro: TRANSLATED
+Translated as 'purgative' from AtoE.
+de: TRANSLATED
+Translated as 'medicine' from AtoE.
+agu: TRANSLATED
+Translated as 'put' from AtoE.
+fufuo: TRANSLATED
+Translated as 'in' from AtoE.
+nom’.: TRANSLATED
+Translated as 'fufuo.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Efei: TRANSLATED
+Translated as 'Then' from AtoE.
+na: TRANSLATED
+Translated as 'he' from AtoE.
+ofree: TRANSLATED
+Translated as 'called' from AtoE.
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+“Bra: TRANSLATED
+Translated as '“Come' from AtoE.
+na: TRANSLATED
+Translated as 'for' from AtoE.
+nkyene: TRANSLATED
+Translated as 'the' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+me: TRANSLATED
+Translated as 'I' from AtoE.
+de: TRANSLATED
+Translated as 'brought.”' from AtoE.
+bi: UNKNOWN
+No annotation available for this word.
+baye.”: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+baye: TRANSLATED
+Translated as 'came,' from AtoE.
+no,: TRANSLATED
+Translated as 'Ananse' from AtoE.
+Ananse: TRANSLATED
+Translated as 'said,' from AtoE.
+see,: TRANSLATED
+Translated as '“Oh,' from AtoE.
+“O,: TRANSLATED
+Translated as 'I' from AtoE.
+me’nni: TRANSLATED
+Translated as 'not' from AtoE.
+bio,: TRANSLATED
+Translated as 'eat' from AtoE.
+mame.”: TRANSLATED
+Translated as 'more,' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+e’die,: TRANSLATED
+Translated as 'who' from AtoE.
+onnim: TRANSLATED
+Translated as 'not' from AtoE.
+ho: TRANSLATED
+Translated as 'suspect' from AtoE.
+fwe;: TRANSLATED
+Translated as 'anything,' from AtoE.
+odi’a: TRANSLATED
+Translated as 'continued' from AtoE.
+na: TRANSLATED
+Translated as 'eating,' from AtoE.
+o’die.: TRANSLATED
+Translated as 'he' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ye’didi: TRANSLATED
+Translated as 'We' from AtoE.
+wieye,: TRANSLATED
+Translated as 'finished' from AtoE.
+na: TRANSLATED
+Translated as 'eating,' from AtoE.
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+see,: TRANSLATED
+Translated as 'Akwasi' from AtoE.
+“‘Damfo,: TRANSLATED
+Translated as 'said,' from AtoE.
+na: TRANSLATED
+Translated as '“Friend,' from AtoE.
+ye’ne: TRANSLATED
+Translated as 'we' from AtoE.
+wo: TRANSLATED
+Translated as 'and' from AtoE.
+te: TRANSLATED
+Translated as 'you' from AtoE.
+ha,: TRANSLATED
+Translated as 'sit' from AtoE.
+nso: TRANSLATED
+Translated as 'here,' from AtoE.
+ye’nnim: TRANSLATED
+Translated as 'yet' from AtoE.
+wo: TRANSLATED
+Translated as 'we' from AtoE.
+din.”: TRANSLATED
+Translated as 'not' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Me: TRANSLATED
+Translated as '“My' from AtoE.
+din: TRANSLATED
+Translated as 'name' from AtoE.
+de,: TRANSLATED
+Translated as 'is' from AtoE.
+‘Sore‐ko‐di‐Aso.”: TRANSLATED
+Translated as 'Rise‐up‐and‐make‐love‐to‐Aso.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Mate,: TRANSLATED
+Translated as '“I‐have‐heard,' from AtoE.
+Aso,: TRANSLATED
+Translated as 'Aso,' from AtoE.
+w’ate: TRANSLATED
+Translated as 'you‐have‐heard' from AtoE.
+‘Barima: TRANSLATED
+Translated as 'this' from AtoE.
+yi: TRANSLATED
+Translated as 'man' from AtoE.
+din?”: TRANSLATED
+Translated as 'name?”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“E,: TRANSLATED
+Translated as '“Yes,' from AtoE.
+m’ate.”: TRANSLATED
+Translated as 'I‐have‐heard.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+soreye: TRANSLATED
+Translated as 'rose' from AtoE.
+ko: TRANSLATED
+Translated as 'went' from AtoE.
+siesiee: TRANSLATED
+Translated as 'prepared' from AtoE.
+‘dampon: TRANSLATED
+Translated as 'bedroom' from AtoE.
+bako: TRANSLATED
+Translated as 'one' from AtoE.
+kama.: TRANSLATED
+Translated as 'nicely.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Osee,: TRANSLATED
+Translated as 'He' from AtoE.
+“Sore‐ko‐di‐Aso,: TRANSLATED
+Translated as 'said,' from AtoE.
+wo: TRANSLATED
+Translated as '“Rise‐up‐and‐make‐love‐to‐Aso,' from AtoE.
+‘dampon: TRANSLATED
+Translated as 'your' from AtoE.
+ni,: TRANSLATED
+Translated as 'bedroom' from AtoE.
+ko: TRANSLATED
+Translated as 'here,' from AtoE.
+da: TRANSLATED
+Translated as 'go' from AtoE.
+ho.”: TRANSLATED
+Translated as 'sleep' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Nyankonpon: TRANSLATED
+Translated as '“Sky‐god’s' from AtoE.
+kra: TRANSLATED
+Translated as 'soul' from AtoE.
+dwareni: TRANSLATED
+Translated as 'washer' from AtoE.
+ne: TRANSLATED
+Translated as 'is' from AtoE.
+me,: TRANSLATED
+Translated as 'me,' from AtoE.
+meda: TRANSLATED
+Translated as 'I' from AtoE.
+patom’;: TRANSLATED
+Translated as 'sleep' from AtoE.
+efiri: TRANSLATED
+Translated as 'veranda,' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+eno: TRANSLATED
+Translated as 'mother' from AtoE.
+ne: TRANSLATED
+Translated as 'father' from AtoE.
+agya: TRANSLATED
+Translated as 'gave' from AtoE.
+woo: TRANSLATED
+Translated as 'birth' from AtoE.
+me,: TRANSLATED
+Translated as 'me,' from AtoE.
+me: TRANSLATED
+Translated as 'I' from AtoE.
+nnaa: TRANSLATED
+Translated as 'never' from AtoE.
+‘dampon’: TRANSLATED
+Translated as 'slept' from AtoE.
+da.”: TRANSLATED
+Translated as 'closed' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Ebe: TRANSLATED
+Translated as '“Where' from AtoE.
+na: TRANSLATED
+Translated as 'then' from AtoE.
+wo: TRANSLATED
+Translated as 'you' from AtoE.
+beda?”: TRANSLATED
+Translated as 'sleep?”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Osee,: TRANSLATED
+Translated as 'He' from AtoE.
+“Ankra: TRANSLATED
+Translated as 'said,' from AtoE.
+me: TRANSLATED
+Translated as '“If' from AtoE.
+da: TRANSLATED
+Translated as 'I' from AtoE.
+pato: TRANSLATED
+Translated as 'lie' from AtoE.
+yim’,: TRANSLATED
+Translated as 'this' from AtoE.
+nanso: TRANSLATED
+Translated as 'open' from AtoE.
+eye: TRANSLATED
+Translated as 'veranda,' from AtoE.
+sa: TRANSLATED
+Translated as 'then' from AtoE.
+a,: TRANSLATED
+Translated as 'it' from AtoE.
+na: TRANSLATED
+Translated as 'means' from AtoE.
+wo: TRANSLATED
+Translated as 'you' from AtoE.
+ne: TRANSLATED
+Translated as 'and' from AtoE.
+wo: TRANSLATED
+Translated as 'your' from AtoE.
+‘Nyame: TRANSLATED
+Translated as 'Sky‐god' from AtoE.
+aye: TRANSLATED
+Translated as 'are' from AtoE.
+pe,: TRANSLATED
+Translated as 'same,' from AtoE.
+na: TRANSLATED
+Translated as 'it' from AtoE.
+ekyere: TRANSLATED
+Translated as 'shows' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+me: TRANSLATED
+Translated as 'lie' from AtoE.
+da: TRANSLATED
+Translated as 'Sky‐god' from AtoE.
+‘Nyame: TRANSLATED
+Translated as 'open' from AtoE.
+patom’,: TRANSLATED
+Translated as 'veranda.' from AtoE.
+me: TRANSLATED
+Translated as 'I' from AtoE.
+nna: TRANSLATED
+Translated as 'never' from AtoE.
+obiara: TRANSLATED
+Translated as 'lie' from AtoE.
+patom’: TRANSLATED
+Translated as 'anyone' from AtoE.
+nnka: TRANSLATED
+Translated as 'open' from AtoE.
+ho,: TRANSLATED
+Translated as 'veranda' from AtoE.
+na: TRANSLATED
+Translated as 'except' from AtoE.
+nti: TRANSLATED
+Translated as 'Sky‐god,' from AtoE.
+‘dampon: TRANSLATED
+Translated as 'so' from AtoE.
+a: TRANSLATED
+Translated as 'closed' from AtoE.
+wo: TRANSLATED
+Translated as 'bedroom' from AtoE.
+dam’: TRANSLATED
+Translated as 'that' from AtoE.
+yi: TRANSLATED
+Translated as 'you' from AtoE.
+anim’: TRANSLATED
+Translated as 'sleep' from AtoE.
+ho: TRANSLATED
+Translated as 'front' from AtoE.
+na: TRANSLATED
+Translated as 'is' from AtoE.
+meda.”: TRANSLATED
+Translated as 'where' from AtoE.</t>
+  </si>
+  <si>
+    <t>Obarima: TRANSLATED
+Translated as 'The' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+yii: TRANSLATED
+Translated as 'took' from AtoE.
+kete: TRANSLATED
+Translated as 'mat' from AtoE.
+betoo: TRANSLATED
+Translated as 'placed' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+ho.: TRANSLATED
+Translated as 'there.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+ne: TRANSLATED
+Translated as 'and' from AtoE.
+ne: TRANSLATED
+Translated as 'his' from AtoE.
+ye’: TRANSLATED
+Translated as 'wife' from AtoE.
+ko: TRANSLATED
+Translated as 'went' from AtoE.
+daye,: TRANSLATED
+Translated as 'slept,' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+so: TRANSLATED
+Translated as 'also' from AtoE.
+daa: TRANSLATED
+Translated as 'lay' from AtoE.
+ho.: TRANSLATED
+Translated as 'there.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+daa: TRANSLATED
+Translated as 'lay' from AtoE.
+ho: TRANSLATED
+Translated as 'there' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+wato: TRANSLATED
+Translated as 'parted' from AtoE.
+anim’: TRANSLATED
+Translated as 'mouth' from AtoE.
+krokro.: TRANSLATED
+Translated as 'wide.' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+da: TRANSLATED
+Translated as 'lay' from AtoE.
+ho: TRANSLATED
+Translated as 'there' from AtoE.
+na: TRANSLATED
+Translated as 'took' from AtoE.
+ofaa: TRANSLATED
+Translated as 'his' from AtoE.
+ne: TRANSLATED
+Translated as 'sepirewa' from AtoE.
+sepirewa: TRANSLATED
+Translated as 'said:' from AtoE.
+se:: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>“Akuamoa: TRANSLATED
+Translated as '“Akuamoa' from AtoE.
+Ananse,: TRANSLATED
+Translated as 'Ananse,' from AtoE.
+nne: TRANSLATED
+Translated as 'today' from AtoE.
+ye’beye: TRANSLATED
+Translated as 'we‐will‐do' from AtoE.
+biribi: TRANSLATED
+Translated as 'something' from AtoE.
+nne.: TRANSLATED
+Translated as 'today.' from AtoE.
+Nyame: TRANSLATED
+Translated as 'Nyame' from AtoE.
+‘ni,: TRANSLATED
+Translated as 'own,' from AtoE.
+Nsia: TRANSLATED
+Translated as 'Nsia' from AtoE.
+‘ba: TRANSLATED
+Translated as 'child' from AtoE.
+Ananse,: TRANSLATED
+Translated as 'Ananse,' from AtoE.
+Nne: TRANSLATED
+Translated as 'today' from AtoE.
+ye’beye: TRANSLATED
+Translated as 'we‐will‐do' from AtoE.
+biribi: TRANSLATED
+Translated as 'something' from AtoE.
+nne.: TRANSLATED
+Translated as 'today.' from AtoE.
+Nyame: TRANSLATED
+Translated as 'Nyame' from AtoE.
+‘kradware’ni: TRANSLATED
+Translated as 'soul‐washer' from AtoE.
+Ananse,: TRANSLATED
+Translated as 'Ananse,' from AtoE.
+Nne: TRANSLATED
+Translated as 'today' from AtoE.
+mehunu: TRANSLATED
+Translated as 'I‐see' from AtoE.
+biribi.”: TRANSLATED
+Translated as 'something.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Efei: TRANSLATED
+Translated as 'Then' from AtoE.
+ogyaee: TRANSLATED
+Translated as 'he' from AtoE.
+sepirewa,: TRANSLATED
+Translated as 'stopped' from AtoE.
+na: TRANSLATED
+Translated as 'sepirewa,' from AtoE.
+ode: TRANSLATED
+Translated as 'and' from AtoE.
+too: TRANSLATED
+Translated as 'placed' from AtoE.
+ho: TRANSLATED
+Translated as 'it' from AtoE.
+na: TRANSLATED
+Translated as 'there' from AtoE.
+odaye.: TRANSLATED
+Translated as 'and' from AtoE.</t>
+  </si>
+  <si>
+    <t>Oda: TRANSLATED
+Translated as 'He' from AtoE.
+ho’a,: TRANSLATED
+Translated as 'sleeps' from AtoE.
+otee: TRANSLATED
+Translated as 'small,' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo: NOUN:Person-adjective-root
+Noun representing 'jealous one' or 'person associated with jealousy.'
+e’fre: TRANSLATED
+Translated as 'Jealous‐one' from AtoE.
+no,: TRANSLATED
+Translated as 'calling' from AtoE.
+“Agya: TRANSLATED
+Translated as 'him,' from AtoE.
+‘Barima.”: TRANSLATED
+Translated as '“Father' from AtoE.
+Dinn!: TRANSLATED
+Translated as 'man.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>“Agya: TRANSLATED
+Translated as '“Father' from AtoE.
+‘Barima.”: TRANSLATED
+Translated as 'man.”' from AtoE.
+Dinn!: TRANSLATED
+Translated as 'Silence!' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo: NOUN:Person-adjective-root
+Noun representing 'jealous one' or 'person associated with jealousy.'
+o’wu;: TRANSLATED
+Translated as 'is' from AtoE.
+aduro: TRANSLATED
+Translated as 'dying;' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+aka: TRANSLATED
+Translated as 'has' from AtoE.
+no,: TRANSLATED
+Translated as 'him,' from AtoE.
+nso: TRANSLATED
+Translated as 'yet' from AtoE.
+ofree: TRANSLATED
+Translated as 'he' from AtoE.
+“Agya: TRANSLATED
+Translated as 'calls' from AtoE.
+‘Barima.”: TRANSLATED
+Translated as '“Father' from AtoE.
+Dinn!: TRANSLATED
+Translated as 'man.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Efei: TRANSLATED
+Translated as 'Then' from AtoE.
+dee: TRANSLATED
+Translated as 'he' from AtoE.
+osee,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Sore‐ko‐di‐Aso.”: TRANSLATED
+Translated as '“Rise‐up‐and‐make‐love‐to‐Aso.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Osee,: TRANSLATED
+Translated as 'He' from AtoE.
+“M!: TRANSLATED
+Translated as 'said,' from AtoE.
+M!: TRANSLATED
+Translated as '“M!' from AtoE.
+M!”: TRANSLATED
+Translated as 'M!' from AtoE.</t>
+  </si>
+  <si>
+    <t>Osee,: TRANSLATED
+Translated as 'He' from AtoE.
+“Hyini: TRANSLATED
+Translated as 'said,' from AtoE.
+me.”: TRANSLATED
+Translated as '“Open' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+hyiniye,: TRANSLATED
+Translated as 'opened,' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+koo: TRANSLATED
+Translated as 'went' from AtoE.
+babi.: TRANSLATED
+Translated as 'somewhere.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'Then' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+sore: TRANSLATED
+Translated as 'rose' from AtoE.
+koo: TRANSLATED
+Translated as 'went' from AtoE.
+‘dan: TRANSLATED
+Translated as 'bedroom' from AtoE.
+nom’: TRANSLATED
+Translated as 'there.' from AtoE.
+ho.: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Osee,: TRANSLATED
+Translated as 'He' from AtoE.
+“Aso,: TRANSLATED
+Translated as 'said,' from AtoE.
+w’ate: TRANSLATED
+Translated as '“Aso,' from AtoE.
+dee: TRANSLATED
+Translated as 'you' from AtoE.
+wo: TRANSLATED
+Translated as 'heard' from AtoE.
+kunu: TRANSLATED
+Translated as 'what' from AtoE.
+kaye?”: TRANSLATED
+Translated as 'your' from AtoE.</t>
+  </si>
+  <si>
+    <t>Osee,: TRANSLATED
+Translated as 'She' from AtoE.
+“Osee: TRANSLATED
+Translated as 'said,' from AtoE.
+sen?”: TRANSLATED
+Translated as '“He' from AtoE.</t>
+  </si>
+  <si>
+    <t>Osee,: TRANSLATED
+Translated as 'He' from AtoE.
+“Osee: TRANSLATED
+Translated as 'said,' from AtoE.
+me: TRANSLATED
+Translated as '“He' from AtoE.
+nsore: TRANSLATED
+Translated as 'said' from AtoE.
+mmedi: TRANSLATED
+Translated as 'me' from AtoE.
+wo.”: TRANSLATED
+Translated as 'rise' from AtoE.</t>
+  </si>
+  <si>
+    <t>Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Wo: TRANSLATED
+Translated as '“You' from AtoE.
+mmoa.”: TRANSLATED
+Translated as 'are' from AtoE.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'Then' from AtoE.
+waye: TRANSLATED
+Translated as 'he' from AtoE.
+ama: TRANSLATED
+Translated as 'did' from AtoE.
+no,: TRANSLATED
+Translated as 'for' from AtoE.
+na: TRANSLATED
+Translated as 'her,' from AtoE.
+wasan: TRANSLATED
+Translated as 'then' from AtoE.
+abeda.: TRANSLATED
+Translated as 'returned' from AtoE.</t>
+  </si>
+  <si>
+    <t>Anadwo: TRANSLATED
+Translated as 'Night' from AtoE.
+no,: TRANSLATED
+Translated as 'that,' from AtoE.
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+soree: TRANSLATED
+Translated as 'rose' from AtoE.
+mpen: TRANSLATED
+Translated as 'nine' from AtoE.
+nkron;: TRANSLATED
+Translated as 'times;' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+soso: TRANSLATED
+Translated as 'also' from AtoE.
+koo: TRANSLATED
+Translated as 'went' from AtoE.
+Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+nkyen: TRANSLATED
+Translated as 'side' from AtoE.
+mpen: TRANSLATED
+Translated as 'nine' from AtoE.
+nkron.: TRANSLATED
+Translated as 'times.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Adeekyeye: TRANSLATED
+Translated as 'Early' from AtoE.
+anopa,: TRANSLATED
+Translated as 'morning,' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+siim’: TRANSLATED
+Translated as 'set' from AtoE.
+koye.: TRANSLATED
+Translated as 'out' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ebeye: TRANSLATED
+Translated as 'After' from AtoE.
+asrammienu: TRANSLATED
+Translated as 'maybe' from AtoE.
+na: TRANSLATED
+Translated as 'two' from AtoE.
+Aso: TRANSLATED
+Translated as 'months,' from AtoE.
+afu’: TRANSLATED
+Translated as 'Aso' from AtoE.
+aye: TRANSLATED
+Translated as 'belly' from AtoE.
+kakraka.: TRANSLATED
+Translated as 'has' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+bisaa: TRANSLATED
+Translated as 'asked' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+“Aden: TRANSLATED
+Translated as '“Why' from AtoE.
+na: TRANSLATED
+Translated as 'that' from AtoE.
+w’afu’: TRANSLATED
+Translated as 'your' from AtoE.
+aye: TRANSLATED
+Translated as 'belly' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+yie,: TRANSLATED
+Translated as 'so' from AtoE.
+dabere: TRANSLATED
+Translated as 'big,' from AtoE.
+wo: TRANSLATED
+Translated as 'maybe' from AtoE.
+yare,: TRANSLATED
+Translated as 'you' from AtoE.
+na: TRANSLATED
+Translated as 'sickness,' from AtoE.
+me: TRANSLATED
+Translated as 'and' from AtoE.
+a: TRANSLATED
+Translated as 'me' from AtoE.
+me: TRANSLATED
+Translated as 'who' from AtoE.
+ne: TRANSLATED
+Translated as 'with' from AtoE.
+wo: TRANSLATED
+Translated as 'you,' from AtoE.
+te: TRANSLATED
+Translated as 'I' from AtoE.
+ho,: TRANSLATED
+Translated as 'not' from AtoE.
+me: TRANSLATED
+Translated as 'have' from AtoE.
+nnwo: TRANSLATED
+Translated as 'child.”' from AtoE.
+‘ba.”: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Wo: TRANSLATED
+Translated as '“You' from AtoE.
+were: TRANSLATED
+Translated as 'forgot' from AtoE.
+afi: TRANSLATED
+Translated as 'the' from AtoE.
+obarima: TRANSLATED
+Translated as 'man' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+a: TRANSLATED
+Translated as 'came' from AtoE.
+obaa: TRANSLATED
+Translated as 'here' from AtoE.
+ha: TRANSLATED
+Translated as 'who' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+a: TRANSLATED
+Translated as 'called' from AtoE.
+wo: TRANSLATED
+Translated as '‘Rise‐up‐and‐make‐love‐to‐Aso’?' from AtoE.
+kaa: TRANSLATED
+Translated as 'He' from AtoE.
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+‘Sore‐ko‐di‐Aso’: TRANSLATED
+Translated as 'the' from AtoE.
+no,: TRANSLATED
+Translated as 'one' from AtoE.
+na: TRANSLATED
+Translated as 'who' from AtoE.
+eye: TRANSLATED
+Translated as 'took' from AtoE.
+a: TRANSLATED
+Translated as 'me' from AtoE.
+obefaa: TRANSLATED
+Translated as 'and' from AtoE.
+me: TRANSLATED
+Translated as 'made' from AtoE.
+na: TRANSLATED
+Translated as 'me' from AtoE.
+one: TRANSLATED
+Translated as 'conceive.”' from AtoE.
+me: UNKNOWN
+No annotation available for this word.
+nyem.”: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo: NOUN:Person-adjective-root
+Noun representing 'jealous one' or 'person associated with jealousy.'
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Sore: TRANSLATED
+Translated as '“Rise' from AtoE.
+ma: TRANSLATED
+Translated as 'let' from AtoE.
+me: TRANSLATED
+Translated as 'me' from AtoE.
+mfa: TRANSLATED
+Translated as 'take' from AtoE.
+wo: TRANSLATED
+Translated as 'you' from AtoE.
+nko: ADV:Adverbial
+Adverb meaning 'only' or 'solely.'
+ma: TRANSLATED
+Translated as 'to' from AtoE.
+no.”: TRANSLATED
+Translated as 'him.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ye’koo: TRANSLATED
+Translated as 'We' from AtoE.
+Nyankonpon: TRANSLATED
+Translated as 'went' from AtoE.
+kurom’.: TRANSLATED
+Translated as 'Sky‐god' from AtoE.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'On' from AtoE.
+okwanm’: TRANSLATED
+Translated as 'the' from AtoE.
+Aso: TRANSLATED
+Translated as 'road' from AtoE.
+ko: TRANSLATED
+Translated as 'Aso' from AtoE.
+woye.: TRANSLATED
+Translated as 'gave' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ye’duruu: TRANSLATED
+Translated as 'We' from AtoE.
+Nyame: TRANSLATED
+Translated as 'reached' from AtoE.
+kurom’: TRANSLATED
+Translated as 'Nyame’s' from AtoE.
+ko: TRANSLATED
+Translated as 'town' from AtoE.
+boo: TRANSLATED
+Translated as 'told' from AtoE.
+Nyame: TRANSLATED
+Translated as 'Nyame' from AtoE.
+amanee: TRANSLATED
+Translated as 'matters' from AtoE.
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+“W’akoa: TRANSLATED
+Translated as '“Your' from AtoE.
+bi: DET:Indefinite-article
+Determiner meaning 'a' or 'some.'
+a: TRANSLATED
+Translated as 'one' from AtoE.
+wo: TRANSLATED
+Translated as 'who' from AtoE.
+somaa: TRANSLATED
+Translated as 'you' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+a: TRANSLATED
+Translated as 'who' from AtoE.
+obedaa: TRANSLATED
+Translated as 'slept' from AtoE.
+me: TRANSLATED
+Translated as 'my' from AtoE.
+‘fie,: TRANSLATED
+Translated as 'house,' from AtoE.
+na: TRANSLATED
+Translated as 'he' from AtoE.
+wafa: TRANSLATED
+Translated as 'took' from AtoE.
+Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+ne: TRANSLATED
+Translated as 'and' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+anyem.”: TRANSLATED
+Translated as 'her.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Nyankonpon: TRANSLATED
+Translated as 'Sky‐god' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Me: TRANSLATED
+Translated as '“My' from AtoE.
+nkoa: TRANSLATED
+Translated as 'servants' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+nnyina: TRANSLATED
+Translated as 'roofing' from AtoE.
+e’bua: TRANSLATED
+Translated as 'huts,' from AtoE.
+‘dan,: TRANSLATED
+Translated as 'go' from AtoE.
+na: TRANSLATED
+Translated as 'show' from AtoE.
+ko: TRANSLATED
+Translated as 'man' from AtoE.
+kyere: TRANSLATED
+Translated as 'single.”' from AtoE.
+‘nipa: UNKNOWN
+No annotation available for this word.
+koro.”: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Ye’koreye,: TRANSLATED
+Translated as 'We' from AtoE.
+na: TRANSLATED
+Translated as 'went,' from AtoE.
+Ananse: TRANSLATED
+Translated as 'and' from AtoE.
+te: TRANSLATED
+Translated as 'Ananse' from AtoE.
+etire.: TRANSLATED
+Translated as 'sits' from AtoE.</t>
+  </si>
+  <si>
+    <t>Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“O’nie.”: TRANSLATED
+Translated as '“There' from AtoE.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'Then' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+adwane: TRANSLATED
+Translated as 'jumped' from AtoE.
+abetena: TRANSLATED
+Translated as 'sat' from AtoE.
+mfin‐mfini.: TRANSLATED
+Translated as 'middle.' from AtoE.</t>
+  </si>
+  <si>
+    <t>Na: TRANSLATED
+Translated as 'And' from AtoE.
+Aso: TRANSLATED
+Translated as 'Aso' from AtoE.
+akyere: TRANSLATED
+Translated as 'again' from AtoE.
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+“O’nie.”: TRANSLATED
+Translated as '“There' from AtoE.</t>
+  </si>
+  <si>
+    <t>Efei: TRANSLATED
+Translated as 'Then' from AtoE.
+dee: TRANSLATED
+Translated as 'Ananse' from AtoE.
+Ananse: TRANSLATED
+Translated as 'from' from AtoE.
+firi: TRANSLATED
+Translated as 'top' from AtoE.
+soro: TRANSLATED
+Translated as 'place' from AtoE.
+ho: TRANSLATED
+Translated as 'fell' from AtoE.
+befwee: TRANSLATED
+Translated as 'ground.' from AtoE.
+fam’.: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Eda: TRANSLATED
+Translated as 'Day' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+so,: TRANSLATED
+Translated as 'on,' from AtoE.
+eye: TRANSLATED
+Translated as 'it' from AtoE.
+Fiada.: TRANSLATED
+Translated as 'is' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+see,: TRANSLATED
+Translated as 'said,' from AtoE.
+“Me: TRANSLATED
+Translated as '“Me' from AtoE.
+dware: TRANSLATED
+Translated as 'wash' from AtoE.
+‘kra: TRANSLATED
+Translated as 'soul' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+wo: TRANSLATED
+Translated as 'you' from AtoE.
+de: TRANSLATED
+Translated as 'put' from AtoE.
+wo: TRANSLATED
+Translated as 'your' from AtoE.
+nsa: TRANSLATED
+Translated as 'hand' from AtoE.
+akyere: TRANSLATED
+Translated as 'on' from AtoE.
+me: TRANSLATED
+Translated as 'me' from AtoE.
+so,: TRANSLATED
+Translated as 'that' from AtoE.
+na: TRANSLATED
+Translated as 'I' from AtoE.
+mafwe: TRANSLATED
+Translated as 'fell' from AtoE.
+ase: TRANSLATED
+Translated as 'red' from AtoE.
+ama: TRANSLATED
+Translated as 'earth' from AtoE.
+ntwuma: TRANSLATED
+Translated as 'on' from AtoE.
+ayeye: TRANSLATED
+Translated as 'me.”' from AtoE.
+me: UNKNOWN
+No annotation available for this word.
+ho.”: UNKNOWN
+No annotation available for this word.</t>
+  </si>
+  <si>
+    <t>Seisei: TRANSLATED
+Translated as 'Then' from AtoE.
+na: TRANSLATED
+Translated as 'immediately' from AtoE.
+nhenkwa: TRANSLATED
+Translated as 'attendants' from AtoE.
+ayere: TRANSLATED
+Translated as 'seized' from AtoE.
+Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo,: TRANSLATED
+Translated as 'Jealous‐one,' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+watwa: TRANSLATED
+Translated as 'he' from AtoE.
+‘dwan.: TRANSLATED
+Translated as 'slaughtered' from AtoE.</t>
+  </si>
+  <si>
+    <t>Akwasi: PROPN:Proper-name-masculine
+Proper noun referring to a male name.
+Ninkunfuo: NOUN:Person-adjective-root
+Noun representing 'jealous one' or 'person associated with jealousy.'
+twaa: TRANSLATED
+Translated as 'slaughtered' from AtoE.
+‘dwan: TRANSLATED
+Translated as 'sheep' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+wieye,: TRANSLATED
+Translated as 'he' from AtoE.
+oka: TRANSLATED
+Translated as 'said' from AtoE.
+kyeree: TRANSLATED
+Translated as 'to' from AtoE.
+Nyame: TRANSLATED
+Translated as 'Sky‐god,' from AtoE.
+se,: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement,' with punctuation.
+“Oba: TRANSLATED
+Translated as 'this' from AtoE.
+yi: TRANSLATED
+Translated as 'is,' from AtoE.
+nie,: TRANSLATED
+Translated as 'let' from AtoE.
+Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+mfa: TRANSLATED
+Translated as 'take' from AtoE.
+no.”: TRANSLATED
+Translated as 'her.”' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ananse: TRANSLATED
+Translated as 'Ananse' from AtoE.
+faa: TRANSLATED
+Translated as 'took' from AtoE.
+Aso,: TRANSLATED
+Translated as 'Aso,' from AtoE.
+na: TRANSLATED
+Translated as 'and' from AtoE.
+akoda: TRANSLATED
+Translated as 'the' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+dee: TRANSLATED
+Translated as 'they' from AtoE.
+ye’kum: TRANSLATED
+Translated as 'killed' from AtoE.
+no: DET:Definite-article
+Determiner indicating 'the.'
+twitwaa: TRANSLATED
+Translated as 'cut' from AtoE.
+ne: TRANSLATED
+Translated as 'its' from AtoE.
+nam: TRANSLATED
+Translated as 'flesh' from AtoE.
+to: TRANSLATED
+Translated as 'scattered' from AtoE.
+peye.: TRANSLATED
+Translated as 'them' from AtoE.</t>
+  </si>
+  <si>
+    <t>Ene: TRANSLATED
+Translated as 'That' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+ninkuno: TRANSLATED
+Translated as 'how' from AtoE.
+ebeba: TRANSLATED
+Translated as 'jealousy' from AtoE.
+manm’.: TRANSLATED
+Translated as 'will' from AtoE.</t>
+  </si>
+  <si>
+    <t>M’anansesem: TRANSLATED
+Translated as 'My' from AtoE.
+a: TRANSLATED
+Translated as 'Ananse' from AtoE.
+metooye: TRANSLATED
+Translated as 'tale' from AtoE.
+yi,: TRANSLATED
+Translated as 'that' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+eye: TRANSLATED
+Translated as 'told' from AtoE.
+de: TRANSLATED
+Translated as 'this,' from AtoE.
+o,: TRANSLATED
+Translated as 'if' from AtoE.
+se: NOUN:Abstract
+Abstract noun meaning 'speech' or 'statement.'
+ennye: TRANSLATED
+Translated as 'good' from AtoE.
+de: TRANSLATED
+Translated as 'oh,' from AtoE.
+o,: TRANSLATED
+Translated as 'if' from AtoE.
+momfa: TRANSLATED
+Translated as 'it' from AtoE.
+bi: DET:Indefinite-article
+Determiner meaning 'a' or 'some.'
+nko,: TRANSLATED
+Translated as 'good' from AtoE.
+na: TRANSLATED
+Translated as 'oh,' from AtoE.
+momfa: TRANSLATED
+Translated as 'take' from AtoE.
+bi: DET:Indefinite-article
+Determiner meaning 'a' or 'some.'
+mmera.: TRANSLATED
+Translated as 'go,' from AtoE.</t>
   </si>
 </sst>
 </file>
@@ -2957,9 +4912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/Ananse1/Ananse1_Learned.xlsx
+++ b/Ananse1/Ananse1_Learned.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akan\New Ananse Tales\Ananse1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E49135-AEC3-4CAB-B8EA-860189A2884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D1387E-1E5C-43A3-BDB5-54DBE3AEB72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="7380" windowWidth="23505" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="3450" windowWidth="19980" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Learned" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -28,12 +28,6 @@
     <t>ENGLISH</t>
   </si>
   <si>
-    <t>AtoE (English words in Akan order)</t>
-  </si>
-  <si>
-    <t>EtoA (Akan words in English order)</t>
-  </si>
-  <si>
     <t>Akan POS</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>EtoA POS</t>
   </si>
   <si>
-    <t>Column 9</t>
-  </si>
-  <si>
     <t>Te’ nse se, nse se o</t>
   </si>
   <si>
@@ -2305,2244 +2296,298 @@
     <t>95 &lt;Me|PRON&gt; &lt;ananses?m|NOUN&gt; &lt;a|PART&gt; &lt;metoo|VERB&gt; &lt;yi,|PRON&gt; &lt;s?|SCONJ&gt; &lt;eye|VERB&gt; &lt;de|VERB&gt; &lt;a,|SCONJ&gt; &lt;s?|SCONJ&gt; &lt;ennye|VERB&gt; &lt;de|VERB&gt; &lt;a,|SCONJ&gt; &lt;momfa|VERB&gt; &lt;bi|DET&gt; &lt;nko,|ADV&gt; &lt;na|CONJ&gt; &lt;momfa|VERB&gt; &lt;bi|DET&gt; &lt;mmera.|VERB&gt;</t>
   </si>
   <si>
-    <t>Te’: INTJ:Interjection
-Interjection representing an exclamation or call.
-nse: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-nse: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-se: UNKNOWN
-No annotation available for this word.
-o: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>SEDIE: TRANSLATED
-Translated as 'HOW' from AtoE.
-EYOYE: TRANSLATED
-Translated as 'happen' from AtoE.
-A: TRANSLATED
-Translated as 'that' from AtoE.
-KWAKU: TRANSLATED
-Translated as 'Kwaku' from AtoE.
-ANANSE: TRANSLATED
-Translated as 'Ananse' from AtoE.
-OBENYA: TRANSLATED
-Translated as 'obtains' from AtoE.
-ASO: TRANSLATED
-Translated as 'Aso' from AtoE.
-AWADEE: TRANSLATED
-Translated as 'marriage' from AtoE.</t>
-  </si>
-  <si>
-    <t>OBARIMA: TRANSLATED
-Translated as 'A' from AtoE.
-bi: DET:Indefinite-article
-Determiner meaning 'a' or 'some.'
-na: TRANSLATED
-Translated as 'man' from AtoE.
-owoo: TRANSLATED
-Translated as 'there' from AtoE.
-ho,: TRANSLATED
-Translated as 'was' from AtoE.
-ye’free: TRANSLATED
-Translated as 'born,' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo,: TRANSLATED
-Translated as 'Akwasi' from AtoE.
-na: TRANSLATED
-Translated as 'Jealous‐one,' from AtoE.
-ne: TRANSLATED
-Translated as 'and' from AtoE.
-yere: TRANSLATED
-Translated as 'his' from AtoE.
-ne: TRANSLATED
-Translated as 'wife' from AtoE.
-Aso,: TRANSLATED
-Translated as 'is' from AtoE.
-na: TRANSLATED
-Translated as 'Aso,' from AtoE.
-ompe: TRANSLATED
-Translated as 'and' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-obi: TRANSLATED
-Translated as 'that' from AtoE.
-behuno: TRANSLATED
-Translated as 'someone' from AtoE.
-Aso,: TRANSLATED
-Translated as 'see' from AtoE.
-anase: TRANSLATED
-Translated as 'Aso,' from AtoE.
-obi: TRANSLATED
-Translated as 'or' from AtoE.
-bekasa: TRANSLATED
-Translated as 'someone' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-ho.: TRANSLATED
-Translated as 'her' from AtoE.</t>
-  </si>
-  <si>
-    <t>Nti: TRANSLATED
-Translated as 'So' from AtoE.
-oko: TRANSLATED
-Translated as 'he' from AtoE.
-kyekyeree: TRANSLATED
-Translated as 'went' from AtoE.
-akura: TRANSLATED
-Translated as 'tied' from AtoE.
-ne: TRANSLATED
-Translated as 'settlement' from AtoE.
-Aso: TRANSLATED
-Translated as 'for' from AtoE.
-tenaam’.: TRANSLATED
-Translated as 'Aso' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akura: NOUN:Concrete
-Concrete noun meaning 'village' or 'settlement.'
-no: DET:Definite-article
-Determiner indicating 'the.'
-ase: TRANSLATED
-Translated as 'under' from AtoE.
-obiara: TRANSLATED
-Translated as 'nobody' from AtoE.
-nko: ADV:Adverbial
-Adverb meaning 'only' or 'solely.'
-ho.: TRANSLATED
-Translated as 'there.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ono: TRANSLATED
-Translated as 'He' from AtoE.
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo: NOUN:Person-adjective-root
-Noun representing 'jealous one' or 'person associated with jealousy.'
-no: DET:Definite-article
-Determiner indicating 'the.'
-ye: VERB:Present-tense
-Verb meaning 'is' in the present tense.
-okerawa.: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Sa: TRANSLATED
-Translated as 'Because' from AtoE.
-nti: TRANSLATED
-Translated as 'of' from AtoE.
-onim: TRANSLATED
-Translated as 'that' from AtoE.
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-one: TRANSLATED
-Translated as 'if' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-tena: TRANSLATED
-Translated as 'and' from AtoE.
-kurom’: TRANSLATED
-Translated as 'her' from AtoE.
-a,: TRANSLATED
-Translated as 'live' from AtoE.
-obi: TRANSLATED
-Translated as 'town' from AtoE.
-befa: TRANSLATED
-Translated as 'inside,' from AtoE.
-no.: TRANSLATED
-Translated as 'someone' from AtoE.</t>
-  </si>
-  <si>
-    <t>Nyankonpon: TRANSLATED
-Translated as 'Sky‐god' from AtoE.
-ka: TRANSLATED
-Translated as 'said' from AtoE.
-kyeree: TRANSLATED
-Translated as 'told' from AtoE.
-mmerantee: TRANSLATED
-Translated as 'young‐men' from AtoE.
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-“Akwasi: TRANSLATED
-Translated as '“Akwasi' from AtoE.
-Ninkunfuo: NOUN:Person-adjective-root
-Noun representing 'jealous one' or 'person associated with jealousy.'
-aware: TRANSLATED
-Translated as 'marry' from AtoE.
-Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-da‐da‐da;: TRANSLATED
-Translated as 'very‐long‐ago;' from AtoE.
-one: TRANSLATED
-Translated as 'she' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-nnwo: TRANSLATED
-Translated as 'child,' from AtoE.
-‘ba,: TRANSLATED
-Translated as 'so' from AtoE.
-nti: TRANSLATED
-Translated as 'whoever' from AtoE.
-dee: TRANSLATED
-Translated as 'can' from AtoE.
-obetimi: TRANSLATED
-Translated as 'go' from AtoE.
-ako: TRANSLATED
-Translated as 'take' from AtoE.
-fa: TRANSLATED
-Translated as 'Aso' from AtoE.
-Aso: TRANSLATED
-Translated as 'make' from AtoE.
-ne: TRANSLATED
-Translated as 'her' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-anyinsen,: TRANSLATED
-Translated as 'let' from AtoE.
-omfa: TRANSLATED
-Translated as 'him' from AtoE.
-no.”: TRANSLATED
-Translated as 'take' from AtoE.</t>
-  </si>
-  <si>
-    <t>Mmerantee: TRANSLATED
-Translated as 'The' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-nnyina: TRANSLATED
-Translated as 'all' from AtoE.
-boo: TRANSLATED
-Translated as 'tried' from AtoE.
-mmoden: TRANSLATED
-Translated as 'effort' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-ye’nsa: TRANSLATED
-Translated as 'our‐hands' from AtoE.
-beka: TRANSLATED
-Translated as 'catch' from AtoE.
-no,: TRANSLATED
-Translated as 'her,' from AtoE.
-nanso: TRANSLATED
-Translated as 'but' from AtoE.
-obiara: TRANSLATED
-Translated as 'nobody' from AtoE.
-antimi.: TRANSLATED
-Translated as 'could.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Kwaku: TRANSLATED
-Translated as 'Kwaku' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-wo: TRANSLATED
-Translated as 'was' from AtoE.
-ho’a,: TRANSLATED
-Translated as 'there,' from AtoE.
-osee,: TRANSLATED
-Translated as 'he' from AtoE.
-“Me‐timi: TRANSLATED
-Translated as 'said,' from AtoE.
-m’ako: TRANSLATED
-Translated as '“I‐able' from AtoE.
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo: NOUN:Person-adjective-root
-Noun representing 'jealous one' or 'person associated with jealousy.'
-kurom’.”: TRANSLATED
-Translated as 'Jealous‐one' from AtoE.</t>
-  </si>
-  <si>
-    <t>‘Nyame: TRANSLATED
-Translated as 'Sky‐god' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Ampa’ra,: TRANSLATED
-Translated as '“Truly,' from AtoE.
-wo: TRANSLATED
-Translated as 'you' from AtoE.
-be‐timi?”: TRANSLATED
-Translated as 'can?”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Dee: TRANSLATED
-Translated as '“Thing' from AtoE.
-me: TRANSLATED
-Translated as 'I' from AtoE.
-fwefwe,: TRANSLATED
-Translated as 'search,' from AtoE.
-wo: TRANSLATED
-Translated as 'you' from AtoE.
-de: TRANSLATED
-Translated as 'must' from AtoE.
-bema: TRANSLATED
-Translated as 'give' from AtoE.
-me: TRANSLATED
-Translated as 'me' from AtoE.
-dee: TRANSLATED
-Translated as 'that' from AtoE.
-a.”: TRANSLATED
-Translated as 'thing.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>‘Nyame: TRANSLATED
-Translated as 'Sky‐god' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Deeben?”: TRANSLATED
-Translated as '“What?”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Osee,: TRANSLATED
-Translated as 'He' from AtoE.
-“Atuduro: TRANSLATED
-Translated as 'said,' from AtoE.
-ne: TRANSLATED
-Translated as '“Gun‐powder' from AtoE.
-aboo.”: TRANSLATED
-Translated as 'and' from AtoE.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'And' from AtoE.
-‘Nyame: TRANSLATED
-Translated as 'Sky‐god' from AtoE.
-de: TRANSLATED
-Translated as 'gave' from AtoE.
-maa: TRANSLATED
-Translated as 'to' from AtoE.
-no.: TRANSLATED
-Translated as 'him.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'And' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-faa: TRANSLATED
-Translated as 'took' from AtoE.
-atuduro: TRANSLATED
-Translated as 'gun‐powder' from AtoE.
-ne: TRANSLATED
-Translated as 'and' from AtoE.
-aboo: TRANSLATED
-Translated as 'bullets' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-koo: TRANSLATED
-Translated as 'went' from AtoE.
-nkura’se: TRANSLATED
-Translated as 'small‐villages' from AtoE.
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-“Nyankonpon: TRANSLATED
-Translated as '“Sky‐god' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-me: TRANSLATED
-Translated as 'I' from AtoE.
-mfa: TRANSLATED
-Translated as 'bring' from AtoE.
-atuduro: TRANSLATED
-Translated as 'gun‐powder' from AtoE.
-ne: TRANSLATED
-Translated as 'and' from AtoE.
-aboo: TRANSLATED
-Translated as 'bullets' from AtoE.
-yi: TRANSLATED
-Translated as 'these' from AtoE.
-mmere: TRANSLATED
-Translated as 'to' from AtoE.
-mo,: TRANSLATED
-Translated as 'you,' from AtoE.
-mma: TRANSLATED
-Translated as 'that' from AtoE.
-mo: TRANSLATED
-Translated as 'you' from AtoE.
-nkum: TRANSLATED
-Translated as 'kill' from AtoE.
-nam,: TRANSLATED
-Translated as 'meat,' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-eda: TRANSLATED
-Translated as 'day' from AtoE.
-a: TRANSLATED
-Translated as 'that' from AtoE.
-meba: TRANSLATED
-Translated as 'I' from AtoE.
-ha,: TRANSLATED
-Translated as 'come' from AtoE.
-mabegye: TRANSLATED
-Translated as 'here,' from AtoE.
-mako.”: TRANSLATED
-Translated as 'I‐will‐take' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ode: TRANSLATED
-Translated as 'He' from AtoE.
-atuduro: TRANSLATED
-Translated as 'gave' from AtoE.
-ne: TRANSLATED
-Translated as 'gun‐powder' from AtoE.
-aboo: TRANSLATED
-Translated as 'and' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-maa: TRANSLATED
-Translated as 'to' from AtoE.
-nkura: TRANSLATED
-Translated as 'many' from AtoE.
-bebre: TRANSLATED
-Translated as 'small‐villages' from AtoE.
-maa: TRANSLATED
-Translated as 'till' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-saye.: TRANSLATED
-Translated as 'finished.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Nkrofuo: TRANSLATED
-Translated as 'People' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-nnyina: TRANSLATED
-Translated as 'got' from AtoE.
-nyaa: TRANSLATED
-Translated as 'some' from AtoE.
-nam: TRANSLATED
-Translated as 'meat.' from AtoE.
-no: UNKNOWN
-No annotation available for this word.
-bi.: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Dakoro: TRANSLATED
-Translated as 'One' from AtoE.
-bi: DET:Indefinite-article
-Determiner meaning 'a' or 'some.'
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-ko: TRANSLATED
-Translated as 'went' from AtoE.
-boo: TRANSLATED
-Translated as 'took' from AtoE.
-bede,: TRANSLATED
-Translated as 'palm‐leaf' from AtoE.
-Ne: TRANSLATED
-Translated as 'basket,' from AtoE.
-tenten: TRANSLATED
-Translated as 'Its' from AtoE.
-beye: TRANSLATED
-Translated as 'length' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-eha: TRANSLATED
-Translated as 'from' from AtoE.
-yi: TRANSLATED
-Translated as 'here' from AtoE.
-ne: TRANSLATED
-Translated as 'to' from AtoE.
-do.: TRANSLATED
-Translated as 'there.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-de: TRANSLATED
-Translated as 'took' from AtoE.
-koo: TRANSLATED
-Translated as 'it' from AtoE.
-nkura: TRANSLATED
-Translated as 'went' from AtoE.
-a: TRANSLATED
-Translated as 'the' from AtoE.
-wama: TRANSLATED
-Translated as 'villages' from AtoE.
-yen: TRANSLATED
-Translated as 'he' from AtoE.
-atuduro: TRANSLATED
-Translated as 'gave' from AtoE.
-ne: TRANSLATED
-Translated as 'them' from AtoE.
-aboo: TRANSLATED
-Translated as 'gun‐powder' from AtoE.
-ho: TRANSLATED
-Translated as 'and' from AtoE.
-ko: TRANSLATED
-Translated as 'bullets,' from AtoE.
-gyee: TRANSLATED
-Translated as 'went' from AtoE.
-nam: TRANSLATED
-Translated as 'collected' from AtoE.
-a: TRANSLATED
-Translated as 'meat' from AtoE.
-y’akum: TRANSLATED
-Translated as 'they' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-nnyina.: TRANSLATED
-Translated as 'killed' from AtoE.</t>
-  </si>
-  <si>
-    <t>Agya: TRANSLATED
-Translated as 'Father' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-faa: TRANSLATED
-Translated as 'took' from AtoE.
-nam: TRANSLATED
-Translated as 'that' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-ne: TRANSLATED
-Translated as 'with' from AtoE.
-bede: TRANSLATED
-Translated as 'the' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-soaye,: TRANSLATED
-Translated as 'set' from AtoE.
-na: TRANSLATED
-Translated as 'out,' from AtoE.
-osii: TRANSLATED
-Translated as 'and' from AtoE.
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo: NOUN:Person-adjective-root
-Noun representing 'jealous one' or 'person associated with jealousy.'
-akura: TRANSLATED
-Translated as 'Akwasi' from AtoE.
-‘kwan: TRANSLATED
-Translated as 'Jealous‐one' from AtoE.
-so.: TRANSLATED
-Translated as 'settlement' from AtoE.</t>
-  </si>
-  <si>
-    <t>Oduruu: TRANSLATED
-Translated as 'He' from AtoE.
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-ne: TRANSLATED
-Translated as 'Akwasi' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-ye’: TRANSLATED
-Translated as 'that' from AtoE.
-asuo: TRANSLATED
-Translated as 'woman' from AtoE.
-a: TRANSLATED
-Translated as 'place' from AtoE.
-ye’nom: TRANSLATED
-Translated as 'water' from AtoE.
-mu,: TRANSLATED
-Translated as 'they' from AtoE.
-na: TRANSLATED
-Translated as 'drink' from AtoE.
-wayi: TRANSLATED
-Translated as 'inside,' from AtoE.
-nam: TRANSLATED
-Translated as 'and' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-bi: DET:Indefinite-article
-Determiner meaning 'a' or 'some.'
-agum’.: TRANSLATED
-Translated as 'some' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-boo: TRANSLATED
-Translated as 'tried' from AtoE.
-mmoden: TRANSLATED
-Translated as 'put' from AtoE.
-de: TRANSLATED
-Translated as 'the' from AtoE.
-bede: TRANSLATED
-Translated as 'basket' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-wuraa: TRANSLATED
-Translated as 'Akwasi' from AtoE.
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo: NOUN:Person-adjective-root
-Noun representing 'jealous one' or 'person associated with jealousy.'
-ntwonom’.: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'And' from AtoE.
-Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-hunoo: TRANSLATED
-Translated as 'saw' from AtoE.
-no.: TRANSLATED
-Translated as 'him.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Osee,: TRANSLATED
-Translated as 'She' from AtoE.
-“Akwasi: TRANSLATED
-Translated as 'said,' from AtoE.
-e,: TRANSLATED
-Translated as '“Akwasi' from AtoE.
-bra: TRANSLATED
-Translated as 'eh,' from AtoE.
-befwa: TRANSLATED
-Translated as 'come' from AtoE.
-biribi: TRANSLATED
-Translated as 'see' from AtoE.
-a: TRANSLATED
-Translated as 'something' from AtoE.
-e’ba: TRANSLATED
-Translated as 'that' from AtoE.
-‘fie: TRANSLATED
-Translated as 'is' from AtoE.
-ha,: TRANSLATED
-Translated as 'coming' from AtoE.
-na: TRANSLATED
-Translated as 'house' from AtoE.
-aden?”: TRANSLATED
-Translated as 'here,' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Nyankonpon: TRANSLATED
-Translated as '“Sky‐god' from AtoE.
-na: TRANSLATED
-Translated as 'who' from AtoE.
-o’soma: TRANSLATED
-Translated as 'sends' from AtoE.
-me,: TRANSLATED
-Translated as 'me,' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-mabere,: TRANSLATED
-Translated as 'I’m' from AtoE.
-na: TRANSLATED
-Translated as 'tired,' from AtoE.
-me’beda: TRANSLATED
-Translated as 'and' from AtoE.
-ha.”: TRANSLATED
-Translated as 'I' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo: NOUN:Person-adjective-root
-Noun representing 'jealous one' or 'person associated with jealousy.'
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“M’ate,: TRANSLATED
-Translated as '“I‐have‐heard,' from AtoE.
-me: TRANSLATED
-Translated as 'my' from AtoE.
-wura: TRANSLATED
-Translated as 'Lord’s' from AtoE.
-akoa.”: TRANSLATED
-Translated as 'servant.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-ka: TRANSLATED
-Translated as 'said' from AtoE.
-kyeree: TRANSLATED
-Translated as 'told' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-“Agya: TRANSLATED
-Translated as '“Father' from AtoE.
-‘barima,: TRANSLATED
-Translated as 'man,' from AtoE.
-wo: TRANSLATED
-Translated as 'your' from AtoE.
-nam: TRANSLATED
-Translated as 'meat' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-bi: DET:Indefinite-article
-Determiner meaning 'a' or 'some.'
-na: TRANSLATED
-Translated as 'parted' from AtoE.
-afiri: TRANSLATED
-Translated as 'dropped' from AtoE.
-ato: TRANSLATED
-Translated as 'water‐jar.”' from AtoE.
-ntwonom’: UNKNOWN
-No annotation available for this word.
-no.”: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“O,: TRANSLATED
-Translated as '“Oh,' from AtoE.
-wo: TRANSLATED
-Translated as 'if' from AtoE.
-wo: TRANSLATED
-Translated as 'you' from AtoE.
-‘kraman: TRANSLATED
-Translated as 'have' from AtoE.
-bi: DET:Indefinite-article
-Determiner meaning 'a' or 'some.'
-a,: TRANSLATED
-Translated as 'let' from AtoE.
-ma: TRANSLATED
-Translated as 'it' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-nko: ADV:Adverbial
-Adverb meaning 'only' or 'solely.'
-fa: TRANSLATED
-Translated as 'chew.”' from AtoE.
-nwe.”: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'And' from AtoE.
-Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-ko: TRANSLATED
-Translated as 'went' from AtoE.
-faye: TRANSLATED
-Translated as 'took' from AtoE.
-de: TRANSLATED
-Translated as 'it,' from AtoE.
-ko: TRANSLATED
-Translated as 'gave' from AtoE.
-maa: TRANSLATED
-Translated as 'it' from AtoE.
-okunu.: TRANSLATED
-Translated as 'to' from AtoE.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'Then' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Eno,: TRANSLATED
-Translated as '“Mother,' from AtoE.
-fa: TRANSLATED
-Translated as 'put' from AtoE.
-aduane: TRANSLATED
-Translated as 'food' from AtoE.
-si: TRANSLATED
-Translated as 'on' from AtoE.
-me: TRANSLATED
-Translated as 'for' from AtoE.
-so.”: TRANSLATED
-Translated as 'me.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-de: TRANSLATED
-Translated as 'put' from AtoE.
-bi: DET:Indefinite-article
-Determiner meaning 'a' or 'some.'
-sii: TRANSLATED
-Translated as 'and' from AtoE.
-so,: TRANSLATED
-Translated as 'Ananse' from AtoE.
-na: TRANSLATED
-Translated as 'said,' from AtoE.
-Ananse: TRANSLATED
-Translated as '“Mother,' from AtoE.
-see,: TRANSLATED
-Translated as 'is' from AtoE.
-“Eno,: TRANSLATED
-Translated as 'it' from AtoE.
-na: TRANSLATED
-Translated as 'fufuo' from AtoE.
-fufuo: TRANSLATED
-Translated as 'that' from AtoE.
-na: TRANSLATED
-Translated as 'you' from AtoE.
-wo’noa,: TRANSLATED
-Translated as 'cook,' from AtoE.
-anase: TRANSLATED
-Translated as 'or' from AtoE.
-eto?”: TRANSLATED
-Translated as 'eto?”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Fufuo.”: TRANSLATED
-Translated as '“Fufuo.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Enee: TRANSLATED
-Translated as '“Then' from AtoE.
-esua;: TRANSLATED
-Translated as 'it’s' from AtoE.
-kofa: TRANSLATED
-Translated as 'small;' from AtoE.
-kukuo: TRANSLATED
-Translated as 'go' from AtoE.
-kesie.”: TRANSLATED
-Translated as 'bring' from AtoE.</t>
-  </si>
-  <si>
-    <t>Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-ko: TRANSLATED
-Translated as 'went' from AtoE.
-faa: TRANSLATED
-Translated as 'took' from AtoE.
-kesie,: TRANSLATED
-Translated as 'big,' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Bra: TRANSLATED
-Translated as '“Come' from AtoE.
-begye: TRANSLATED
-Translated as 'take' from AtoE.
-nam.”: TRANSLATED
-Translated as 'meat.”' from AtoE.
-Enee: TRANSLATED
-Translated as 'There' from AtoE.
-mmoa: TRANSLATED
-Translated as 'huge' from AtoE.
-akesie: TRANSLATED
-Translated as 'animals' from AtoE.
-‘sere: TRANSLATED
-Translated as 'hind‐quarters' from AtoE.
-aduanan.: TRANSLATED
-Translated as 'forty.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Osee,: TRANSLATED
-Translated as 'He' from AtoE.
-“Fa: TRANSLATED
-Translated as 'said,' from AtoE.
-‘yiara: TRANSLATED
-Translated as '“Take' from AtoE.
-ko: TRANSLATED
-Translated as 'these' from AtoE.
-gum’,: TRANSLATED
-Translated as 'only' from AtoE.
-na: TRANSLATED
-Translated as 'put' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-wo: TRANSLATED
-Translated as 'and' from AtoE.
-wo: TRANSLATED
-Translated as 'if' from AtoE.
-kukuo: TRANSLATED
-Translated as 'you' from AtoE.
-kesie: TRANSLATED
-Translated as 'had' from AtoE.
-a,: TRANSLATED
-Translated as 'pot' from AtoE.
-ankra: TRANSLATED
-Translated as 'big,' from AtoE.
-mema: TRANSLATED
-Translated as 'then' from AtoE.
-wo: TRANSLATED
-Translated as 'I' from AtoE.
-awe: TRANSLATED
-Translated as 'give' from AtoE.
-nam: TRANSLATED
-Translated as 'you' from AtoE.
-ama: TRANSLATED
-Translated as 'chew' from AtoE.
-wo: TRANSLATED
-Translated as 'meat' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-atutu.”: TRANSLATED
-Translated as 'your' from AtoE.</t>
-  </si>
-  <si>
-    <t>Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-wiee: TRANSLATED
-Translated as 'finished' from AtoE.
-aduane: TRANSLATED
-Translated as 'the' from AtoE.
-no,: TRANSLATED
-Translated as 'food,' from AtoE.
-guu: TRANSLATED
-Translated as 'poured' from AtoE.
-so,: TRANSLATED
-Translated as 'it' from AtoE.
-de: TRANSLATED
-Translated as 'out,' from AtoE.
-ko: TRANSLATED
-Translated as 'put' from AtoE.
-sii: TRANSLATED
-Translated as 'on' from AtoE.
-pon’: TRANSLATED
-Translated as 'table,' from AtoE.
-so,: TRANSLATED
-Translated as 'poured' from AtoE.
-sa: TRANSLATED
-Translated as 'water' from AtoE.
-nsuo: TRANSLATED
-Translated as 'placed' from AtoE.
-sii: TRANSLATED
-Translated as 'there.' from AtoE.
-ho.: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'And' from AtoE.
-Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-de: TRANSLATED
-Translated as 'took' from AtoE.
-ne: TRANSLATED
-Translated as 'her' from AtoE.
-dee: TRANSLATED
-Translated as 'portion' from AtoE.
-koo: TRANSLATED
-Translated as 'went' from AtoE.
-‘gya: TRANSLATED
-Translated as 'near' from AtoE.
-ho,: TRANSLATED
-Translated as 'fire,' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-mmarima: TRANSLATED
-Translated as 'men' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-ko: TRANSLATED
-Translated as 'went' from AtoE.
-tenaa: TRANSLATED
-Translated as 'sat' from AtoE.
-pon’: TRANSLATED
-Translated as 'table' from AtoE.
-ho.: TRANSLATED
-Translated as 'side.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'And' from AtoE.
-ye’kaa: TRANSLATED
-Translated as 'we' from AtoE.
-ye’nsa: TRANSLATED
-Translated as 'touched' from AtoE.
-akyi.: TRANSLATED
-Translated as 'our‐hands' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ye’di’a,: TRANSLATED
-Translated as 'We' from AtoE.
-ye’di’a,: TRANSLATED
-Translated as 'eat,' from AtoE.
-Kwaku: TRANSLATED
-Translated as 'we' from AtoE.
-Ananse: TRANSLATED
-Translated as 'eat,' from AtoE.
-see,: TRANSLATED
-Translated as 'Kwaku' from AtoE.
-“Fufuo: TRANSLATED
-Translated as 'Ananse' from AtoE.
-yi,: TRANSLATED
-Translated as 'said,' from AtoE.
-nkyene: TRANSLATED
-Translated as '“This' from AtoE.
-nnim.”: TRANSLATED
-Translated as 'fufuo,' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-ka: TRANSLATED
-Translated as 'said' from AtoE.
-kyeree: TRANSLATED
-Translated as 'to' from AtoE.
-Aso: TRANSLATED
-Translated as 'Aso,' from AtoE.
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-“Fa: TRANSLATED
-Translated as 'some.”' from AtoE.
-bi: UNKNOWN
-No annotation available for this word.
-bra.”: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'But' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Dabi,: TRANSLATED
-Translated as '“No,' from AtoE.
-oba: TRANSLATED
-Translated as 'woman' from AtoE.
-e’didi,: TRANSLATED
-Translated as 'is' from AtoE.
-wo: TRANSLATED
-Translated as 'eating,' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-sore: TRANSLATED
-Translated as 'say' from AtoE.
-ko: TRANSLATED
-Translated as 'get‐up' from AtoE.
-fa: TRANSLATED
-Translated as 'go' from AtoE.
-nkyene: TRANSLATED
-Translated as 'bring' from AtoE.
-bra,: TRANSLATED
-Translated as 'salt,' from AtoE.
-na: TRANSLATED
-Translated as 'you' from AtoE.
-wo: TRANSLATED
-Translated as 'self' from AtoE.
-ara: TRANSLATED
-Translated as 'get‐up' from AtoE.
-sore: TRANSLATED
-Translated as 'go' from AtoE.
-ko: TRANSLATED
-Translated as 'bring' from AtoE.
-fa: TRANSLATED
-Translated as 'come.”' from AtoE.
-bra.”: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-soreye,: TRANSLATED
-Translated as 'rose,' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-£wee: TRANSLATED
-Translated as 'searched' from AtoE.
-ne: TRANSLATED
-Translated as 'his' from AtoE.
-botom’: TRANSLATED
-Translated as 'bag' from AtoE.
-na: TRANSLATED
-Translated as 'then' from AtoE.
-wasa: TRANSLATED
-Translated as 'took' from AtoE.
-afaduro: TRANSLATED
-Translated as 'purgative' from AtoE.
-de: TRANSLATED
-Translated as 'medicine' from AtoE.
-agu: TRANSLATED
-Translated as 'put' from AtoE.
-fufuo: TRANSLATED
-Translated as 'in' from AtoE.
-nom’.: TRANSLATED
-Translated as 'fufuo.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Efei: TRANSLATED
-Translated as 'Then' from AtoE.
-na: TRANSLATED
-Translated as 'he' from AtoE.
-ofree: TRANSLATED
-Translated as 'called' from AtoE.
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-“Bra: TRANSLATED
-Translated as '“Come' from AtoE.
-na: TRANSLATED
-Translated as 'for' from AtoE.
-nkyene: TRANSLATED
-Translated as 'the' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-me: TRANSLATED
-Translated as 'I' from AtoE.
-de: TRANSLATED
-Translated as 'brought.”' from AtoE.
-bi: UNKNOWN
-No annotation available for this word.
-baye.”: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-baye: TRANSLATED
-Translated as 'came,' from AtoE.
-no,: TRANSLATED
-Translated as 'Ananse' from AtoE.
-Ananse: TRANSLATED
-Translated as 'said,' from AtoE.
-see,: TRANSLATED
-Translated as '“Oh,' from AtoE.
-“O,: TRANSLATED
-Translated as 'I' from AtoE.
-me’nni: TRANSLATED
-Translated as 'not' from AtoE.
-bio,: TRANSLATED
-Translated as 'eat' from AtoE.
-mame.”: TRANSLATED
-Translated as 'more,' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-e’die,: TRANSLATED
-Translated as 'who' from AtoE.
-onnim: TRANSLATED
-Translated as 'not' from AtoE.
-ho: TRANSLATED
-Translated as 'suspect' from AtoE.
-fwe;: TRANSLATED
-Translated as 'anything,' from AtoE.
-odi’a: TRANSLATED
-Translated as 'continued' from AtoE.
-na: TRANSLATED
-Translated as 'eating,' from AtoE.
-o’die.: TRANSLATED
-Translated as 'he' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ye’didi: TRANSLATED
-Translated as 'We' from AtoE.
-wieye,: TRANSLATED
-Translated as 'finished' from AtoE.
-na: TRANSLATED
-Translated as 'eating,' from AtoE.
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-see,: TRANSLATED
-Translated as 'Akwasi' from AtoE.
-“‘Damfo,: TRANSLATED
-Translated as 'said,' from AtoE.
-na: TRANSLATED
-Translated as '“Friend,' from AtoE.
-ye’ne: TRANSLATED
-Translated as 'we' from AtoE.
-wo: TRANSLATED
-Translated as 'and' from AtoE.
-te: TRANSLATED
-Translated as 'you' from AtoE.
-ha,: TRANSLATED
-Translated as 'sit' from AtoE.
-nso: TRANSLATED
-Translated as 'here,' from AtoE.
-ye’nnim: TRANSLATED
-Translated as 'yet' from AtoE.
-wo: TRANSLATED
-Translated as 'we' from AtoE.
-din.”: TRANSLATED
-Translated as 'not' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Me: TRANSLATED
-Translated as '“My' from AtoE.
-din: TRANSLATED
-Translated as 'name' from AtoE.
-de,: TRANSLATED
-Translated as 'is' from AtoE.
-‘Sore‐ko‐di‐Aso.”: TRANSLATED
-Translated as 'Rise‐up‐and‐make‐love‐to‐Aso.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Mate,: TRANSLATED
-Translated as '“I‐have‐heard,' from AtoE.
-Aso,: TRANSLATED
-Translated as 'Aso,' from AtoE.
-w’ate: TRANSLATED
-Translated as 'you‐have‐heard' from AtoE.
-‘Barima: TRANSLATED
-Translated as 'this' from AtoE.
-yi: TRANSLATED
-Translated as 'man' from AtoE.
-din?”: TRANSLATED
-Translated as 'name?”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“E,: TRANSLATED
-Translated as '“Yes,' from AtoE.
-m’ate.”: TRANSLATED
-Translated as 'I‐have‐heard.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-soreye: TRANSLATED
-Translated as 'rose' from AtoE.
-ko: TRANSLATED
-Translated as 'went' from AtoE.
-siesiee: TRANSLATED
-Translated as 'prepared' from AtoE.
-‘dampon: TRANSLATED
-Translated as 'bedroom' from AtoE.
-bako: TRANSLATED
-Translated as 'one' from AtoE.
-kama.: TRANSLATED
-Translated as 'nicely.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Osee,: TRANSLATED
-Translated as 'He' from AtoE.
-“Sore‐ko‐di‐Aso,: TRANSLATED
-Translated as 'said,' from AtoE.
-wo: TRANSLATED
-Translated as '“Rise‐up‐and‐make‐love‐to‐Aso,' from AtoE.
-‘dampon: TRANSLATED
-Translated as 'your' from AtoE.
-ni,: TRANSLATED
-Translated as 'bedroom' from AtoE.
-ko: TRANSLATED
-Translated as 'here,' from AtoE.
-da: TRANSLATED
-Translated as 'go' from AtoE.
-ho.”: TRANSLATED
-Translated as 'sleep' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Nyankonpon: TRANSLATED
-Translated as '“Sky‐god’s' from AtoE.
-kra: TRANSLATED
-Translated as 'soul' from AtoE.
-dwareni: TRANSLATED
-Translated as 'washer' from AtoE.
-ne: TRANSLATED
-Translated as 'is' from AtoE.
-me,: TRANSLATED
-Translated as 'me,' from AtoE.
-meda: TRANSLATED
-Translated as 'I' from AtoE.
-patom’;: TRANSLATED
-Translated as 'sleep' from AtoE.
-efiri: TRANSLATED
-Translated as 'veranda,' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-eno: TRANSLATED
-Translated as 'mother' from AtoE.
-ne: TRANSLATED
-Translated as 'father' from AtoE.
-agya: TRANSLATED
-Translated as 'gave' from AtoE.
-woo: TRANSLATED
-Translated as 'birth' from AtoE.
-me,: TRANSLATED
-Translated as 'me,' from AtoE.
-me: TRANSLATED
-Translated as 'I' from AtoE.
-nnaa: TRANSLATED
-Translated as 'never' from AtoE.
-‘dampon’: TRANSLATED
-Translated as 'slept' from AtoE.
-da.”: TRANSLATED
-Translated as 'closed' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Ebe: TRANSLATED
-Translated as '“Where' from AtoE.
-na: TRANSLATED
-Translated as 'then' from AtoE.
-wo: TRANSLATED
-Translated as 'you' from AtoE.
-beda?”: TRANSLATED
-Translated as 'sleep?”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Osee,: TRANSLATED
-Translated as 'He' from AtoE.
-“Ankra: TRANSLATED
-Translated as 'said,' from AtoE.
-me: TRANSLATED
-Translated as '“If' from AtoE.
-da: TRANSLATED
-Translated as 'I' from AtoE.
-pato: TRANSLATED
-Translated as 'lie' from AtoE.
-yim’,: TRANSLATED
-Translated as 'this' from AtoE.
-nanso: TRANSLATED
-Translated as 'open' from AtoE.
-eye: TRANSLATED
-Translated as 'veranda,' from AtoE.
-sa: TRANSLATED
-Translated as 'then' from AtoE.
-a,: TRANSLATED
-Translated as 'it' from AtoE.
-na: TRANSLATED
-Translated as 'means' from AtoE.
-wo: TRANSLATED
-Translated as 'you' from AtoE.
-ne: TRANSLATED
-Translated as 'and' from AtoE.
-wo: TRANSLATED
-Translated as 'your' from AtoE.
-‘Nyame: TRANSLATED
-Translated as 'Sky‐god' from AtoE.
-aye: TRANSLATED
-Translated as 'are' from AtoE.
-pe,: TRANSLATED
-Translated as 'same,' from AtoE.
-na: TRANSLATED
-Translated as 'it' from AtoE.
-ekyere: TRANSLATED
-Translated as 'shows' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-me: TRANSLATED
-Translated as 'lie' from AtoE.
-da: TRANSLATED
-Translated as 'Sky‐god' from AtoE.
-‘Nyame: TRANSLATED
-Translated as 'open' from AtoE.
-patom’,: TRANSLATED
-Translated as 'veranda.' from AtoE.
-me: TRANSLATED
-Translated as 'I' from AtoE.
-nna: TRANSLATED
-Translated as 'never' from AtoE.
-obiara: TRANSLATED
-Translated as 'lie' from AtoE.
-patom’: TRANSLATED
-Translated as 'anyone' from AtoE.
-nnka: TRANSLATED
-Translated as 'open' from AtoE.
-ho,: TRANSLATED
-Translated as 'veranda' from AtoE.
-na: TRANSLATED
-Translated as 'except' from AtoE.
-nti: TRANSLATED
-Translated as 'Sky‐god,' from AtoE.
-‘dampon: TRANSLATED
-Translated as 'so' from AtoE.
-a: TRANSLATED
-Translated as 'closed' from AtoE.
-wo: TRANSLATED
-Translated as 'bedroom' from AtoE.
-dam’: TRANSLATED
-Translated as 'that' from AtoE.
-yi: TRANSLATED
-Translated as 'you' from AtoE.
-anim’: TRANSLATED
-Translated as 'sleep' from AtoE.
-ho: TRANSLATED
-Translated as 'front' from AtoE.
-na: TRANSLATED
-Translated as 'is' from AtoE.
-meda.”: TRANSLATED
-Translated as 'where' from AtoE.</t>
-  </si>
-  <si>
-    <t>Obarima: TRANSLATED
-Translated as 'The' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-yii: TRANSLATED
-Translated as 'took' from AtoE.
-kete: TRANSLATED
-Translated as 'mat' from AtoE.
-betoo: TRANSLATED
-Translated as 'placed' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-ho.: TRANSLATED
-Translated as 'there.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-ne: TRANSLATED
-Translated as 'and' from AtoE.
-ne: TRANSLATED
-Translated as 'his' from AtoE.
-ye’: TRANSLATED
-Translated as 'wife' from AtoE.
-ko: TRANSLATED
-Translated as 'went' from AtoE.
-daye,: TRANSLATED
-Translated as 'slept,' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-so: TRANSLATED
-Translated as 'also' from AtoE.
-daa: TRANSLATED
-Translated as 'lay' from AtoE.
-ho.: TRANSLATED
-Translated as 'there.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-daa: TRANSLATED
-Translated as 'lay' from AtoE.
-ho: TRANSLATED
-Translated as 'there' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-wato: TRANSLATED
-Translated as 'parted' from AtoE.
-anim’: TRANSLATED
-Translated as 'mouth' from AtoE.
-krokro.: TRANSLATED
-Translated as 'wide.' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-da: TRANSLATED
-Translated as 'lay' from AtoE.
-ho: TRANSLATED
-Translated as 'there' from AtoE.
-na: TRANSLATED
-Translated as 'took' from AtoE.
-ofaa: TRANSLATED
-Translated as 'his' from AtoE.
-ne: TRANSLATED
-Translated as 'sepirewa' from AtoE.
-sepirewa: TRANSLATED
-Translated as 'said:' from AtoE.
-se:: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>“Akuamoa: TRANSLATED
-Translated as '“Akuamoa' from AtoE.
-Ananse,: TRANSLATED
-Translated as 'Ananse,' from AtoE.
-nne: TRANSLATED
-Translated as 'today' from AtoE.
-ye’beye: TRANSLATED
-Translated as 'we‐will‐do' from AtoE.
-biribi: TRANSLATED
-Translated as 'something' from AtoE.
-nne.: TRANSLATED
-Translated as 'today.' from AtoE.
-Nyame: TRANSLATED
-Translated as 'Nyame' from AtoE.
-‘ni,: TRANSLATED
-Translated as 'own,' from AtoE.
-Nsia: TRANSLATED
-Translated as 'Nsia' from AtoE.
-‘ba: TRANSLATED
-Translated as 'child' from AtoE.
-Ananse,: TRANSLATED
-Translated as 'Ananse,' from AtoE.
-Nne: TRANSLATED
-Translated as 'today' from AtoE.
-ye’beye: TRANSLATED
-Translated as 'we‐will‐do' from AtoE.
-biribi: TRANSLATED
-Translated as 'something' from AtoE.
-nne.: TRANSLATED
-Translated as 'today.' from AtoE.
-Nyame: TRANSLATED
-Translated as 'Nyame' from AtoE.
-‘kradware’ni: TRANSLATED
-Translated as 'soul‐washer' from AtoE.
-Ananse,: TRANSLATED
-Translated as 'Ananse,' from AtoE.
-Nne: TRANSLATED
-Translated as 'today' from AtoE.
-mehunu: TRANSLATED
-Translated as 'I‐see' from AtoE.
-biribi.”: TRANSLATED
-Translated as 'something.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Efei: TRANSLATED
-Translated as 'Then' from AtoE.
-ogyaee: TRANSLATED
-Translated as 'he' from AtoE.
-sepirewa,: TRANSLATED
-Translated as 'stopped' from AtoE.
-na: TRANSLATED
-Translated as 'sepirewa,' from AtoE.
-ode: TRANSLATED
-Translated as 'and' from AtoE.
-too: TRANSLATED
-Translated as 'placed' from AtoE.
-ho: TRANSLATED
-Translated as 'it' from AtoE.
-na: TRANSLATED
-Translated as 'there' from AtoE.
-odaye.: TRANSLATED
-Translated as 'and' from AtoE.</t>
-  </si>
-  <si>
-    <t>Oda: TRANSLATED
-Translated as 'He' from AtoE.
-ho’a,: TRANSLATED
-Translated as 'sleeps' from AtoE.
-otee: TRANSLATED
-Translated as 'small,' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo: NOUN:Person-adjective-root
-Noun representing 'jealous one' or 'person associated with jealousy.'
-e’fre: TRANSLATED
-Translated as 'Jealous‐one' from AtoE.
-no,: TRANSLATED
-Translated as 'calling' from AtoE.
-“Agya: TRANSLATED
-Translated as 'him,' from AtoE.
-‘Barima.”: TRANSLATED
-Translated as '“Father' from AtoE.
-Dinn!: TRANSLATED
-Translated as 'man.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>“Agya: TRANSLATED
-Translated as '“Father' from AtoE.
-‘Barima.”: TRANSLATED
-Translated as 'man.”' from AtoE.
-Dinn!: TRANSLATED
-Translated as 'Silence!' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo: NOUN:Person-adjective-root
-Noun representing 'jealous one' or 'person associated with jealousy.'
-o’wu;: TRANSLATED
-Translated as 'is' from AtoE.
-aduro: TRANSLATED
-Translated as 'dying;' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-aka: TRANSLATED
-Translated as 'has' from AtoE.
-no,: TRANSLATED
-Translated as 'him,' from AtoE.
-nso: TRANSLATED
-Translated as 'yet' from AtoE.
-ofree: TRANSLATED
-Translated as 'he' from AtoE.
-“Agya: TRANSLATED
-Translated as 'calls' from AtoE.
-‘Barima.”: TRANSLATED
-Translated as '“Father' from AtoE.
-Dinn!: TRANSLATED
-Translated as 'man.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Efei: TRANSLATED
-Translated as 'Then' from AtoE.
-dee: TRANSLATED
-Translated as 'he' from AtoE.
-osee,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Sore‐ko‐di‐Aso.”: TRANSLATED
-Translated as '“Rise‐up‐and‐make‐love‐to‐Aso.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Osee,: TRANSLATED
-Translated as 'He' from AtoE.
-“M!: TRANSLATED
-Translated as 'said,' from AtoE.
-M!: TRANSLATED
-Translated as '“M!' from AtoE.
-M!”: TRANSLATED
-Translated as 'M!' from AtoE.</t>
-  </si>
-  <si>
-    <t>Osee,: TRANSLATED
-Translated as 'He' from AtoE.
-“Hyini: TRANSLATED
-Translated as 'said,' from AtoE.
-me.”: TRANSLATED
-Translated as '“Open' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-hyiniye,: TRANSLATED
-Translated as 'opened,' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-koo: TRANSLATED
-Translated as 'went' from AtoE.
-babi.: TRANSLATED
-Translated as 'somewhere.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'Then' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-sore: TRANSLATED
-Translated as 'rose' from AtoE.
-koo: TRANSLATED
-Translated as 'went' from AtoE.
-‘dan: TRANSLATED
-Translated as 'bedroom' from AtoE.
-nom’: TRANSLATED
-Translated as 'there.' from AtoE.
-ho.: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Osee,: TRANSLATED
-Translated as 'He' from AtoE.
-“Aso,: TRANSLATED
-Translated as 'said,' from AtoE.
-w’ate: TRANSLATED
-Translated as '“Aso,' from AtoE.
-dee: TRANSLATED
-Translated as 'you' from AtoE.
-wo: TRANSLATED
-Translated as 'heard' from AtoE.
-kunu: TRANSLATED
-Translated as 'what' from AtoE.
-kaye?”: TRANSLATED
-Translated as 'your' from AtoE.</t>
-  </si>
-  <si>
-    <t>Osee,: TRANSLATED
-Translated as 'She' from AtoE.
-“Osee: TRANSLATED
-Translated as 'said,' from AtoE.
-sen?”: TRANSLATED
-Translated as '“He' from AtoE.</t>
-  </si>
-  <si>
-    <t>Osee,: TRANSLATED
-Translated as 'He' from AtoE.
-“Osee: TRANSLATED
-Translated as 'said,' from AtoE.
-me: TRANSLATED
-Translated as '“He' from AtoE.
-nsore: TRANSLATED
-Translated as 'said' from AtoE.
-mmedi: TRANSLATED
-Translated as 'me' from AtoE.
-wo.”: TRANSLATED
-Translated as 'rise' from AtoE.</t>
-  </si>
-  <si>
-    <t>Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Wo: TRANSLATED
-Translated as '“You' from AtoE.
-mmoa.”: TRANSLATED
-Translated as 'are' from AtoE.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'Then' from AtoE.
-waye: TRANSLATED
-Translated as 'he' from AtoE.
-ama: TRANSLATED
-Translated as 'did' from AtoE.
-no,: TRANSLATED
-Translated as 'for' from AtoE.
-na: TRANSLATED
-Translated as 'her,' from AtoE.
-wasan: TRANSLATED
-Translated as 'then' from AtoE.
-abeda.: TRANSLATED
-Translated as 'returned' from AtoE.</t>
-  </si>
-  <si>
-    <t>Anadwo: TRANSLATED
-Translated as 'Night' from AtoE.
-no,: TRANSLATED
-Translated as 'that,' from AtoE.
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-soree: TRANSLATED
-Translated as 'rose' from AtoE.
-mpen: TRANSLATED
-Translated as 'nine' from AtoE.
-nkron;: TRANSLATED
-Translated as 'times;' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-soso: TRANSLATED
-Translated as 'also' from AtoE.
-koo: TRANSLATED
-Translated as 'went' from AtoE.
-Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-nkyen: TRANSLATED
-Translated as 'side' from AtoE.
-mpen: TRANSLATED
-Translated as 'nine' from AtoE.
-nkron.: TRANSLATED
-Translated as 'times.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Adeekyeye: TRANSLATED
-Translated as 'Early' from AtoE.
-anopa,: TRANSLATED
-Translated as 'morning,' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-siim’: TRANSLATED
-Translated as 'set' from AtoE.
-koye.: TRANSLATED
-Translated as 'out' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ebeye: TRANSLATED
-Translated as 'After' from AtoE.
-asrammienu: TRANSLATED
-Translated as 'maybe' from AtoE.
-na: TRANSLATED
-Translated as 'two' from AtoE.
-Aso: TRANSLATED
-Translated as 'months,' from AtoE.
-afu’: TRANSLATED
-Translated as 'Aso' from AtoE.
-aye: TRANSLATED
-Translated as 'belly' from AtoE.
-kakraka.: TRANSLATED
-Translated as 'has' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-bisaa: TRANSLATED
-Translated as 'asked' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-“Aden: TRANSLATED
-Translated as '“Why' from AtoE.
-na: TRANSLATED
-Translated as 'that' from AtoE.
-w’afu’: TRANSLATED
-Translated as 'your' from AtoE.
-aye: TRANSLATED
-Translated as 'belly' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-yie,: TRANSLATED
-Translated as 'so' from AtoE.
-dabere: TRANSLATED
-Translated as 'big,' from AtoE.
-wo: TRANSLATED
-Translated as 'maybe' from AtoE.
-yare,: TRANSLATED
-Translated as 'you' from AtoE.
-na: TRANSLATED
-Translated as 'sickness,' from AtoE.
-me: TRANSLATED
-Translated as 'and' from AtoE.
-a: TRANSLATED
-Translated as 'me' from AtoE.
-me: TRANSLATED
-Translated as 'who' from AtoE.
-ne: TRANSLATED
-Translated as 'with' from AtoE.
-wo: TRANSLATED
-Translated as 'you,' from AtoE.
-te: TRANSLATED
-Translated as 'I' from AtoE.
-ho,: TRANSLATED
-Translated as 'not' from AtoE.
-me: TRANSLATED
-Translated as 'have' from AtoE.
-nnwo: TRANSLATED
-Translated as 'child.”' from AtoE.
-‘ba.”: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Wo: TRANSLATED
-Translated as '“You' from AtoE.
-were: TRANSLATED
-Translated as 'forgot' from AtoE.
-afi: TRANSLATED
-Translated as 'the' from AtoE.
-obarima: TRANSLATED
-Translated as 'man' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-a: TRANSLATED
-Translated as 'came' from AtoE.
-obaa: TRANSLATED
-Translated as 'here' from AtoE.
-ha: TRANSLATED
-Translated as 'who' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-a: TRANSLATED
-Translated as 'called' from AtoE.
-wo: TRANSLATED
-Translated as '‘Rise‐up‐and‐make‐love‐to‐Aso’?' from AtoE.
-kaa: TRANSLATED
-Translated as 'He' from AtoE.
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-‘Sore‐ko‐di‐Aso’: TRANSLATED
-Translated as 'the' from AtoE.
-no,: TRANSLATED
-Translated as 'one' from AtoE.
-na: TRANSLATED
-Translated as 'who' from AtoE.
-eye: TRANSLATED
-Translated as 'took' from AtoE.
-a: TRANSLATED
-Translated as 'me' from AtoE.
-obefaa: TRANSLATED
-Translated as 'and' from AtoE.
-me: TRANSLATED
-Translated as 'made' from AtoE.
-na: TRANSLATED
-Translated as 'me' from AtoE.
-one: TRANSLATED
-Translated as 'conceive.”' from AtoE.
-me: UNKNOWN
-No annotation available for this word.
-nyem.”: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo: NOUN:Person-adjective-root
-Noun representing 'jealous one' or 'person associated with jealousy.'
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Sore: TRANSLATED
-Translated as '“Rise' from AtoE.
-ma: TRANSLATED
-Translated as 'let' from AtoE.
-me: TRANSLATED
-Translated as 'me' from AtoE.
-mfa: TRANSLATED
-Translated as 'take' from AtoE.
-wo: TRANSLATED
-Translated as 'you' from AtoE.
-nko: ADV:Adverbial
-Adverb meaning 'only' or 'solely.'
-ma: TRANSLATED
-Translated as 'to' from AtoE.
-no.”: TRANSLATED
-Translated as 'him.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ye’koo: TRANSLATED
-Translated as 'We' from AtoE.
-Nyankonpon: TRANSLATED
-Translated as 'went' from AtoE.
-kurom’.: TRANSLATED
-Translated as 'Sky‐god' from AtoE.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'On' from AtoE.
-okwanm’: TRANSLATED
-Translated as 'the' from AtoE.
-Aso: TRANSLATED
-Translated as 'road' from AtoE.
-ko: TRANSLATED
-Translated as 'Aso' from AtoE.
-woye.: TRANSLATED
-Translated as 'gave' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ye’duruu: TRANSLATED
-Translated as 'We' from AtoE.
-Nyame: TRANSLATED
-Translated as 'reached' from AtoE.
-kurom’: TRANSLATED
-Translated as 'Nyame’s' from AtoE.
-ko: TRANSLATED
-Translated as 'town' from AtoE.
-boo: TRANSLATED
-Translated as 'told' from AtoE.
-Nyame: TRANSLATED
-Translated as 'Nyame' from AtoE.
-amanee: TRANSLATED
-Translated as 'matters' from AtoE.
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-“W’akoa: TRANSLATED
-Translated as '“Your' from AtoE.
-bi: DET:Indefinite-article
-Determiner meaning 'a' or 'some.'
-a: TRANSLATED
-Translated as 'one' from AtoE.
-wo: TRANSLATED
-Translated as 'who' from AtoE.
-somaa: TRANSLATED
-Translated as 'you' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-a: TRANSLATED
-Translated as 'who' from AtoE.
-obedaa: TRANSLATED
-Translated as 'slept' from AtoE.
-me: TRANSLATED
-Translated as 'my' from AtoE.
-‘fie,: TRANSLATED
-Translated as 'house,' from AtoE.
-na: TRANSLATED
-Translated as 'he' from AtoE.
-wafa: TRANSLATED
-Translated as 'took' from AtoE.
-Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-ne: TRANSLATED
-Translated as 'and' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-anyem.”: TRANSLATED
-Translated as 'her.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Nyankonpon: TRANSLATED
-Translated as 'Sky‐god' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Me: TRANSLATED
-Translated as '“My' from AtoE.
-nkoa: TRANSLATED
-Translated as 'servants' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-nnyina: TRANSLATED
-Translated as 'roofing' from AtoE.
-e’bua: TRANSLATED
-Translated as 'huts,' from AtoE.
-‘dan,: TRANSLATED
-Translated as 'go' from AtoE.
-na: TRANSLATED
-Translated as 'show' from AtoE.
-ko: TRANSLATED
-Translated as 'man' from AtoE.
-kyere: TRANSLATED
-Translated as 'single.”' from AtoE.
-‘nipa: UNKNOWN
-No annotation available for this word.
-koro.”: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Ye’koreye,: TRANSLATED
-Translated as 'We' from AtoE.
-na: TRANSLATED
-Translated as 'went,' from AtoE.
-Ananse: TRANSLATED
-Translated as 'and' from AtoE.
-te: TRANSLATED
-Translated as 'Ananse' from AtoE.
-etire.: TRANSLATED
-Translated as 'sits' from AtoE.</t>
-  </si>
-  <si>
-    <t>Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“O’nie.”: TRANSLATED
-Translated as '“There' from AtoE.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'Then' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-adwane: TRANSLATED
-Translated as 'jumped' from AtoE.
-abetena: TRANSLATED
-Translated as 'sat' from AtoE.
-mfin‐mfini.: TRANSLATED
-Translated as 'middle.' from AtoE.</t>
-  </si>
-  <si>
-    <t>Na: TRANSLATED
-Translated as 'And' from AtoE.
-Aso: TRANSLATED
-Translated as 'Aso' from AtoE.
-akyere: TRANSLATED
-Translated as 'again' from AtoE.
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-“O’nie.”: TRANSLATED
-Translated as '“There' from AtoE.</t>
-  </si>
-  <si>
-    <t>Efei: TRANSLATED
-Translated as 'Then' from AtoE.
-dee: TRANSLATED
-Translated as 'Ananse' from AtoE.
-Ananse: TRANSLATED
-Translated as 'from' from AtoE.
-firi: TRANSLATED
-Translated as 'top' from AtoE.
-soro: TRANSLATED
-Translated as 'place' from AtoE.
-ho: TRANSLATED
-Translated as 'fell' from AtoE.
-befwee: TRANSLATED
-Translated as 'ground.' from AtoE.
-fam’.: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Eda: TRANSLATED
-Translated as 'Day' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-so,: TRANSLATED
-Translated as 'on,' from AtoE.
-eye: TRANSLATED
-Translated as 'it' from AtoE.
-Fiada.: TRANSLATED
-Translated as 'is' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-see,: TRANSLATED
-Translated as 'said,' from AtoE.
-“Me: TRANSLATED
-Translated as '“Me' from AtoE.
-dware: TRANSLATED
-Translated as 'wash' from AtoE.
-‘kra: TRANSLATED
-Translated as 'soul' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-wo: TRANSLATED
-Translated as 'you' from AtoE.
-de: TRANSLATED
-Translated as 'put' from AtoE.
-wo: TRANSLATED
-Translated as 'your' from AtoE.
-nsa: TRANSLATED
-Translated as 'hand' from AtoE.
-akyere: TRANSLATED
-Translated as 'on' from AtoE.
-me: TRANSLATED
-Translated as 'me' from AtoE.
-so,: TRANSLATED
-Translated as 'that' from AtoE.
-na: TRANSLATED
-Translated as 'I' from AtoE.
-mafwe: TRANSLATED
-Translated as 'fell' from AtoE.
-ase: TRANSLATED
-Translated as 'red' from AtoE.
-ama: TRANSLATED
-Translated as 'earth' from AtoE.
-ntwuma: TRANSLATED
-Translated as 'on' from AtoE.
-ayeye: TRANSLATED
-Translated as 'me.”' from AtoE.
-me: UNKNOWN
-No annotation available for this word.
-ho.”: UNKNOWN
-No annotation available for this word.</t>
-  </si>
-  <si>
-    <t>Seisei: TRANSLATED
-Translated as 'Then' from AtoE.
-na: TRANSLATED
-Translated as 'immediately' from AtoE.
-nhenkwa: TRANSLATED
-Translated as 'attendants' from AtoE.
-ayere: TRANSLATED
-Translated as 'seized' from AtoE.
-Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo,: TRANSLATED
-Translated as 'Jealous‐one,' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-watwa: TRANSLATED
-Translated as 'he' from AtoE.
-‘dwan.: TRANSLATED
-Translated as 'slaughtered' from AtoE.</t>
-  </si>
-  <si>
-    <t>Akwasi: PROPN:Proper-name-masculine
-Proper noun referring to a male name.
-Ninkunfuo: NOUN:Person-adjective-root
-Noun representing 'jealous one' or 'person associated with jealousy.'
-twaa: TRANSLATED
-Translated as 'slaughtered' from AtoE.
-‘dwan: TRANSLATED
-Translated as 'sheep' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-wieye,: TRANSLATED
-Translated as 'he' from AtoE.
-oka: TRANSLATED
-Translated as 'said' from AtoE.
-kyeree: TRANSLATED
-Translated as 'to' from AtoE.
-Nyame: TRANSLATED
-Translated as 'Sky‐god,' from AtoE.
-se,: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement,' with punctuation.
-“Oba: TRANSLATED
-Translated as 'this' from AtoE.
-yi: TRANSLATED
-Translated as 'is,' from AtoE.
-nie,: TRANSLATED
-Translated as 'let' from AtoE.
-Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-mfa: TRANSLATED
-Translated as 'take' from AtoE.
-no.”: TRANSLATED
-Translated as 'her.”' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ananse: TRANSLATED
-Translated as 'Ananse' from AtoE.
-faa: TRANSLATED
-Translated as 'took' from AtoE.
-Aso,: TRANSLATED
-Translated as 'Aso,' from AtoE.
-na: TRANSLATED
-Translated as 'and' from AtoE.
-akoda: TRANSLATED
-Translated as 'the' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-dee: TRANSLATED
-Translated as 'they' from AtoE.
-ye’kum: TRANSLATED
-Translated as 'killed' from AtoE.
-no: DET:Definite-article
-Determiner indicating 'the.'
-twitwaa: TRANSLATED
-Translated as 'cut' from AtoE.
-ne: TRANSLATED
-Translated as 'its' from AtoE.
-nam: TRANSLATED
-Translated as 'flesh' from AtoE.
-to: TRANSLATED
-Translated as 'scattered' from AtoE.
-peye.: TRANSLATED
-Translated as 'them' from AtoE.</t>
-  </si>
-  <si>
-    <t>Ene: TRANSLATED
-Translated as 'That' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-ninkuno: TRANSLATED
-Translated as 'how' from AtoE.
-ebeba: TRANSLATED
-Translated as 'jealousy' from AtoE.
-manm’.: TRANSLATED
-Translated as 'will' from AtoE.</t>
-  </si>
-  <si>
-    <t>M’anansesem: TRANSLATED
-Translated as 'My' from AtoE.
-a: TRANSLATED
-Translated as 'Ananse' from AtoE.
-metooye: TRANSLATED
-Translated as 'tale' from AtoE.
-yi,: TRANSLATED
-Translated as 'that' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-eye: TRANSLATED
-Translated as 'told' from AtoE.
-de: TRANSLATED
-Translated as 'this,' from AtoE.
-o,: TRANSLATED
-Translated as 'if' from AtoE.
-se: NOUN:Abstract
-Abstract noun meaning 'speech' or 'statement.'
-ennye: TRANSLATED
-Translated as 'good' from AtoE.
-de: TRANSLATED
-Translated as 'oh,' from AtoE.
-o,: TRANSLATED
-Translated as 'if' from AtoE.
-momfa: TRANSLATED
-Translated as 'it' from AtoE.
-bi: DET:Indefinite-article
-Determiner meaning 'a' or 'some.'
-nko,: TRANSLATED
-Translated as 'good' from AtoE.
-na: TRANSLATED
-Translated as 'oh,' from AtoE.
-momfa: TRANSLATED
-Translated as 'take' from AtoE.
-bi: DET:Indefinite-article
-Determiner meaning 'a' or 'some.'
-mmera.: TRANSLATED
-Translated as 'go,' from AtoE.</t>
+    <t>AtoE</t>
+  </si>
+  <si>
+    <t>EtoA</t>
+  </si>
+  <si>
+    <t>Dramatic Analysis</t>
+  </si>
+  <si>
+    <t>This opening frames the story as a traditional folktale, emphasizing its oral storytelling roots and inviting the audience to suspend disbelief.</t>
+  </si>
+  <si>
+    <t>The title introduces the central figure, Kwaku Ananse, and sets expectations for a tale of wit and cleverness. It ties to themes of ingenuity and cultural values.</t>
+  </si>
+  <si>
+    <t>This establishes the central conflict of the story, highlighting Akwasi's jealousy and possessiveness. Themes of control and isolation emerge.</t>
+  </si>
+  <si>
+    <t>Akwasi's actions deepen the conflict by physically isolating Aso. This ties to the dramatic context of rising tension and his fear of losing her.</t>
+  </si>
+  <si>
+    <t>The line underscores Akwasi's success in isolating Aso, emphasizing themes of exclusion and societal avoidance.</t>
+  </si>
+  <si>
+    <t>This introduces a deeper personal issue, adding complexity to his character and motivations. It ties to themes of inadequacy and societal pressure.</t>
+  </si>
+  <si>
+    <t>This line highlights Akwasi’s paranoia and the cultural importance of lineage and control in marriage.</t>
+  </si>
+  <si>
+    <t>The Sky-god introduces an external challenge to Akwasi’s control, raising the stakes. This also reflects themes of divine intervention and societal norms.</t>
+  </si>
+  <si>
+    <t>This reinforces the exclusivity of Aso’s situation and sets the stage for Ananse’s unique approach.</t>
+  </si>
+  <si>
+    <t>Ananse’s entrance introduces the trickster figure, signaling a shift in the narrative toward action and strategy.</t>
+  </si>
+  <si>
+    <t>This line introduces skepticism, building tension and emphasizing Ananse’s confidence and ambition.</t>
+  </si>
+  <si>
+    <t>Ananse begins to lay out his plan, showcasing his cunning and ability to negotiate for resources.</t>
+  </si>
+  <si>
+    <t>The Sky-god’s curiosity highlights the dynamic between divine figures and mortals, adding dramatic tension.</t>
+  </si>
+  <si>
+    <t>Ananse’s request reveals his strategic thinking and foreshadows his use of clever tools to achieve his goal.</t>
+  </si>
+  <si>
+    <t>The Sky-god’s support underscores the theme of divine assistance and sets up Ananse’s clever use of these resources.</t>
+  </si>
+  <si>
+    <t>Ananse’s plan unfolds as he cleverly uses the Sky-god’s gifts to manipulate others, showcasing themes of resourcefulness and strategy.</t>
+  </si>
+  <si>
+    <t>This builds on Ananse’s cunning by showing the extent of his actions and preparation for the next steps in his plan.</t>
+  </si>
+  <si>
+    <t>The success of Ananse’s distributed tools reinforces his cleverness and ability to create value from limited resources.</t>
+  </si>
+  <si>
+    <t>This moment builds anticipation, with the unusual detail of the basket hinting at another step in Ananse’s elaborate plan.</t>
+  </si>
+  <si>
+    <t>Ananse demonstrates his resourcefulness by gathering the meat as proof of his successful manipulation of the villagers. This action sets the stage for his next move against Akwasi.</t>
+  </si>
+  <si>
+    <t>Ananse’s journey to Akwasi’s settlement with the meat showcases his deliberate planning and persistence, preparing for a pivotal confrontation.</t>
+  </si>
+  <si>
+    <t>Dropping meat at the stream introduces an element of curiosity and surprise, signaling the beginning of Ananse's clever disruption of Akwasi’s household.</t>
+  </si>
+  <si>
+    <t>Ananse placing meat into the water jar is a symbolic act of infiltration, emphasizing his cunning ability to enter forbidden spaces and set events in motion.</t>
+  </si>
+  <si>
+    <t>Aso’s observation of Ananse’s actions marks the moment she becomes an unwitting participant in his plan, introducing her voice into the unfolding narrative.</t>
+  </si>
+  <si>
+    <t>Aso’s call to Akwasi reflects her confusion and growing concern, subtly drawing him into Ananse’s clever manipulation.</t>
+  </si>
+  <si>
+    <t>Ananse claims divine endorsement for his actions, adding authority to his presence and disarming Akwasi with perceived divine intervention.</t>
+  </si>
+  <si>
+    <t>Akwasi’s acknowledgment of Ananse as the Sky-god’s servant reveals his vulnerability and sets the stage for his eventual downfall.</t>
+  </si>
+  <si>
+    <t>Aso’s interaction with Ananse shows her compliance and hints at her gradual alignment with Ananse’s motives, advancing the plot.</t>
+  </si>
+  <si>
+    <t>Ananse’s suggestion to use a dog to retrieve the meat is a calculated move to maintain his influence while subtly engaging Aso further.</t>
+  </si>
+  <si>
+    <t>Aso retrieving the meat and giving it to Akwasi demonstrates her obedience and further deepens Ananse’s control over the situation.</t>
+  </si>
+  <si>
+    <t>Ananse asking Aso to prepare food for him highlights his ability to command the household, symbolizing his rising influence in Akwasi’s domain.</t>
+  </si>
+  <si>
+    <t>Ananse’s inquiry about the type of food reveals his strategy to assert dominance through subtle criticism, undermining the household’s authority.</t>
+  </si>
+  <si>
+    <t>Aso’s response about cooking fufuo reflects her compliance and cultural grounding, adding a layer of domestic realism to the narrative.</t>
+  </si>
+  <si>
+    <t>Ananse’s demand for a larger pot reinforces his control and sets up the dramatic tension as he prepares to overwhelm Akwasi’s household.</t>
+  </si>
+  <si>
+    <t>Aso fetching the larger pot and Ananse offering the meat establishes his power over the resources and continues to build tension.</t>
+  </si>
+  <si>
+    <t>Ananse’s exaggeration about the meat mocks Akwasi’s lack of abundance, symbolizing the shifting power dynamics in the household.</t>
+  </si>
+  <si>
+    <t>Aso completing the cooking process demonstrates her role as a mediator in the domestic setting, unknowingly facilitating Ananse’s plans.</t>
+  </si>
+  <si>
+    <t>Aso taking her portion reflects her compliance and detachment, while the men sitting at the table signals the culmination of Ananse’s dominance.</t>
+  </si>
+  <si>
+    <t>The men gathering to eat highlights the contrast between Ananse’s influence and Akwasi’s diminishing control, symbolizing the story’s progression toward resolution.</t>
+  </si>
+  <si>
+    <t>Ananse's remark about the lack of salt creates a moment of tension, emphasizing his cunning as he sets up Akwasi for further manipulation.</t>
+  </si>
+  <si>
+    <t>Akwasi’s instruction to Aso reflects his dominant yet oblivious role, reinforcing his dependence on her for domestic tasks.</t>
+  </si>
+  <si>
+    <t>Ananse’s challenge to Akwasi to retrieve the salt highlights his strategic reversal of power dynamics, subtly undermining Akwasi’s authority.</t>
+  </si>
+  <si>
+    <t>Ananse’s act of slipping purgative medicine into the food demonstrates his calculated strategy to weaken Akwasi physically, advancing his plan.</t>
+  </si>
+  <si>
+    <t>Calling Akwasi back with salt after sabotaging the food underscores Ananse’s wit and his ability to maintain control of the situation.</t>
+  </si>
+  <si>
+    <t>Ananse’s refusal to eat further adds an air of suspicion while signaling the completion of this phase of his plan.</t>
+  </si>
+  <si>
+    <t>Akwasi’s continued trust in Ananse despite subtle warnings reflects his naivety and deepens his eventual downfall.</t>
+  </si>
+  <si>
+    <t>The question about Ananse’s name builds intrigue and creates an opportunity for the trickster to manipulate the situation further.</t>
+  </si>
+  <si>
+    <t>Ananse’s invented name, ‘Rise-up-and-make-love-to-Aso,’ is a provocative move designed to exploit Akwasi’s jealousy and manipulate the couple’s dynamic.</t>
+  </si>
+  <si>
+    <t>Akwasi’s repetition of Ananse’s name shows his growing compliance and ignorance of the underlying plot, signaling his vulnerability.</t>
+  </si>
+  <si>
+    <t>Aso’s acknowledgment of the name subtly aligns her with Ananse’s narrative, further shifting the power balance away from Akwasi.</t>
+  </si>
+  <si>
+    <t>Akwasi’s attempt to prepare a spare bedroom for Ananse demonstrates his adherence to hospitality, ironically aiding Ananse’s plan.</t>
+  </si>
+  <si>
+    <t>Ananse’s rejection of the bedroom adds an element of unpredictability and cleverly positions him to execute his strategy further.</t>
+  </si>
+  <si>
+    <t>Akwasi’s inquiry about Ananse’s sleeping preferences reflects his increasing accommodation of Ananse’s demands, symbolizing his loss of control.</t>
+  </si>
+  <si>
+    <t>Ananse’s explanation of sleeping in the veranda cleverly invokes the Sky-god’s authority, cementing his position of power in the household.</t>
+  </si>
+  <si>
+    <t>Akwasi laying out the mat represents his complete submission to Ananse’s dominance, unknowingly assisting in his own undoing.</t>
+  </si>
+  <si>
+    <t>Ananse’s deliberate choice to sleep by the door showcases his symbolic claim over the household, foreshadowing his final victory.</t>
+  </si>
+  <si>
+    <t>Ananse playing his musical bow and singing about his plans highlights his confidence and the theatrical nature of his cleverness.</t>
+  </si>
+  <si>
+    <t>The song reinforces Ananse’s identity as the trickster and his connection to the Sky-god, amplifying the cultural significance of his role.</t>
+  </si>
+  <si>
+    <t>Ananse’s declaration of success within the song signals the story’s progression toward its climax, celebrating his wit and ingenuity.</t>
+  </si>
+  <si>
+    <t>Ananse stops playing the sepirewa and rests, signaling the calm before the next phase of his plan, as the tension builds.</t>
+  </si>
+  <si>
+    <t>Akwasi’s calls for “Father man” reflect his growing desperation, showing the first cracks in his composure.</t>
+  </si>
+  <si>
+    <t>Akwasi’s repeated calls and silence from Ananse increase the tension, highlighting Akwasi’s dependence on others for control.</t>
+  </si>
+  <si>
+    <t>The medicine taking effect weakens Akwasi physically and mentally, symbolizing the erosion of his authority.</t>
+  </si>
+  <si>
+    <t>Akwasi’s command, “Rise-up-and-make-love-to-Aso,” unknowingly fulfills Ananse’s plan, marking the culmination of his trickery.</t>
+  </si>
+  <si>
+    <t>Ananse’s response, “M! M! M!,” is both humorous and affirming, solidifying his role as the clever manipulator.</t>
+  </si>
+  <si>
+    <t>Akwasi’s request to open the door shows his diminishing awareness, emphasizing his vulnerability to Ananse’s deception.</t>
+  </si>
+  <si>
+    <t>Ananse opening the door and Akwasi leaving signifies Ananse’s complete infiltration of the household and control over the situation.</t>
+  </si>
+  <si>
+    <t>Ananse’s entry into the room marks the beginning of his final manipulation, as he prepares to fulfill the Sky-god’s challenge.</t>
+  </si>
+  <si>
+    <t>Ananse’s question to Aso about her husband’s statement begins the process of aligning her with his actions, reinforcing her passive role.</t>
+  </si>
+  <si>
+    <t>Aso’s reply, “What did he say?” indicates her confusion and dependence on others for direction, setting up her eventual compliance.</t>
+  </si>
+  <si>
+    <t>Ananse’s repetition of Akwasi’s words establishes the justification for his actions, turning the husband’s words into his own advantage.</t>
+  </si>
+  <si>
+    <t>Aso’s response, “You don’t lie,” signals her acceptance and acknowledgment of Ananse’s actions, deepening the irony of the situation.</t>
+  </si>
+  <si>
+    <t>Ananse fulfilling his role with Aso demonstrates his success in achieving the Sky-god’s challenge, solidifying his cleverness.</t>
+  </si>
+  <si>
+    <t>Akwasi’s repeated rising and Ananse’s repeated visits to Aso that night symbolize the dramatic irony and complete reversal of power dynamics.</t>
+  </si>
+  <si>
+    <t>Ananse’s early departure reflects his strategic retreat, leaving the household to deal with the consequences of his actions.</t>
+  </si>
+  <si>
+    <t>Aso’s growing belly becomes the physical manifestation of Ananse’s triumph and the ultimate evidence of Akwasi’s failure.</t>
+  </si>
+  <si>
+    <t>Akwasi’s question about Aso’s pregnancy highlights his obliviousness and inability to accept the truth of the situation.</t>
+  </si>
+  <si>
+    <t>Aso’s candid explanation about Ananse’s actions brings the deception full circle, exposing the reality to Akwasi.</t>
+  </si>
+  <si>
+    <t>Akwasi’s decision to confront Ananse shows his final attempt to regain control, setting up the resolution of the story.</t>
+  </si>
+  <si>
+    <t>The journey to the Sky-god’s town reflects a return to divine judgment, marking the resolution phase of the story.</t>
+  </si>
+  <si>
+    <t>Aso giving birth on the way symbolizes the fulfillment of the Sky-god’s challenge and Ananse’s triumph in securing lineage.</t>
+  </si>
+  <si>
+    <t>Akwasi’s accusation to the Sky-god showcases his desperation and reliance on higher authority to resolve his loss of control.</t>
+  </si>
+  <si>
+    <t>The Sky-god’s response shifts the responsibility back to Akwasi, testing his ability to confront the truth directly.</t>
+  </si>
+  <si>
+    <t>Ananse sitting on the ridge pole emphasizes his boldness and his mastery in navigating complex situations.</t>
+  </si>
+  <si>
+    <t>Aso’s identification of Ananse signals her acknowledgment of his actions, solidifying her alignment with the truth.</t>
+  </si>
+  <si>
+    <t>Ananse’s quick movement to another location underscores his agility and determination to evade direct confrontation.</t>
+  </si>
+  <si>
+    <t>Aso’s repeated identification of Ananse reinforces her commitment to clarity and justice, moving the plot toward closure.</t>
+  </si>
+  <si>
+    <t>Ananse’s fall from the ridge pole injects humor and humanity into the narrative, showcasing his clever yet imperfect nature.</t>
+  </si>
+  <si>
+    <t>The mention of Friday adds a cultural and temporal anchor, deepening the narrative’s connection to oral tradition.</t>
+  </si>
+  <si>
+    <t>Ananse’s complaint about red earth cleverly shifts focus, demonstrating his ability to maintain control even under scrutiny.</t>
+  </si>
+  <si>
+    <t>Akwasi’s offer of Aso to Ananse finalizes the resolution of the primary conflict, cementing Ananse’s victory.</t>
+  </si>
+  <si>
+    <t>The killing of the infant adds a dark and tragic note, symbolizing the cost of jealousy and its impact on innocence.</t>
+  </si>
+  <si>
+    <t>The spread of jealousy among the tribe ties the personal conflict to a broader societal theme, serving as a moral warning.</t>
+  </si>
+  <si>
+    <t>The attendants seizing Akwasi reflects the inversion of power, with Akwasi facing the consequences of his actions;The sheep sacrifice serves as a symbolic act of restitution, marking Akwasi’s final acknowledgment of defeat.</t>
+  </si>
+  <si>
+    <t>The storyteller’s reflection emphasizes the oral tradition, blending moral lessons with performance elements; The closing call for praise highlights the cultural and performative nature of storytelling, inviting audience engagement.</t>
   </si>
 </sst>
 </file>
@@ -4912,9 +2957,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="84.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -4924,51 +2977,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I2" t="s">
         <v>761</v>
@@ -4976,28 +3029,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I3" t="s">
         <v>762</v>
@@ -5005,28 +3058,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I4" t="s">
         <v>763</v>
@@ -5034,28 +3087,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I5" t="s">
         <v>764</v>
@@ -5063,28 +3116,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I6" t="s">
         <v>765</v>
@@ -5092,28 +3145,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I7" t="s">
         <v>766</v>
@@ -5121,28 +3174,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H8" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I8" t="s">
         <v>767</v>
@@ -5150,28 +3203,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G9" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H9" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I9" t="s">
         <v>768</v>
@@ -5179,28 +3232,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I10" t="s">
         <v>769</v>
@@ -5208,28 +3261,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G11" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H11" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I11" t="s">
         <v>770</v>
@@ -5237,28 +3290,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H12" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I12" t="s">
         <v>771</v>
@@ -5266,28 +3319,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F13" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H13" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I13" t="s">
         <v>772</v>
@@ -5295,28 +3348,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G14" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I14" t="s">
         <v>773</v>
@@ -5324,28 +3377,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E15" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F15" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G15" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H15" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I15" t="s">
         <v>774</v>
@@ -5353,28 +3406,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F16" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G16" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H16" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I16" t="s">
         <v>775</v>
@@ -5382,28 +3435,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F17" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H17" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I17" t="s">
         <v>776</v>
@@ -5411,28 +3464,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F18" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H18" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I18" t="s">
         <v>777</v>
@@ -5440,28 +3493,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G19" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H19" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I19" t="s">
         <v>778</v>
@@ -5469,28 +3522,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F20" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G20" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H20" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I20" t="s">
         <v>779</v>
@@ -5498,28 +3551,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E21" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F21" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H21" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I21" t="s">
         <v>780</v>
@@ -5527,28 +3580,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E22" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F22" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G22" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H22" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="I22" t="s">
         <v>781</v>
@@ -5556,28 +3609,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F23" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G23" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H23" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="I23" t="s">
         <v>782</v>
@@ -5585,28 +3638,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G24" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H24" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="I24" t="s">
         <v>783</v>
@@ -5614,28 +3667,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E25" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F25" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G25" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H25" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I25" t="s">
         <v>784</v>
@@ -5643,28 +3696,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E26" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F26" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G26" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H26" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="I26" t="s">
         <v>785</v>
@@ -5672,28 +3725,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E27" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F27" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G27" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H27" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I27" t="s">
         <v>786</v>
@@ -5701,28 +3754,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E28" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F28" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G28" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H28" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I28" t="s">
         <v>787</v>
@@ -5730,28 +3783,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F29" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G29" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H29" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I29" t="s">
         <v>788</v>
@@ -5759,28 +3812,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E30" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G30" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H30" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I30" t="s">
         <v>789</v>
@@ -5788,28 +3841,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E31" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G31" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H31" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I31" t="s">
         <v>790</v>
@@ -5817,28 +3870,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E32" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G32" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H32" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I32" t="s">
         <v>791</v>
@@ -5846,28 +3899,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G33" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H33" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I33" t="s">
         <v>792</v>
@@ -5875,28 +3928,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F34" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G34" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I34" t="s">
         <v>793</v>
@@ -5904,28 +3957,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E35" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F35" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G35" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H35" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I35" t="s">
         <v>794</v>
@@ -5933,28 +3986,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E36" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F36" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G36" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H36" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="I36" t="s">
         <v>795</v>
@@ -5962,28 +4015,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E37" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F37" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G37" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H37" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I37" t="s">
         <v>796</v>
@@ -5991,28 +4044,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E38" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F38" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G38" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H38" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I38" t="s">
         <v>797</v>
@@ -6020,28 +4073,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F39" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G39" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H39" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I39" t="s">
         <v>798</v>
@@ -6049,28 +4102,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E40" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F40" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G40" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H40" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="I40" t="s">
         <v>799</v>
@@ -6078,28 +4131,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D41" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E41" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F41" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G41" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H41" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="I41" t="s">
         <v>800</v>
@@ -6107,28 +4160,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E42" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F42" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G42" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H42" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I42" t="s">
         <v>801</v>
@@ -6136,28 +4189,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F43" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G43" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H43" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="I43" t="s">
         <v>802</v>
@@ -6165,28 +4218,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D44" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E44" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F44" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G44" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H44" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="I44" t="s">
         <v>803</v>
@@ -6194,28 +4247,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G45" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H45" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="I45" t="s">
         <v>804</v>
@@ -6223,28 +4276,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E46" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F46" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G46" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H46" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="I46" t="s">
         <v>805</v>
@@ -6252,28 +4305,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E47" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F47" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G47" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H47" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="I47" t="s">
         <v>806</v>
@@ -6281,28 +4334,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D48" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E48" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F48" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G48" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H48" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="I48" t="s">
         <v>807</v>
@@ -6310,28 +4363,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D49" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E49" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F49" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G49" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H49" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="I49" t="s">
         <v>808</v>
@@ -6339,28 +4392,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D50" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E50" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F50" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G50" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H50" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="I50" t="s">
         <v>809</v>
@@ -6368,28 +4421,28 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D51" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E51" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F51" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G51" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H51" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I51" t="s">
         <v>810</v>
@@ -6397,28 +4450,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E52" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F52" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G52" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H52" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="I52" t="s">
         <v>811</v>
@@ -6426,28 +4479,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D53" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E53" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F53" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G53" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H53" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="I53" t="s">
         <v>812</v>
@@ -6455,28 +4508,28 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E54" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F54" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G54" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H54" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="I54" t="s">
         <v>813</v>
@@ -6484,28 +4537,28 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E55" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F55" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G55" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H55" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I55" t="s">
         <v>814</v>
@@ -6513,28 +4566,28 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D56" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E56" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F56" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G56" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H56" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="I56" t="s">
         <v>815</v>
@@ -6542,28 +4595,28 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D57" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E57" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F57" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G57" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H57" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I57" t="s">
         <v>816</v>
@@ -6571,28 +4624,28 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D58" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E58" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F58" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G58" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H58" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I58" t="s">
         <v>817</v>
@@ -6600,28 +4653,28 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D59" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E59" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F59" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G59" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H59" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="I59" t="s">
         <v>818</v>
@@ -6629,28 +4682,28 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D60" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E60" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F60" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G60" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H60" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="I60" t="s">
         <v>819</v>
@@ -6658,28 +4711,28 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D61" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E61" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F61" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G61" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H61" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I61" t="s">
         <v>820</v>
@@ -6687,28 +4740,28 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E62" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F62" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G62" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H62" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="I62" t="s">
         <v>821</v>
@@ -6716,28 +4769,28 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D63" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E63" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F63" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G63" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H63" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I63" t="s">
         <v>822</v>
@@ -6745,28 +4798,28 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D64" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E64" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F64" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G64" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H64" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I64" t="s">
         <v>823</v>
@@ -6774,28 +4827,28 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D65" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E65" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F65" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G65" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H65" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="I65" t="s">
         <v>824</v>
@@ -6803,28 +4856,28 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D66" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E66" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F66" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G66" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H66" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="I66" t="s">
         <v>825</v>
@@ -6832,28 +4885,28 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D67" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E67" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F67" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G67" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H67" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="I67" t="s">
         <v>826</v>
@@ -6861,28 +4914,28 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E68" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F68" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G68" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H68" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="I68" t="s">
         <v>827</v>
@@ -6890,28 +4943,28 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D69" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E69" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F69" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G69" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H69" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="I69" t="s">
         <v>828</v>
@@ -6919,28 +4972,28 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D70" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E70" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F70" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G70" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H70" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="I70" t="s">
         <v>829</v>
@@ -6948,28 +5001,28 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D71" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E71" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F71" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G71" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H71" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I71" t="s">
         <v>830</v>
@@ -6977,28 +5030,28 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D72" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E72" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F72" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G72" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H72" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I72" t="s">
         <v>831</v>
@@ -7006,28 +5059,28 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C73" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F73" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G73" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H73" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I73" t="s">
         <v>832</v>
@@ -7035,28 +5088,28 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D74" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E74" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F74" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G74" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H74" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="I74" t="s">
         <v>833</v>
@@ -7064,28 +5117,28 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D75" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E75" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F75" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G75" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H75" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I75" t="s">
         <v>834</v>
@@ -7093,28 +5146,28 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C76" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D76" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E76" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F76" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G76" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H76" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="I76" t="s">
         <v>835</v>
@@ -7122,28 +5175,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D77" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E77" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F77" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G77" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H77" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="I77" t="s">
         <v>836</v>
@@ -7151,28 +5204,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C78" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D78" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E78" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F78" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G78" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H78" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I78" t="s">
         <v>837</v>
@@ -7180,28 +5233,28 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C79" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D79" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E79" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F79" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G79" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H79" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="I79" t="s">
         <v>838</v>
@@ -7209,28 +5262,28 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D80" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E80" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F80" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G80" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H80" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="I80" t="s">
         <v>839</v>
@@ -7238,28 +5291,28 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D81" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E81" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F81" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G81" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H81" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I81" t="s">
         <v>840</v>
@@ -7267,28 +5320,28 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F82" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G82" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H82" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="I82" t="s">
         <v>841</v>
@@ -7296,28 +5349,28 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E83" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F83" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G83" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H83" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I83" t="s">
         <v>842</v>
@@ -7325,28 +5378,28 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D84" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E84" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F84" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G84" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H84" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I84" t="s">
         <v>843</v>
@@ -7354,28 +5407,28 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D85" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E85" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F85" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G85" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H85" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I85" t="s">
         <v>844</v>
@@ -7383,28 +5436,28 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F86" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G86" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H86" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I86" t="s">
         <v>845</v>
@@ -7412,28 +5465,28 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E87" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F87" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G87" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H87" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="I87" t="s">
         <v>846</v>
@@ -7441,28 +5494,28 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D88" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E88" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F88" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G88" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H88" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="I88" t="s">
         <v>847</v>
@@ -7470,28 +5523,28 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D89" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E89" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F89" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G89" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H89" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I89" t="s">
         <v>848</v>
@@ -7499,28 +5552,28 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E90" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F90" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G90" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H90" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I90" t="s">
         <v>849</v>
@@ -7528,28 +5581,28 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D91" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E91" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F91" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G91" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H91" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I91" t="s">
         <v>850</v>
@@ -7557,144 +5610,144 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D92" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E92" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F92" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G92" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H92" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I92" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D93" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E93" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F93" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G93" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H93" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I93" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D94" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E94" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F94" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G94" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H94" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="I94" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D95" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E95" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F95" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G95" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H95" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I95" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D96" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E96" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F96" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G96" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H96" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I96" t="s">
         <v>855</v>

--- a/Ananse1/Ananse1_Learned.xlsx
+++ b/Ananse1/Ananse1_Learned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akan\New Ananse Tales\Ananse1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D1387E-1E5C-43A3-BDB5-54DBE3AEB72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A1AF67-1463-44B0-A0DB-E3F4AAADCD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="3450" windowWidth="19980" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="3450" windowWidth="22275" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Learned" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="867">
   <si>
     <t>AKAN</t>
   </si>
@@ -2588,6 +2588,39 @@
   </si>
   <si>
     <t>The storyteller’s reflection emphasizes the oral tradition, blending moral lessons with performance elements; The closing call for praise highlights the cultural and performative nature of storytelling, inviting audience engagement.</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>Act I: The Seclusion</t>
+  </si>
+  <si>
+    <t>Scene 1: Introduction of Akwasi and Aso</t>
+  </si>
+  <si>
+    <t>Scene 2: Ananse devises a plan</t>
+  </si>
+  <si>
+    <t>Act II: The Deception</t>
+  </si>
+  <si>
+    <t>Scene 1: Ananse's journey to the village</t>
+  </si>
+  <si>
+    <t>Scene 2: Execution of Ananse's plan</t>
+  </si>
+  <si>
+    <t>Act III: The Marriage</t>
+  </si>
+  <si>
+    <t>Scene 1: Aso's liberation</t>
+  </si>
+  <si>
+    <t>Scene 2: Ananse and Aso's marriage</t>
   </si>
 </sst>
 </file>
@@ -2646,11 +2679,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2955,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2966,10 +3000,10 @@
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="18.08984375" customWidth="1"/>
     <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="84.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2997,8 +3031,14 @@
       <c r="I1" s="1" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3026,8 +3066,14 @@
       <c r="I2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>858</v>
+      </c>
+      <c r="K2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3055,8 +3101,14 @@
       <c r="I3" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>858</v>
+      </c>
+      <c r="K3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3084,8 +3136,14 @@
       <c r="I4" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>858</v>
+      </c>
+      <c r="K4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3113,8 +3171,14 @@
       <c r="I5" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>858</v>
+      </c>
+      <c r="K5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3142,8 +3206,14 @@
       <c r="I6" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>858</v>
+      </c>
+      <c r="K6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3171,8 +3241,14 @@
       <c r="I7" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>858</v>
+      </c>
+      <c r="K7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3200,8 +3276,14 @@
       <c r="I8" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>858</v>
+      </c>
+      <c r="K8" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3229,8 +3311,14 @@
       <c r="I9" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>858</v>
+      </c>
+      <c r="K9" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3258,8 +3346,14 @@
       <c r="I10" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>858</v>
+      </c>
+      <c r="K10" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3287,8 +3381,14 @@
       <c r="I11" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
+        <v>858</v>
+      </c>
+      <c r="K11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3316,8 +3416,14 @@
       <c r="I12" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>858</v>
+      </c>
+      <c r="K12" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3345,8 +3451,14 @@
       <c r="I13" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>858</v>
+      </c>
+      <c r="K13" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3374,8 +3486,14 @@
       <c r="I14" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
+        <v>858</v>
+      </c>
+      <c r="K14" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3403,8 +3521,14 @@
       <c r="I15" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" t="s">
+        <v>858</v>
+      </c>
+      <c r="K15" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3556,14 @@
       <c r="I16" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" t="s">
+        <v>858</v>
+      </c>
+      <c r="K16" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3461,8 +3591,14 @@
       <c r="I17" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
+        <v>858</v>
+      </c>
+      <c r="K17" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3490,8 +3626,14 @@
       <c r="I18" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>858</v>
+      </c>
+      <c r="K18" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3519,8 +3661,14 @@
       <c r="I19" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>858</v>
+      </c>
+      <c r="K19" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3548,8 +3696,14 @@
       <c r="I20" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>858</v>
+      </c>
+      <c r="K20" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3577,8 +3731,14 @@
       <c r="I21" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>858</v>
+      </c>
+      <c r="K21" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3606,8 +3766,14 @@
       <c r="I22" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" t="s">
+        <v>858</v>
+      </c>
+      <c r="K22" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3635,8 +3801,14 @@
       <c r="I23" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" t="s">
+        <v>858</v>
+      </c>
+      <c r="K23" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3664,8 +3836,14 @@
       <c r="I24" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" t="s">
+        <v>858</v>
+      </c>
+      <c r="K24" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3693,8 +3871,14 @@
       <c r="I25" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" t="s">
+        <v>858</v>
+      </c>
+      <c r="K25" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3722,8 +3906,14 @@
       <c r="I26" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" t="s">
+        <v>858</v>
+      </c>
+      <c r="K26" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3751,8 +3941,14 @@
       <c r="I27" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" t="s">
+        <v>858</v>
+      </c>
+      <c r="K27" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3780,8 +3976,14 @@
       <c r="I28" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
+        <v>858</v>
+      </c>
+      <c r="K28" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3809,8 +4011,14 @@
       <c r="I29" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" t="s">
+        <v>858</v>
+      </c>
+      <c r="K29" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3838,8 +4046,14 @@
       <c r="I30" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" t="s">
+        <v>858</v>
+      </c>
+      <c r="K30" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3867,8 +4081,14 @@
       <c r="I31" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" t="s">
+        <v>858</v>
+      </c>
+      <c r="K31" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3896,8 +4116,14 @@
       <c r="I32" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" t="s">
+        <v>858</v>
+      </c>
+      <c r="K32" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3925,8 +4151,14 @@
       <c r="I33" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" t="s">
+        <v>858</v>
+      </c>
+      <c r="K33" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3954,8 +4186,14 @@
       <c r="I34" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" t="s">
+        <v>861</v>
+      </c>
+      <c r="K34" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -3983,8 +4221,14 @@
       <c r="I35" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" t="s">
+        <v>861</v>
+      </c>
+      <c r="K35" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4012,8 +4256,14 @@
       <c r="I36" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36" t="s">
+        <v>861</v>
+      </c>
+      <c r="K36" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4041,8 +4291,14 @@
       <c r="I37" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" t="s">
+        <v>861</v>
+      </c>
+      <c r="K37" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4070,8 +4326,14 @@
       <c r="I38" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38" t="s">
+        <v>861</v>
+      </c>
+      <c r="K38" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4099,8 +4361,14 @@
       <c r="I39" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39" t="s">
+        <v>861</v>
+      </c>
+      <c r="K39" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4396,14 @@
       <c r="I40" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J40" t="s">
+        <v>861</v>
+      </c>
+      <c r="K40" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4157,8 +4431,14 @@
       <c r="I41" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41" t="s">
+        <v>861</v>
+      </c>
+      <c r="K41" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4186,8 +4466,14 @@
       <c r="I42" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42" t="s">
+        <v>861</v>
+      </c>
+      <c r="K42" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4215,8 +4501,14 @@
       <c r="I43" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J43" t="s">
+        <v>861</v>
+      </c>
+      <c r="K43" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4244,8 +4536,14 @@
       <c r="I44" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J44" t="s">
+        <v>861</v>
+      </c>
+      <c r="K44" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4273,8 +4571,14 @@
       <c r="I45" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J45" t="s">
+        <v>861</v>
+      </c>
+      <c r="K45" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4302,8 +4606,14 @@
       <c r="I46" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46" t="s">
+        <v>861</v>
+      </c>
+      <c r="K46" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4331,8 +4641,14 @@
       <c r="I47" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47" t="s">
+        <v>861</v>
+      </c>
+      <c r="K47" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4360,8 +4676,14 @@
       <c r="I48" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J48" t="s">
+        <v>861</v>
+      </c>
+      <c r="K48" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4389,8 +4711,14 @@
       <c r="I49" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" t="s">
+        <v>861</v>
+      </c>
+      <c r="K49" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4418,8 +4746,14 @@
       <c r="I50" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50" t="s">
+        <v>861</v>
+      </c>
+      <c r="K50" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4447,8 +4781,14 @@
       <c r="I51" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J51" t="s">
+        <v>861</v>
+      </c>
+      <c r="K51" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4476,8 +4816,14 @@
       <c r="I52" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J52" t="s">
+        <v>861</v>
+      </c>
+      <c r="K52" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4505,8 +4851,14 @@
       <c r="I53" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53" t="s">
+        <v>861</v>
+      </c>
+      <c r="K53" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4534,8 +4886,14 @@
       <c r="I54" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J54" t="s">
+        <v>861</v>
+      </c>
+      <c r="K54" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4563,8 +4921,14 @@
       <c r="I55" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55" t="s">
+        <v>861</v>
+      </c>
+      <c r="K55" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4592,8 +4956,14 @@
       <c r="I56" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56" t="s">
+        <v>861</v>
+      </c>
+      <c r="K56" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4621,8 +4991,14 @@
       <c r="I57" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57" t="s">
+        <v>861</v>
+      </c>
+      <c r="K57" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4650,8 +5026,14 @@
       <c r="I58" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58" t="s">
+        <v>861</v>
+      </c>
+      <c r="K58" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4679,8 +5061,14 @@
       <c r="I59" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59" t="s">
+        <v>861</v>
+      </c>
+      <c r="K59" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4708,8 +5096,14 @@
       <c r="I60" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60" t="s">
+        <v>861</v>
+      </c>
+      <c r="K60" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4737,8 +5131,14 @@
       <c r="I61" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61" t="s">
+        <v>861</v>
+      </c>
+      <c r="K61" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4766,8 +5166,14 @@
       <c r="I62" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" t="s">
+        <v>861</v>
+      </c>
+      <c r="K62" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4795,8 +5201,14 @@
       <c r="I63" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" t="s">
+        <v>861</v>
+      </c>
+      <c r="K63" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4824,8 +5236,14 @@
       <c r="I64" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J64" t="s">
+        <v>861</v>
+      </c>
+      <c r="K64" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4853,8 +5271,14 @@
       <c r="I65" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65" t="s">
+        <v>861</v>
+      </c>
+      <c r="K65" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4882,8 +5306,14 @@
       <c r="I66" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J66" t="s">
+        <v>864</v>
+      </c>
+      <c r="K66" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4911,8 +5341,14 @@
       <c r="I67" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67" t="s">
+        <v>864</v>
+      </c>
+      <c r="K67" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4940,8 +5376,14 @@
       <c r="I68" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68" t="s">
+        <v>864</v>
+      </c>
+      <c r="K68" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4969,8 +5411,14 @@
       <c r="I69" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J69" t="s">
+        <v>864</v>
+      </c>
+      <c r="K69" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4998,8 +5446,14 @@
       <c r="I70" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J70" t="s">
+        <v>864</v>
+      </c>
+      <c r="K70" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -5027,8 +5481,14 @@
       <c r="I71" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J71" t="s">
+        <v>864</v>
+      </c>
+      <c r="K71" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -5056,8 +5516,14 @@
       <c r="I72" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J72" t="s">
+        <v>864</v>
+      </c>
+      <c r="K72" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -5085,8 +5551,14 @@
       <c r="I73" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J73" t="s">
+        <v>864</v>
+      </c>
+      <c r="K73" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -5114,8 +5586,14 @@
       <c r="I74" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74" t="s">
+        <v>864</v>
+      </c>
+      <c r="K74" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -5143,8 +5621,14 @@
       <c r="I75" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J75" t="s">
+        <v>864</v>
+      </c>
+      <c r="K75" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -5172,8 +5656,14 @@
       <c r="I76" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J76" t="s">
+        <v>864</v>
+      </c>
+      <c r="K76" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -5201,8 +5691,14 @@
       <c r="I77" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J77" t="s">
+        <v>864</v>
+      </c>
+      <c r="K77" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -5230,8 +5726,14 @@
       <c r="I78" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J78" t="s">
+        <v>864</v>
+      </c>
+      <c r="K78" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -5259,8 +5761,14 @@
       <c r="I79" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J79" t="s">
+        <v>864</v>
+      </c>
+      <c r="K79" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -5288,8 +5796,14 @@
       <c r="I80" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J80" t="s">
+        <v>864</v>
+      </c>
+      <c r="K80" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -5317,8 +5831,14 @@
       <c r="I81" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J81" t="s">
+        <v>864</v>
+      </c>
+      <c r="K81" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -5346,8 +5866,14 @@
       <c r="I82" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J82" t="s">
+        <v>864</v>
+      </c>
+      <c r="K82" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -5375,8 +5901,14 @@
       <c r="I83" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J83" t="s">
+        <v>864</v>
+      </c>
+      <c r="K83" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -5404,8 +5936,14 @@
       <c r="I84" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J84" t="s">
+        <v>864</v>
+      </c>
+      <c r="K84" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -5433,8 +5971,14 @@
       <c r="I85" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J85" t="s">
+        <v>864</v>
+      </c>
+      <c r="K85" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -5462,8 +6006,14 @@
       <c r="I86" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J86" t="s">
+        <v>864</v>
+      </c>
+      <c r="K86" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -5491,8 +6041,14 @@
       <c r="I87" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J87" t="s">
+        <v>864</v>
+      </c>
+      <c r="K87" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -5520,8 +6076,14 @@
       <c r="I88" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J88" t="s">
+        <v>864</v>
+      </c>
+      <c r="K88" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -5549,8 +6111,14 @@
       <c r="I89" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J89" t="s">
+        <v>864</v>
+      </c>
+      <c r="K89" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -5578,8 +6146,14 @@
       <c r="I90" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J90" t="s">
+        <v>864</v>
+      </c>
+      <c r="K90" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -5607,8 +6181,14 @@
       <c r="I91" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J91" t="s">
+        <v>864</v>
+      </c>
+      <c r="K91" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -5636,8 +6216,14 @@
       <c r="I92" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J92" t="s">
+        <v>864</v>
+      </c>
+      <c r="K92" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -5665,8 +6251,14 @@
       <c r="I93" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J93" t="s">
+        <v>864</v>
+      </c>
+      <c r="K93" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -5694,8 +6286,14 @@
       <c r="I94" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J94" t="s">
+        <v>864</v>
+      </c>
+      <c r="K94" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -5723,8 +6321,14 @@
       <c r="I95" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J95" t="s">
+        <v>864</v>
+      </c>
+      <c r="K95" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -5751,6 +6355,12 @@
       </c>
       <c r="I96" t="s">
         <v>855</v>
+      </c>
+      <c r="J96" t="s">
+        <v>864</v>
+      </c>
+      <c r="K96" t="s">
+        <v>866</v>
       </c>
     </row>
   </sheetData>
